--- a/data/hotels_by_city/Houston/Houston_shard_237.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_237.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="517">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d292556-Reviews-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
   </si>
   <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Fairfield-Inn-Suites-By-Marriott-Houston-Hobby-Airport.h996086.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1469 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r583652971-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>292556</t>
+  </si>
+  <si>
+    <t>583652971</t>
+  </si>
+  <si>
+    <t>05/29/2018</t>
+  </si>
+  <si>
+    <t>Room &amp; hallway SMELLY &amp; Humid</t>
+  </si>
+  <si>
+    <t>We were on the 4th floor and I walked off the elevators into the hallway and said to my family "it stinks up here".  We got in the room and it was just as smelly but we had to go return the rental car so just left our luggage and went to return the car.  Got back to the hotel afterwards and my 70 some mother in law was so tired I sadly didn't move us.  At midnight while lying wide awake due to the humidity in the room, I was so mad I didn't just move us to another room.  With how humid the hallway was, and with Air conditioner parts in the hallway, it was very clear something was going on. I never slept, my child tossed and turned and my mother in law snoozed away as she can sleep through anything. I wish they would have told us about the a/c as the four points Sheraton is in the adjoining parking lot &amp; we could have stayed there.  In fact the general manager said in a response that there were no a/c problems and that it was just the room.  Not! if so... then how do they explain the hallway smells and humidity?  All 3 of us felt it. On the positive, Eric at the front desk was nice. The shuttle driver in the evening was also very nice. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Rachel M, General Manager at Fairfield Inn &amp; Suites Houston Hobby Airport, responded to this reviewResponded May 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2018</t>
+  </si>
+  <si>
+    <t>We were on the 4th floor and I walked off the elevators into the hallway and said to my family "it stinks up here".  We got in the room and it was just as smelly but we had to go return the rental car so just left our luggage and went to return the car.  Got back to the hotel afterwards and my 70 some mother in law was so tired I sadly didn't move us.  At midnight while lying wide awake due to the humidity in the room, I was so mad I didn't just move us to another room.  With how humid the hallway was, and with Air conditioner parts in the hallway, it was very clear something was going on. I never slept, my child tossed and turned and my mother in law snoozed away as she can sleep through anything. I wish they would have told us about the a/c as the four points Sheraton is in the adjoining parking lot &amp; we could have stayed there.  In fact the general manager said in a response that there were no a/c problems and that it was just the room.  Not! if so... then how do they explain the hallway smells and humidity?  All 3 of us felt it. On the positive, Eric at the front desk was nice. The shuttle driver in the evening was also very nice. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r579666935-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>579666935</t>
+  </si>
+  <si>
+    <t>05/12/2018</t>
+  </si>
+  <si>
+    <t>Bacon and Sausage oh My!  Great Breakfast Hostesses</t>
+  </si>
+  <si>
+    <t>Stayed here prior to cruise, Saturday mornings can be kinda iffy at most hotels but not here Trisha and her helper kept everything fresh and full with a friendly Texas spirit!!  Bacon and Sausage oh my!MoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel M, General Manager at Fairfield Inn &amp; Suites Houston Hobby Airport, responded to this reviewResponded May 15, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2018</t>
+  </si>
+  <si>
+    <t>Stayed here prior to cruise, Saturday mornings can be kinda iffy at most hotels but not here Trisha and her helper kept everything fresh and full with a friendly Texas spirit!!  Bacon and Sausage oh my!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r579320133-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>579320133</t>
+  </si>
+  <si>
+    <t>05/10/2018</t>
+  </si>
+  <si>
+    <t>HAIR BRAIDS LEFT IN SHEETS; poor AC system; limited breakfast; STAY ELSEWHERE!</t>
+  </si>
+  <si>
+    <t>Stayed 05/06/2018: The positives:• Close to airport• Competitive pricing• The front reception staff was friendlyThe rest of the story:• Hair braid/weave was left in the sheets on the bed (how were the sheets even changed prior to my stay?!)• The window AC unit has fixed vents so that they cannot be directed elsewhere. One must build a fort out of the pillows so the AC doesn't blow on your face all night while you sleep! Or... you could sweat to death...• The limited breakfast items didn't get refilled. Eggs run out? Sorry, no more eggs. Waffle batter all used up? Sorry, no more waffles.While the price and proximity to the airport fit the bill for arriving late in the evening, I would 100% stay elsewhere as there are plenty of similarly-priced options. Arriving around midnight, I knew that it wasn't likely that another hotel could have accommodated my stay and if the lack of cleaning or changing sheets was any indication of the processes internally at this hotel, I would get an equal if not worse room!MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Rachel M, General Manager at Fairfield Inn &amp; Suites Houston Hobby Airport, responded to this reviewResponded May 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2018</t>
+  </si>
+  <si>
+    <t>Stayed 05/06/2018: The positives:• Close to airport• Competitive pricing• The front reception staff was friendlyThe rest of the story:• Hair braid/weave was left in the sheets on the bed (how were the sheets even changed prior to my stay?!)• The window AC unit has fixed vents so that they cannot be directed elsewhere. One must build a fort out of the pillows so the AC doesn't blow on your face all night while you sleep! Or... you could sweat to death...• The limited breakfast items didn't get refilled. Eggs run out? Sorry, no more eggs. Waffle batter all used up? Sorry, no more waffles.While the price and proximity to the airport fit the bill for arriving late in the evening, I would 100% stay elsewhere as there are plenty of similarly-priced options. Arriving around midnight, I knew that it wasn't likely that another hotel could have accommodated my stay and if the lack of cleaning or changing sheets was any indication of the processes internally at this hotel, I would get an equal if not worse room!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r571004194-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>571004194</t>
+  </si>
+  <si>
+    <t>04/04/2018</t>
+  </si>
+  <si>
+    <t>Roaches &amp; Apathetic Service</t>
+  </si>
+  <si>
+    <t>Killed at least 5 roaches before departing room 313 at 7 am on 4/4/18. I told the front desk guy and he replied, "I will make a note of it." I said, "that's it?" to which he replied "the GM will be here in 15 minutes. I'm just the front desk guy."Wow. I left that room so quickly in the morning. I figure the staff is a reflection of management so what could I possibly expect from their higher up?MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>Rachel M, General Manager at Fairfield Inn &amp; Suites Houston Hobby Airport, responded to this reviewResponded April 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 5, 2018</t>
+  </si>
+  <si>
+    <t>Killed at least 5 roaches before departing room 313 at 7 am on 4/4/18. I told the front desk guy and he replied, "I will make a note of it." I said, "that's it?" to which he replied "the GM will be here in 15 minutes. I'm just the front desk guy."Wow. I left that room so quickly in the morning. I figure the staff is a reflection of management so what could I possibly expect from their higher up?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r569573015-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>569573015</t>
+  </si>
+  <si>
+    <t>03/29/2018</t>
+  </si>
+  <si>
+    <t>Great stay! Super hero staff - Queen of cuisine, King of cheap, super manager</t>
+  </si>
+  <si>
+    <t>From the moment we walked in, we were treated as though we were the most special people they had every had in their hotel. From Eric (King of Cheap) who enthusiastically  took the time to help us find inexpensive places to eat, Chloe the manager has a smile that challenges the brightness of the sun and did everything to make us feel welcome. Patsy (Queen of cuisine) took the time to make sure we were satisfied, asked if she could help us with anything and was overall very nice. The food was the usual (not Patsy's fault) scrambled eggs, waffles, cereal, sausage, etc. Only real complaint is why can't they have real butter instead of whipped spread! What is that anyway? Next time I'm bringing butter. They can do better. The room was large, quiet, small fridge, TWO TV's, great king-sized bed . Slept like a log! The price was right and the surroundings were clean and very pleasant. We will definitely stay here again the next time we are in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Rachel M, Director of Sales at Fairfield Inn &amp; Suites Houston Hobby Airport, responded to this reviewResponded April 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 13, 2018</t>
+  </si>
+  <si>
+    <t>From the moment we walked in, we were treated as though we were the most special people they had every had in their hotel. From Eric (King of Cheap) who enthusiastically  took the time to help us find inexpensive places to eat, Chloe the manager has a smile that challenges the brightness of the sun and did everything to make us feel welcome. Patsy (Queen of cuisine) took the time to make sure we were satisfied, asked if she could help us with anything and was overall very nice. The food was the usual (not Patsy's fault) scrambled eggs, waffles, cereal, sausage, etc. Only real complaint is why can't they have real butter instead of whipped spread! What is that anyway? Next time I'm bringing butter. They can do better. The room was large, quiet, small fridge, TWO TV's, great king-sized bed . Slept like a log! The price was right and the surroundings were clean and very pleasant. We will definitely stay here again the next time we are in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r567988540-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>567988540</t>
+  </si>
+  <si>
+    <t>03/21/2018</t>
+  </si>
+  <si>
+    <t>Great experience</t>
+  </si>
+  <si>
+    <t>We had four suites reserved for the night before our cruise out of Galveston. Rooms were all together as requested and very clean. Free shuttle from airport was wonderful. Check is was super fast and very friendly. Rooms were a nice size and beds were comfortable. Hot breakfast in the morning was very nice. Silent night with no issues of any kind. Great experience for all of us!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r564022160-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>564022160</t>
+  </si>
+  <si>
+    <t>03/03/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not a bad option </t>
+  </si>
+  <si>
+    <t>This hotel was clean, and is literally right of the highway.  The staff was nice,  and gave us a choice of rooms when we got there.  Rooms were decent enough,  and were also clean.  Our room had a mini fridge and microwave.  Beds were comfortable,  and there seemed to be enough room in the bathroom. 
+I suggest asking for a room father away from the highway noise, because it can get super noisy.  The downfalls of this hotel are that the a/c unit was impossible to control.  We set it to the lowest setting, but even then,  it didn't seem as though our room was any cooler.  We were sweating almost all night long.  In addition,  the bathroom door was super squeaky and difficult to manage. 
+Also,  other guests made it difficult to sleep well, as we heard yelling and other noises very late at night. 
+The breakfast in the morning was okay,  but didn't seem to be enough for all the people staying overnight,  as everything seemed in short supply.  Also, the quality of the food was just okay. There wasn't much around the hotel itself with regards to places to eat,  so I'd suggest eating before arriving,  or plan on driving somewhere after checking in. The parking lot is on the smaller side, and had some trash around, and it seemed kind of full when we got there.  I'd rate our stay as a 3.5, but that option...This hotel was clean, and is literally right of the highway.  The staff was nice,  and gave us a choice of rooms when we got there.  Rooms were decent enough,  and were also clean.  Our room had a mini fridge and microwave.  Beds were comfortable,  and there seemed to be enough room in the bathroom. I suggest asking for a room father away from the highway noise, because it can get super noisy.  The downfalls of this hotel are that the a/c unit was impossible to control.  We set it to the lowest setting, but even then,  it didn't seem as though our room was any cooler.  We were sweating almost all night long.  In addition,  the bathroom door was super squeaky and difficult to manage. Also,  other guests made it difficult to sleep well, as we heard yelling and other noises very late at night. The breakfast in the morning was okay,  but didn't seem to be enough for all the people staying overnight,  as everything seemed in short supply.  Also, the quality of the food was just okay. There wasn't much around the hotel itself with regards to places to eat,  so I'd suggest eating before arriving,  or plan on driving somewhere after checking in. The parking lot is on the smaller side, and had some trash around, and it seemed kind of full when we got there.  I'd rate our stay as a 3.5, but that option isn't available.Overall, it wasn't a bad option, as it was super close to the Hobby airport,  but I don't think we'll be back. MoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel M, General Manager at Fairfield Inn &amp; Suites Houston Hobby Airport, responded to this reviewResponded March 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 5, 2018</t>
+  </si>
+  <si>
+    <t>This hotel was clean, and is literally right of the highway.  The staff was nice,  and gave us a choice of rooms when we got there.  Rooms were decent enough,  and were also clean.  Our room had a mini fridge and microwave.  Beds were comfortable,  and there seemed to be enough room in the bathroom. 
+I suggest asking for a room father away from the highway noise, because it can get super noisy.  The downfalls of this hotel are that the a/c unit was impossible to control.  We set it to the lowest setting, but even then,  it didn't seem as though our room was any cooler.  We were sweating almost all night long.  In addition,  the bathroom door was super squeaky and difficult to manage. 
+Also,  other guests made it difficult to sleep well, as we heard yelling and other noises very late at night. 
+The breakfast in the morning was okay,  but didn't seem to be enough for all the people staying overnight,  as everything seemed in short supply.  Also, the quality of the food was just okay. There wasn't much around the hotel itself with regards to places to eat,  so I'd suggest eating before arriving,  or plan on driving somewhere after checking in. The parking lot is on the smaller side, and had some trash around, and it seemed kind of full when we got there.  I'd rate our stay as a 3.5, but that option...This hotel was clean, and is literally right of the highway.  The staff was nice,  and gave us a choice of rooms when we got there.  Rooms were decent enough,  and were also clean.  Our room had a mini fridge and microwave.  Beds were comfortable,  and there seemed to be enough room in the bathroom. I suggest asking for a room father away from the highway noise, because it can get super noisy.  The downfalls of this hotel are that the a/c unit was impossible to control.  We set it to the lowest setting, but even then,  it didn't seem as though our room was any cooler.  We were sweating almost all night long.  In addition,  the bathroom door was super squeaky and difficult to manage. Also,  other guests made it difficult to sleep well, as we heard yelling and other noises very late at night. The breakfast in the morning was okay,  but didn't seem to be enough for all the people staying overnight,  as everything seemed in short supply.  Also, the quality of the food was just okay. There wasn't much around the hotel itself with regards to places to eat,  so I'd suggest eating before arriving,  or plan on driving somewhere after checking in. The parking lot is on the smaller side, and had some trash around, and it seemed kind of full when we got there.  I'd rate our stay as a 3.5, but that option isn't available.Overall, it wasn't a bad option, as it was super close to the Hobby airport,  but I don't think we'll be back. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r563711561-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>563711561</t>
+  </si>
+  <si>
+    <t>03/02/2018</t>
+  </si>
+  <si>
+    <t>Vacation with  other Families</t>
+  </si>
+  <si>
+    <t>We were greeted very well by Glenda and Staff, which helped us to choose the right room for our stay. The rooms, sheets, towels are very clean. Breakfast was very good and well prepared by Patricia. The maids are very cordial and polite with us when requesting more towels, soap shampoo and conditioner for our long stay (8 Days) .</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r562502001-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>562502001</t>
+  </si>
+  <si>
+    <t>02/24/2018</t>
+  </si>
+  <si>
+    <t>Basic Hotel, Great Service</t>
+  </si>
+  <si>
+    <t>My Co-worker and I recently stayed at this location, and got fantastic customer service.  Erick was incredibly welcoming after a long day of work and driving, gave us restaurant suggestions, and was incredibly personable.  I noticed that some guests staying longer as they walked in he knew their names and welcomed them back by name.  Although my interaction was much more brief with the woman working the breakfast bar, she was friendly, nice and took pride in her work.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r556571895-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>556571895</t>
+  </si>
+  <si>
+    <t>01/26/2018</t>
+  </si>
+  <si>
+    <t>Ill never stay anywhere else!</t>
+  </si>
+  <si>
+    <t>Last night my business partner + I stayed before our Retreat in La Porte, Texas. There were plenty of selections for breakfast + the beds were extremely comfortable, we slept all night. I have traveled all over the United States + I have never met a more wonderful hotel staff. From check-in to check-out everyone was pleasant. After check-out front desk attendant Ashley made my day/week/year! She called + explained that I left something in the room, after verifying that it belonged to me she said she found my laptop/lifeline! Not only did she find it, she returned it to me after she got off since I loved close to her home. I cannot thank her enough for her honesty + the entire hotel staff for their kindness while I was staying.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Rachel M, General Manager at Fairfield Inn &amp; Suites Houston Hobby Airport, responded to this reviewResponded February 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2018</t>
+  </si>
+  <si>
+    <t>Last night my business partner + I stayed before our Retreat in La Porte, Texas. There were plenty of selections for breakfast + the beds were extremely comfortable, we slept all night. I have traveled all over the United States + I have never met a more wonderful hotel staff. From check-in to check-out everyone was pleasant. After check-out front desk attendant Ashley made my day/week/year! She called + explained that I left something in the room, after verifying that it belonged to me she said she found my laptop/lifeline! Not only did she find it, she returned it to me after she got off since I loved close to her home. I cannot thank her enough for her honesty + the entire hotel staff for their kindness while I was staying.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r555326604-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>555326604</t>
+  </si>
+  <si>
+    <t>01/21/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here after a flight cancellation </t>
+  </si>
+  <si>
+    <t>We had a last minute booking after our flight was cancelled due to conditions at another city. The shuttle was quick to pick us up after booking, although it was not clearly marked as Fairfield shuttle. The bed was average, the hot water for the shower was tricky, and the breakfast was good, although not as good as other Fairfield inns I have stayed in. The shuttle to the airport was slow. We had a reservation for 9 and we were told to be to the lobby by 8:55. However, there were several parties ahead of us, and I don’t think we left the hotel till around 9:30, however we made the flight on time. MoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel M, General Manager at Fairfield Inn &amp; Suites Houston Hobby Airport, responded to this reviewResponded January 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 24, 2018</t>
+  </si>
+  <si>
+    <t>We had a last minute booking after our flight was cancelled due to conditions at another city. The shuttle was quick to pick us up after booking, although it was not clearly marked as Fairfield shuttle. The bed was average, the hot water for the shower was tricky, and the breakfast was good, although not as good as other Fairfield inns I have stayed in. The shuttle to the airport was slow. We had a reservation for 9 and we were told to be to the lobby by 8:55. However, there were several parties ahead of us, and I don’t think we left the hotel till around 9:30, however we made the flight on time. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r554493407-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>554493407</t>
+  </si>
+  <si>
+    <t>01/17/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shuttle service not running and breakfast not staffed properly </t>
+  </si>
+  <si>
+    <t>The room and hotel in general were fine. Location was so so, but most in the hobby airport area are not in the greatest neighborhoods. Eric at the front desk was very accommodating and pleasant. The Reason for only 3 star rating. First we called for the shuttle and were told where to wait. Waited for 20-25 minutes and no shuttle. Call back and were told they were having problems. If shuttle didn’t come in 10 minutes to take a taxi and hotel would reimburse. We ended up in the taxi(my 5 yr and 2 yr olds were now restless after the more than 30 minute wait.  Front desk did pay for taxi as agreed. Other issue was morning breakfast. Hotel was full(heard desk employee telling callers no vacancy). Yet in the morning only 1 woman working the breakfast area. Everything kept running out. Eggs, bread for toast, muffins, juice etc etc. lines were waiting 10-15 minutes just to get food. She was working hard and fast, just not fair for her or the guests to only have 1 person on. It was very disappointing. Would I stay here again? Yes. Would I place it above the Best Western Plus, or Holiday Inn in the same area that we’ve stayed at? No. Don’t get me wrong it wasn’t a terrible stay, but also nothing great. Shop and take the best price. They are about the same.  MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>Rachel M, General Manager at Fairfield Inn &amp; Suites Houston Hobby Airport, responded to this reviewResponded January 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2018</t>
+  </si>
+  <si>
+    <t>The room and hotel in general were fine. Location was so so, but most in the hobby airport area are not in the greatest neighborhoods. Eric at the front desk was very accommodating and pleasant. The Reason for only 3 star rating. First we called for the shuttle and were told where to wait. Waited for 20-25 minutes and no shuttle. Call back and were told they were having problems. If shuttle didn’t come in 10 minutes to take a taxi and hotel would reimburse. We ended up in the taxi(my 5 yr and 2 yr olds were now restless after the more than 30 minute wait.  Front desk did pay for taxi as agreed. Other issue was morning breakfast. Hotel was full(heard desk employee telling callers no vacancy). Yet in the morning only 1 woman working the breakfast area. Everything kept running out. Eggs, bread for toast, muffins, juice etc etc. lines were waiting 10-15 minutes just to get food. She was working hard and fast, just not fair for her or the guests to only have 1 person on. It was very disappointing. Would I stay here again? Yes. Would I place it above the Best Western Plus, or Holiday Inn in the same area that we’ve stayed at? No. Don’t get me wrong it wasn’t a terrible stay, but also nothing great. Shop and take the best price. They are about the same.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r536469376-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>536469376</t>
+  </si>
+  <si>
+    <t>10/27/2017</t>
+  </si>
+  <si>
+    <t>Overnight stay</t>
+  </si>
+  <si>
+    <t>Beautiful modern room with a comfortable queen bed,sofa,microwave and fridge. Two tv's which is great if you have more than one person. The bathroom comes with a tub. Also they have a hot breakfast and shuttle available. MoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel M, Guest Relations Manager at Fairfield Inn &amp; Suites Houston Hobby Airport, responded to this reviewResponded November 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 1, 2017</t>
+  </si>
+  <si>
+    <t>Beautiful modern room with a comfortable queen bed,sofa,microwave and fridge. Two tv's which is great if you have more than one person. The bathroom comes with a tub. Also they have a hot breakfast and shuttle available. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r528169102-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>528169102</t>
+  </si>
+  <si>
+    <t>09/28/2017</t>
+  </si>
+  <si>
+    <t>Great Fairfield Inn convenient to South Houston</t>
+  </si>
+  <si>
+    <t>I stayed here while working in the area and was impressed with this hotel.  It was comfortable and clean and the service was friendly.  The hotel if fairly new and well kept up. It is not in the best neighborhood but the hotel seems quite secure and I did not feel uncomfortable at all during my stay.  MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>I stayed here while working in the area and was impressed with this hotel.  It was comfortable and clean and the service was friendly.  The hotel if fairly new and well kept up. It is not in the best neighborhood but the hotel seems quite secure and I did not feel uncomfortable at all during my stay.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r519040549-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>519040549</t>
+  </si>
+  <si>
+    <t>08/29/2017</t>
+  </si>
+  <si>
+    <t>Quality Customer Service</t>
+  </si>
+  <si>
+    <t>Atmosphere:
+    This location is all around well maintained. We chose the King suite because we got a better price a week before leaving then we did booking months in advance. The King Suite was very spacious for 2 adults, a teenage boy and a 10 yr old girl.
+   Staff: 
+    Most of the staff was extremely friendly. The person who checked us in was basically doing his job, but a gentleman who ran the desk in the evening was unbelievably out going. 
+    At one point he recognized that there was a party going on in the pool which was difficult for other guests. He immediately told us to go to the hotel pool next door where there was an outdoor pool to use. I guess the hotels are owned by the same company. It was awesome and so much better than the cool pool inside. We also had to call him  to bring up a comforter for the sofa bed. 
+   Pool:
+   The inside pool was kinda cool and no hot tub. It kinda sucked until the front desk said we could use the outdoor pool at neighbor hotel.
+    Location: 
+    Close to Airport. The street is a one way but within a reasonable distance to many stores and restaurants.
+    Breakfast:
+    The breakfast had a very nice selection that everyone in our family was satisfied with. Eggs, cereal, yogurt, waffles etc etc.
+The only reason I didn't give them 5 stars is because...   Atmosphere:    This location is all around well maintained. We chose the King suite because we got a better price a week before leaving then we did booking months in advance. The King Suite was very spacious for 2 adults, a teenage boy and a 10 yr old girl.   Staff:     Most of the staff was extremely friendly. The person who checked us in was basically doing his job, but a gentleman who ran the desk in the evening was unbelievably out going.     At one point he recognized that there was a party going on in the pool which was difficult for other guests. He immediately told us to go to the hotel pool next door where there was an outdoor pool to use. I guess the hotels are owned by the same company. It was awesome and so much better than the cool pool inside. We also had to call him  to bring up a comforter for the sofa bed.    Pool:   The inside pool was kinda cool and no hot tub. It kinda sucked until the front desk said we could use the outdoor pool at neighbor hotel.    Location:     Close to Airport. The street is a one way but within a reasonable distance to many stores and restaurants.    Breakfast:    The breakfast had a very nice selection that everyone in our family was satisfied with. Eggs, cereal, yogurt, waffles etc etc.The only reason I didn't give them 5 stars is because they were a little understaffed at times and we had to go to the front desk for assistance instead of making a call from the room.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Atmosphere:
+    This location is all around well maintained. We chose the King suite because we got a better price a week before leaving then we did booking months in advance. The King Suite was very spacious for 2 adults, a teenage boy and a 10 yr old girl.
+   Staff: 
+    Most of the staff was extremely friendly. The person who checked us in was basically doing his job, but a gentleman who ran the desk in the evening was unbelievably out going. 
+    At one point he recognized that there was a party going on in the pool which was difficult for other guests. He immediately told us to go to the hotel pool next door where there was an outdoor pool to use. I guess the hotels are owned by the same company. It was awesome and so much better than the cool pool inside. We also had to call him  to bring up a comforter for the sofa bed. 
+   Pool:
+   The inside pool was kinda cool and no hot tub. It kinda sucked until the front desk said we could use the outdoor pool at neighbor hotel.
+    Location: 
+    Close to Airport. The street is a one way but within a reasonable distance to many stores and restaurants.
+    Breakfast:
+    The breakfast had a very nice selection that everyone in our family was satisfied with. Eggs, cereal, yogurt, waffles etc etc.
+The only reason I didn't give them 5 stars is because...   Atmosphere:    This location is all around well maintained. We chose the King suite because we got a better price a week before leaving then we did booking months in advance. The King Suite was very spacious for 2 adults, a teenage boy and a 10 yr old girl.   Staff:     Most of the staff was extremely friendly. The person who checked us in was basically doing his job, but a gentleman who ran the desk in the evening was unbelievably out going.     At one point he recognized that there was a party going on in the pool which was difficult for other guests. He immediately told us to go to the hotel pool next door where there was an outdoor pool to use. I guess the hotels are owned by the same company. It was awesome and so much better than the cool pool inside. We also had to call him  to bring up a comforter for the sofa bed.    Pool:   The inside pool was kinda cool and no hot tub. It kinda sucked until the front desk said we could use the outdoor pool at neighbor hotel.    Location:     Close to Airport. The street is a one way but within a reasonable distance to many stores and restaurants.    Breakfast:    The breakfast had a very nice selection that everyone in our family was satisfied with. Eggs, cereal, yogurt, waffles etc etc.The only reason I didn't give them 5 stars is because they were a little understaffed at times and we had to go to the front desk for assistance instead of making a call from the room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r504618381-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>504618381</t>
+  </si>
+  <si>
+    <t>07/22/2017</t>
+  </si>
+  <si>
+    <t>Nice Stay</t>
+  </si>
+  <si>
+    <t>Hotel is easy to locate.  The rooms are sizeable and are up to date.  Breakfast had a wide selection.  There is an indoor pool, and laundry facilities.  It's next door to a 4 Points, so the entryway and parking were a little confusing.  Neighborhood seems a little bad.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r502298224-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>502298224</t>
+  </si>
+  <si>
+    <t>07/15/2017</t>
+  </si>
+  <si>
+    <t>This hotel is the definition of average</t>
+  </si>
+  <si>
+    <t>I stayed here one night on my recent business trip to Houston. Proximity to airport and reviews sold me. This hotel is very average. If you're in and out of a lot of hotels, you won't be impressed but you won't hate it either. There's a Pappa's BBQ joint about a 5 minute walk from the hotel. The area is sketchy, I wouldn't want my wife and kids out walking around at night. It's located right next to a $30 per night roach motel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel M, Guest Relations Manager at Fairfield Inn &amp; Suites Houston Hobby Airport, responded to this reviewResponded July 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2017</t>
+  </si>
+  <si>
+    <t>I stayed here one night on my recent business trip to Houston. Proximity to airport and reviews sold me. This hotel is very average. If you're in and out of a lot of hotels, you won't be impressed but you won't hate it either. There's a Pappa's BBQ joint about a 5 minute walk from the hotel. The area is sketchy, I wouldn't want my wife and kids out walking around at night. It's located right next to a $30 per night roach motel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r497512740-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>497512740</t>
+  </si>
+  <si>
+    <t>06/30/2017</t>
+  </si>
+  <si>
+    <t>Average hotel right next to very busy road</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel after a Carnival cruise. We chose this hotel because of the free airport shuttle to/from Hobby and because it was affiliated with the Marriott brand. The hotel was able to accomodate us checking in early which was nice. However, it is located right next to a busy highway with no dinner options in the hotel and nothing in walkable distance other than the 4 Points Sheridan next door (couldn't even eat there the night we were there because their kitchen/dinner staff didn't show up). The front desk did supply us with phone numbers for take out places &amp; we ended up ordering domino's &amp; eating on the floor of our room because we weren't going to take a chance of getting pizza sauce on the white bed comforters. They were also willing to supply us with paper plates, napkins &amp; forks since Domino's would not. I was pleasantly surprised that despite the very loud highway outside, we did not hear it over the ac unit in the room. Beds were comfortable. Room/bathroom itself looked worn. Chips in the bathroom counter - marks on the mirrors, etc. Breakfast was ok. Hotel shuttle van to Hobby (~10 minutes) was quite old and not very clean. Driver was friendly and helpful. We will be trying a different hotel the next time we need a place to stay after a cruise.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Rachel M, Guest Relations Manager at Fairfield Inn &amp; Suites Houston Hobby Airport, responded to this reviewResponded July 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 2, 2017</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel after a Carnival cruise. We chose this hotel because of the free airport shuttle to/from Hobby and because it was affiliated with the Marriott brand. The hotel was able to accomodate us checking in early which was nice. However, it is located right next to a busy highway with no dinner options in the hotel and nothing in walkable distance other than the 4 Points Sheridan next door (couldn't even eat there the night we were there because their kitchen/dinner staff didn't show up). The front desk did supply us with phone numbers for take out places &amp; we ended up ordering domino's &amp; eating on the floor of our room because we weren't going to take a chance of getting pizza sauce on the white bed comforters. They were also willing to supply us with paper plates, napkins &amp; forks since Domino's would not. I was pleasantly surprised that despite the very loud highway outside, we did not hear it over the ac unit in the room. Beds were comfortable. Room/bathroom itself looked worn. Chips in the bathroom counter - marks on the mirrors, etc. Breakfast was ok. Hotel shuttle van to Hobby (~10 minutes) was quite old and not very clean. Driver was friendly and helpful. We will be trying a different hotel the next time we need a place to stay after a cruise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r490340849-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>490340849</t>
+  </si>
+  <si>
+    <t>06/04/2017</t>
+  </si>
+  <si>
+    <t>Must Solve Airport Transportation Issues</t>
+  </si>
+  <si>
+    <t>Prior to booking the Fairfield Inn and Suites, I called the hotel to check about transportation to and from the airport.  I was given reassurance that getting picked up overnight is not an issue.  In fact, due to the lack of demand, it should never take more than 5-10 minutes to get a shuttle.  Since shuttles for other hotels reportedly stop at 11pm, I booked the Fairfield Inn and Suites.  Unfortunately, this was a mistake.
+I arrived at 10:35pm, and called the hotel at 10:40pm from baggage claim since I only had a carry on.  I was told it would be 5 minutes, and to go to the hotel pick-up in section 12.  After 30 minutes, it still was not there, and I called the hotel back to inquire.  The front desk seemed surprised, but he said it would be another 5 minutes.  Again, Jose (the driver) did not show up.  Finally, after third phone call, the front desk employee acknowledged that he had been unable to reach the driver.  He asked me to give him a few more minutes, and finally he was able to reach the driver after I sat on hold for another 15 minutes.  It should not take 1 hour to get picked up.  I was only in Houston for a few hours, and much of it was spent in the heat waiting for a ride.  During the time I was waiting, the other hotels all...Prior to booking the Fairfield Inn and Suites, I called the hotel to check about transportation to and from the airport.  I was given reassurance that getting picked up overnight is not an issue.  In fact, due to the lack of demand, it should never take more than 5-10 minutes to get a shuttle.  Since shuttles for other hotels reportedly stop at 11pm, I booked the Fairfield Inn and Suites.  Unfortunately, this was a mistake.I arrived at 10:35pm, and called the hotel at 10:40pm from baggage claim since I only had a carry on.  I was told it would be 5 minutes, and to go to the hotel pick-up in section 12.  After 30 minutes, it still was not there, and I called the hotel back to inquire.  The front desk seemed surprised, but he said it would be another 5 minutes.  Again, Jose (the driver) did not show up.  Finally, after third phone call, the front desk employee acknowledged that he had been unable to reach the driver.  He asked me to give him a few more minutes, and finally he was able to reach the driver after I sat on hold for another 15 minutes.  It should not take 1 hour to get picked up.  I was only in Houston for a few hours, and much of it was spent in the heat waiting for a ride.  During the time I was waiting, the other hotels all came by (most of them several times), and the Marriott, Holiday Inn, and Double Tree were all running after 11pm.  To top it off, there was no apology.  The driver blamed the front desk, and the front desk blamed the driver.  Not a very professional situation.The rest of the experience was not much better.  The room looks much older than stated with an old fashioned loud wall air conditioner.  The bathroom was in poor shape with a cracked bathtub/shower(room 420), and the breakfast buffet was below average for the chain running out of coffee and hard boiled eggs.  The breakfast buffet closes at 9am on weekends, and it seemed that they did not want to restock since it was 8:45am.  The only positive was that the room was clean, and housekeeping is doing a good job.In summary, find another property.  Airport hotels should be about convenience, and this one was about frustration.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel M, Guest Relations Manager at Fairfield Inn &amp; Suites Houston Hobby Airport, responded to this reviewResponded June 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2017</t>
+  </si>
+  <si>
+    <t>Prior to booking the Fairfield Inn and Suites, I called the hotel to check about transportation to and from the airport.  I was given reassurance that getting picked up overnight is not an issue.  In fact, due to the lack of demand, it should never take more than 5-10 minutes to get a shuttle.  Since shuttles for other hotels reportedly stop at 11pm, I booked the Fairfield Inn and Suites.  Unfortunately, this was a mistake.
+I arrived at 10:35pm, and called the hotel at 10:40pm from baggage claim since I only had a carry on.  I was told it would be 5 minutes, and to go to the hotel pick-up in section 12.  After 30 minutes, it still was not there, and I called the hotel back to inquire.  The front desk seemed surprised, but he said it would be another 5 minutes.  Again, Jose (the driver) did not show up.  Finally, after third phone call, the front desk employee acknowledged that he had been unable to reach the driver.  He asked me to give him a few more minutes, and finally he was able to reach the driver after I sat on hold for another 15 minutes.  It should not take 1 hour to get picked up.  I was only in Houston for a few hours, and much of it was spent in the heat waiting for a ride.  During the time I was waiting, the other hotels all...Prior to booking the Fairfield Inn and Suites, I called the hotel to check about transportation to and from the airport.  I was given reassurance that getting picked up overnight is not an issue.  In fact, due to the lack of demand, it should never take more than 5-10 minutes to get a shuttle.  Since shuttles for other hotels reportedly stop at 11pm, I booked the Fairfield Inn and Suites.  Unfortunately, this was a mistake.I arrived at 10:35pm, and called the hotel at 10:40pm from baggage claim since I only had a carry on.  I was told it would be 5 minutes, and to go to the hotel pick-up in section 12.  After 30 minutes, it still was not there, and I called the hotel back to inquire.  The front desk seemed surprised, but he said it would be another 5 minutes.  Again, Jose (the driver) did not show up.  Finally, after third phone call, the front desk employee acknowledged that he had been unable to reach the driver.  He asked me to give him a few more minutes, and finally he was able to reach the driver after I sat on hold for another 15 minutes.  It should not take 1 hour to get picked up.  I was only in Houston for a few hours, and much of it was spent in the heat waiting for a ride.  During the time I was waiting, the other hotels all came by (most of them several times), and the Marriott, Holiday Inn, and Double Tree were all running after 11pm.  To top it off, there was no apology.  The driver blamed the front desk, and the front desk blamed the driver.  Not a very professional situation.The rest of the experience was not much better.  The room looks much older than stated with an old fashioned loud wall air conditioner.  The bathroom was in poor shape with a cracked bathtub/shower(room 420), and the breakfast buffet was below average for the chain running out of coffee and hard boiled eggs.  The breakfast buffet closes at 9am on weekends, and it seemed that they did not want to restock since it was 8:45am.  The only positive was that the room was clean, and housekeeping is doing a good job.In summary, find another property.  Airport hotels should be about convenience, and this one was about frustration.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r489625263-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>489625263</t>
+  </si>
+  <si>
+    <t>06/01/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very clean. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel is very close to the Hobby airport, its clean, has friendly staff and comfortable beds with good linens. We were worried about the road noise but it has good sound proofing. The bathroom was well maintained. </t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r489377693-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>489377693</t>
+  </si>
+  <si>
+    <t>05/31/2017</t>
+  </si>
+  <si>
+    <t>Family Cruise out of Galveston</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excellent location to stay prior to cruising out of Galveston. It was about a 30-40 min drive to the Port of Galveston. Traffic was not bad the morning of our cruise. Hotel was much cheaper then staying in Galveston. Eric assisted with booking a large group for us, 20 people (6 rooms). We used the breakfast area that night to eat pizza and visit. very clean comfortable hotel with great indoor pool.  The breakfast area in the am was well stocked and clean. I would recommend this hotel for pre or post cruise stay. </t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r478059066-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>478059066</t>
+  </si>
+  <si>
+    <t>04/22/2017</t>
+  </si>
+  <si>
+    <t>Nicest hotel close to Hobby</t>
+  </si>
+  <si>
+    <t>We have stayed at most of the nicer hotel around Hobby and this will be our go to Hotel for any future trips.  Easy to get to.  Nice front desk assistant.  Clean.  Nice rooms.  AC worked great.  Would have liked the comp breakfast to open a bit sooner but you cant have everything.  We are Silver members, we will be back, great job Fairfield Hobby!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r476026047-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>476026047</t>
+  </si>
+  <si>
+    <t>04/16/2017</t>
+  </si>
+  <si>
+    <t>Friendly and helpful front desk</t>
+  </si>
+  <si>
+    <t>We enjoyed our stay here for 2 nights.  Eric, the front desk staff is very friendly and helpful. The hotel was fully booked, we requested to change a 2 queen beds room if available.  Eric was so helpful, he got us a requested room quick.  Patricia was wonderful too!  Our group went out for shooting very early before 6 am, she prepared some hot drinks and simple food for us.  Thank you.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r475318977-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>475318977</t>
+  </si>
+  <si>
+    <t>04/13/2017</t>
+  </si>
+  <si>
+    <t>Quick overnight before cruise</t>
+  </si>
+  <si>
+    <t>Seems like an older hotel that has tried to pretend it's updated.  The staff was not as friendly, welcoming or accommodating as other Marriott properties, but they weren't exactly rude either....just kind of "un-commentable".  It was ok for an overnighter, but I would not be staying here again.  Price was good and that's why we chose it.  Rooms were relatively clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel M, Guest Relations Manager at Fairfield Inn &amp; Suites Houston Hobby Airport, responded to this reviewResponded April 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2017</t>
+  </si>
+  <si>
+    <t>Seems like an older hotel that has tried to pretend it's updated.  The staff was not as friendly, welcoming or accommodating as other Marriott properties, but they weren't exactly rude either....just kind of "un-commentable".  It was ok for an overnighter, but I would not be staying here again.  Price was good and that's why we chose it.  Rooms were relatively clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r452467064-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>452467064</t>
+  </si>
+  <si>
+    <t>01/16/2017</t>
+  </si>
+  <si>
+    <t>Cancelled flight forced overnight stay</t>
+  </si>
+  <si>
+    <t>Ice storm in the midwest cancelled our connecting flight.  Found the Fairfield Inn on booking.comShuttle service was good to/from the airport.  Front desk clerk and breakfast employees were friendly and helpful.  Toilet in our room needs to have the parts in the tank replaced - annoying that it would run for 15 minutes after every use.   Rooms facing the highway will be really loud.  Breakfast was good selection of hot and cold foods.  Don't bother eating at the "restaurant" over in their sister property (Four Points Sheraton)...Really bad food and service.Bed and pillows were comfortable.  Good water pressure and temperature in the shower.  Room was clean.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r450807815-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>450807815</t>
+  </si>
+  <si>
+    <t>01/09/2017</t>
+  </si>
+  <si>
+    <t>One night stay before our cruise</t>
+  </si>
+  <si>
+    <t>Chose the hotel because they offered free shuttle and breakfast. I spoke to Eric at the desk to verify they could handle our group. He was very accommodating and even offered to call a local restaurant to see if they were open. Traveled with extended family (9 of us) Booked 3 rooms. Because it was over Christmas, they didn't have the double bed rooms we reserved available so they upgraded us to King suites. The suites have a small sitting area with a fold-out bed (which was like sleeping on a camping cot - not too comfortable) but it was only one night so it was fine. There were 2 flat screen TVs in our room but because the room isn't really separated, it was difficult to have 2 different shows on so we just watched the same program on both TVs. There's no restaurant on site but they did have a mini store (one wall with snacks and a small selection of toiletry items) they also had ice-cream bars, so my daughter was happy. There is a very good BBQ place down the street (5-10 minute walk) where we ate lunch.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Chose the hotel because they offered free shuttle and breakfast. I spoke to Eric at the desk to verify they could handle our group. He was very accommodating and even offered to call a local restaurant to see if they were open. Traveled with extended family (9 of us) Booked 3 rooms. Because it was over Christmas, they didn't have the double bed rooms we reserved available so they upgraded us to King suites. The suites have a small sitting area with a fold-out bed (which was like sleeping on a camping cot - not too comfortable) but it was only one night so it was fine. There were 2 flat screen TVs in our room but because the room isn't really separated, it was difficult to have 2 different shows on so we just watched the same program on both TVs. There's no restaurant on site but they did have a mini store (one wall with snacks and a small selection of toiletry items) they also had ice-cream bars, so my daughter was happy. There is a very good BBQ place down the street (5-10 minute walk) where we ate lunch.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r447496164-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>447496164</t>
+  </si>
+  <si>
+    <t>12/29/2016</t>
+  </si>
+  <si>
+    <t>Clean and good service!</t>
+  </si>
+  <si>
+    <t>Driving through Texas and decided to stop for the night. Probably the best Fairfield I've stayed in nationwide. Eric at the front desk was very accomodating. He helped in anyway possible and very familiar with local area. He offered a concierge type of service for guests that was beyond compare!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r428266145-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>428266145</t>
+  </si>
+  <si>
+    <t>10/15/2016</t>
+  </si>
+  <si>
+    <t>Fairield Inn Houston Hobby</t>
+  </si>
+  <si>
+    <t>We used their shuttle to pick us up at Houston Hobby. It arrived in good time.Our rooms were ready for check-in by 10AM. The front desk arranged for a taxi to take us, a group of 6, to a restaurant for lunch. Breakfast the next morning was good, with waffles, biscuits and gravy, bacon, and sausage. Also available was fruits, juices, and cold cereals.The rooms were clean and comfortable and the service was excellent. We would definitely stay again</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r412672443-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>412672443</t>
+  </si>
+  <si>
+    <t>08/30/2016</t>
+  </si>
+  <si>
+    <t>Clean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel was clean but not really handy to anything. The shuttle took a long time so I jumped in a taxi. The restaurant choices were limited as I didn't have a car to drive. It is close to Hobby so if that is important to you it checks the box. Will try something else next time. </t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r402613534-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>402613534</t>
+  </si>
+  <si>
+    <t>08/07/2016</t>
+  </si>
+  <si>
+    <t>Great staff and well kept hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have stayed here 2 times in 2 months. Both times Eric was the front desk agent who checked me in. He is great- very professional, polite, and friendly! Hotel lobby and room well maintained and extremely clean.  I will continue to stay here when I am in the area. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r389408748-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>389408748</t>
+  </si>
+  <si>
+    <t>07/05/2016</t>
+  </si>
+  <si>
+    <t>Awesome Staff</t>
+  </si>
+  <si>
+    <t>We had a layover and were unexpectedly staying overnight without our luggage.  The staff went out of their way and took us to Walmart for diapers and made an unpleasant experience much better.  Outstanding service from Joseph Spears and Denise Grant.  The rooms were comfortable and clean.  Overall great experience.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r388810086-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>388810086</t>
+  </si>
+  <si>
+    <t>07/03/2016</t>
+  </si>
+  <si>
+    <t>It was good</t>
+  </si>
+  <si>
+    <t>We spent one night at the Fairfield Inn &amp; Suites prior to our cruise out of Galveston.  The shuttle picked us up at Hobby Airport within 10 minutes of our call.  The night manager was very cordial and let us know that it would be no problem for our group to gather in the breakfast area for a pizza dinner.  Our room was clean and quiet, and the bed was comfortable.  The breakfast was okay... pretty much what we expected.  We'd stay again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r387866097-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>387866097</t>
+  </si>
+  <si>
+    <t>06/30/2016</t>
+  </si>
+  <si>
+    <t>Amazing staff, mediocre rooms</t>
+  </si>
+  <si>
+    <t>I was very pleased by the friendliness of every staff member I met here. Incredibly friendly, kind, personable and helpful. Everyone from the shuttle driver, to the front desk agent and breakfast area attendee. The room was spacious, and the bed comfortable and clean, but fairly outdated in the bathroom. The room was set up in a very awkward way and I had a difficult time getting comfortable- which for someone who lives in hotel rooms over half the month is rare. It just felt awkward and lacked coziness. Pros: great wifi connectionFriendly staffYummy free breakfast- with actual hot items to supplement the standard cereal and yogurt The free shuttle will pick you up from the airport OR rental car center- nice surpriseFree waters and snacks upon check in if marriot memberLocation to airport Cons: outdated bathroom Lack of coziness in rooms- poorly organized and too many items for the spaceCheap products as toiletries MoreShow less</t>
+  </si>
+  <si>
+    <t>I was very pleased by the friendliness of every staff member I met here. Incredibly friendly, kind, personable and helpful. Everyone from the shuttle driver, to the front desk agent and breakfast area attendee. The room was spacious, and the bed comfortable and clean, but fairly outdated in the bathroom. The room was set up in a very awkward way and I had a difficult time getting comfortable- which for someone who lives in hotel rooms over half the month is rare. It just felt awkward and lacked coziness. Pros: great wifi connectionFriendly staffYummy free breakfast- with actual hot items to supplement the standard cereal and yogurt The free shuttle will pick you up from the airport OR rental car center- nice surpriseFree waters and snacks upon check in if marriot memberLocation to airport Cons: outdated bathroom Lack of coziness in rooms- poorly organized and too many items for the spaceCheap products as toiletries More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r382600045-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>382600045</t>
+  </si>
+  <si>
+    <t>06/14/2016</t>
+  </si>
+  <si>
+    <t>Overnight stay- great</t>
+  </si>
+  <si>
+    <t>I had to fly out of Houston to an international location so staying at the Fairfield Inn was convenient because it was close and they had a 24hr shuttle service. I called them when I landed and someone was there in 10 minutes.  The room  wasn't outdated,  but could be upgraded. The TV didn't work, but the front desk clerk gave me.a new room, Pronto.  I had a 2am shuttle request and they were prompt.  The computer wasn't working, but I was able to go across the parking lot to the Four Seasons 6and print what I needed.  I want to thank Joseph and Trish for helping me and my friends at the crack of dawn.  When I returned I stayed in the same hotel because they made my stay so pleasant. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>I had to fly out of Houston to an international location so staying at the Fairfield Inn was convenient because it was close and they had a 24hr shuttle service. I called them when I landed and someone was there in 10 minutes.  The room  wasn't outdated,  but could be upgraded. The TV didn't work, but the front desk clerk gave me.a new room, Pronto.  I had a 2am shuttle request and they were prompt.  The computer wasn't working, but I was able to go across the parking lot to the Four Seasons 6and print what I needed.  I want to thank Joseph and Trish for helping me and my friends at the crack of dawn.  When I returned I stayed in the same hotel because they made my stay so pleasant. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r380428712-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>380428712</t>
+  </si>
+  <si>
+    <t>06/06/2016</t>
+  </si>
+  <si>
+    <t>Not As Bad</t>
+  </si>
+  <si>
+    <t>We were in town for a weekend/holiday wedding and this property was really close to the venue. 
+Let me start out by saying that the location is not as bad as some of the reviews make it seem. I didn’t see much foot traffic during our stay but we didn’t venture out much at night. The parking lot is well lit and we felt completely safe going and coming. 
+The room size is adequate but the layout is a little different. The room is more “long” in length than wide in size. Some reviews mention a strange smell. There was a slight odor but it was more of the cleaning products than anything. 
+The only problem we had was the tub. When we entered the room, the initial inspection was fine (including the tub). However, during the first use of the shower, I noticed that the tub has a “dip” in the middle which causes water to stand. Not only that, but once water runs in the tub, the floor of the tub turns a nasty looking yellow-ish/brown, urine-colored stain.
+It was so disturbing that I requested the night worker to come up and personally look at it. She tried her best to explain surface coating and rust but it did not change the fact that I could not bathe my toddler or take another shower in that tub. 
+A huge “THANK YOU” to the manager Joseph. He tried his...We were in town for a weekend/holiday wedding and this property was really close to the venue. Let me start out by saying that the location is not as bad as some of the reviews make it seem. I didn’t see much foot traffic during our stay but we didn’t venture out much at night. The parking lot is well lit and we felt completely safe going and coming. The room size is adequate but the layout is a little different. The room is more “long” in length than wide in size. Some reviews mention a strange smell. There was a slight odor but it was more of the cleaning products than anything. The only problem we had was the tub. When we entered the room, the initial inspection was fine (including the tub). However, during the first use of the shower, I noticed that the tub has a “dip” in the middle which causes water to stand. Not only that, but once water runs in the tub, the floor of the tub turns a nasty looking yellow-ish/brown, urine-colored stain.It was so disturbing that I requested the night worker to come up and personally look at it. She tried her best to explain surface coating and rust but it did not change the fact that I could not bathe my toddler or take another shower in that tub. A huge “THANK YOU” to the manager Joseph. He tried his best to remedy the situation and also moved us to a different room (something the night worker should have done). Unfortunately, we had the same problem in the new room. Breakfast was ok. The bed was very comfortable. Staff was friendly. For what would have been an extremely bad experience was changed due to the diligence of the manager Joseph. This guy is a true customer service professional. If you’re in this area, this place would probably be a good bet.MoreShow less</t>
+  </si>
+  <si>
+    <t>We were in town for a weekend/holiday wedding and this property was really close to the venue. 
+Let me start out by saying that the location is not as bad as some of the reviews make it seem. I didn’t see much foot traffic during our stay but we didn’t venture out much at night. The parking lot is well lit and we felt completely safe going and coming. 
+The room size is adequate but the layout is a little different. The room is more “long” in length than wide in size. Some reviews mention a strange smell. There was a slight odor but it was more of the cleaning products than anything. 
+The only problem we had was the tub. When we entered the room, the initial inspection was fine (including the tub). However, during the first use of the shower, I noticed that the tub has a “dip” in the middle which causes water to stand. Not only that, but once water runs in the tub, the floor of the tub turns a nasty looking yellow-ish/brown, urine-colored stain.
+It was so disturbing that I requested the night worker to come up and personally look at it. She tried her best to explain surface coating and rust but it did not change the fact that I could not bathe my toddler or take another shower in that tub. 
+A huge “THANK YOU” to the manager Joseph. He tried his...We were in town for a weekend/holiday wedding and this property was really close to the venue. Let me start out by saying that the location is not as bad as some of the reviews make it seem. I didn’t see much foot traffic during our stay but we didn’t venture out much at night. The parking lot is well lit and we felt completely safe going and coming. The room size is adequate but the layout is a little different. The room is more “long” in length than wide in size. Some reviews mention a strange smell. There was a slight odor but it was more of the cleaning products than anything. The only problem we had was the tub. When we entered the room, the initial inspection was fine (including the tub). However, during the first use of the shower, I noticed that the tub has a “dip” in the middle which causes water to stand. Not only that, but once water runs in the tub, the floor of the tub turns a nasty looking yellow-ish/brown, urine-colored stain.It was so disturbing that I requested the night worker to come up and personally look at it. She tried her best to explain surface coating and rust but it did not change the fact that I could not bathe my toddler or take another shower in that tub. A huge “THANK YOU” to the manager Joseph. He tried his best to remedy the situation and also moved us to a different room (something the night worker should have done). Unfortunately, we had the same problem in the new room. Breakfast was ok. The bed was very comfortable. Staff was friendly. For what would have been an extremely bad experience was changed due to the diligence of the manager Joseph. This guy is a true customer service professional. If you’re in this area, this place would probably be a good bet.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r371138781-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>371138781</t>
+  </si>
+  <si>
+    <t>05/08/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>We stayed here the night before our cruise. It has a cheery decor. The rooms were clean. The shower head was great. The hotel staff is friendly. A good price. I would recommend this hotel to anyone. The only downside is there is not much around, like restaurants. They do have a free shuttle from the airport and the shuttle also will take you within a five mile radius of the hotel. I think it is a very good value.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r356784104-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>356784104</t>
+  </si>
+  <si>
+    <t>03/19/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel but pretty loud</t>
+  </si>
+  <si>
+    <t>The staff was friendly and accommodating. Everyone from the shuttle driver to the breakfast worker. The room was on the smallish size but it was clean and comfortable. My only complaint was the noise from #^£¥&gt;\ guests who think it is ok to come in at 3am hoopin and a hollerin slamming doors arguing etc. from the voices it was obviously several young men. In general the rooms are not very sound proof. You could hear anyone close doors within 30feet of your room. If the guests were considerate, it wouldn't be an option. I wish this were an isolated problem but it is just the nature of a hotel. That's why I didn't knock off too many points. I would be comfortable staying here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>The staff was friendly and accommodating. Everyone from the shuttle driver to the breakfast worker. The room was on the smallish size but it was clean and comfortable. My only complaint was the noise from #^£¥&gt;\ guests who think it is ok to come in at 3am hoopin and a hollerin slamming doors arguing etc. from the voices it was obviously several young men. In general the rooms are not very sound proof. You could hear anyone close doors within 30feet of your room. If the guests were considerate, it wouldn't be an option. I wish this were an isolated problem but it is just the nature of a hotel. That's why I didn't knock off too many points. I would be comfortable staying here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r355755866-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>355755866</t>
+  </si>
+  <si>
+    <t>03/15/2016</t>
+  </si>
+  <si>
+    <t>Nice Hotel for the price</t>
+  </si>
+  <si>
+    <t>I booked this hotel for one night on Christmas 2015 because it has an indoor pool. Unfortunately the pool pump was down and we were not able to use the pool which was upsetting to my daughter. The attendant contacted their sister hotel next door and was able to make arrangements with them to let them use their outdoor pool which was nice. The room had a fridge, microwave and comfortable bed and sitting area with 2 TVs. It was clean and there is no reason for me to not stay here again if I needed to.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r350922040-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>350922040</t>
+  </si>
+  <si>
+    <t>02/25/2016</t>
+  </si>
+  <si>
+    <t>Ok… it's a good place to sleep</t>
+  </si>
+  <si>
+    <t>First impressions mean a lot to me. When I arrived at this property I noticed a strange chemical kind of odor. I am glad it was nothing to worry about (never found out what it was).The lobby appeared clean and the front desk clerk was very nice. The checkin process was a little long. The room was very clean and large with a microwave and refrigerator. Both of the appliances were spotless.The direct tv was a nice surprise.I was told that the neighborhood surrounding the hotel was "sketchy". The hotel does not have a bar or restaurant. They do offer a complementary breakfast.Also, it is very close to Houston Hobby Airport. Once on the shuttle it's about a 10 minute ride from the airport.For me, it was good for 1 night (grab food from the airport to take with you). I would not want to stay here for any extended time. Pictures are from room #407MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>First impressions mean a lot to me. When I arrived at this property I noticed a strange chemical kind of odor. I am glad it was nothing to worry about (never found out what it was).The lobby appeared clean and the front desk clerk was very nice. The checkin process was a little long. The room was very clean and large with a microwave and refrigerator. Both of the appliances were spotless.The direct tv was a nice surprise.I was told that the neighborhood surrounding the hotel was "sketchy". The hotel does not have a bar or restaurant. They do offer a complementary breakfast.Also, it is very close to Houston Hobby Airport. Once on the shuttle it's about a 10 minute ride from the airport.For me, it was good for 1 night (grab food from the airport to take with you). I would not want to stay here for any extended time. Pictures are from room #407More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r329842250-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>329842250</t>
+  </si>
+  <si>
+    <t>11/29/2015</t>
+  </si>
+  <si>
+    <t>Pretty good</t>
+  </si>
+  <si>
+    <t>The price was right and it was pretty close to the airport.  I made arrangements over the internet.  I contacted them when we had our luggage, and the person handling the transportation said "I will be in a blue 14 passenger truck in a few minutes." I tried to find out if there was a Fairfield logo on the "truck" and she kept saying it was a blue 14 passenger truck. OK, so after a few minutes out on the curb, she pulled up in a white 14 passenger VAN!  OK, so no big deal, but strange.  As we rode to the hotel, we asked about food, since we had not eaten dinner.  She said she always recommends some steak restaurant 5 freeway exits away, but they would be happy to shuttle us there.  When we arrived at the front desk, we found out there was a kitchen in their "sister" hotel across the parking lot.  We went there, and the food was delicious!  It was a kitchen that does room service and serves the bar, but it was very nicely done.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Rachel M, Guest Relations Manager at Fairfield Inn &amp; Suites Houston Hobby Airport, responded to this reviewResponded December 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2015</t>
+  </si>
+  <si>
+    <t>The price was right and it was pretty close to the airport.  I made arrangements over the internet.  I contacted them when we had our luggage, and the person handling the transportation said "I will be in a blue 14 passenger truck in a few minutes." I tried to find out if there was a Fairfield logo on the "truck" and she kept saying it was a blue 14 passenger truck. OK, so after a few minutes out on the curb, she pulled up in a white 14 passenger VAN!  OK, so no big deal, but strange.  As we rode to the hotel, we asked about food, since we had not eaten dinner.  She said she always recommends some steak restaurant 5 freeway exits away, but they would be happy to shuttle us there.  When we arrived at the front desk, we found out there was a kitchen in their "sister" hotel across the parking lot.  We went there, and the food was delicious!  It was a kitchen that does room service and serves the bar, but it was very nicely done.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r327150615-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>327150615</t>
+  </si>
+  <si>
+    <t>11/16/2015</t>
+  </si>
+  <si>
+    <t>Property close Hobby Airport</t>
+  </si>
+  <si>
+    <t>Stayed at this property near the airport due to an early flight the next day. The property is maintained well, spotlessly clean, good free breakfast, friendly staff, and the newer beds at Marriott properties are the best anywhere.You need a car or other transportation to stay at this property, as there is no shopping or restaurants in walking distance. The noise from both the freeway just outside the property and the air planes taking off and landing is noticeably. Light sleepers will need good ear plugs!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>Stayed at this property near the airport due to an early flight the next day. The property is maintained well, spotlessly clean, good free breakfast, friendly staff, and the newer beds at Marriott properties are the best anywhere.You need a car or other transportation to stay at this property, as there is no shopping or restaurants in walking distance. The noise from both the freeway just outside the property and the air planes taking off and landing is noticeably. Light sleepers will need good ear plugs!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r325594572-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>325594572</t>
+  </si>
+  <si>
+    <t>11/09/2015</t>
+  </si>
+  <si>
+    <t>Near Hobby Airport</t>
+  </si>
+  <si>
+    <t>Newly remodeled property that meets the expectations of the Marriott chain. Very clean, great staff as I would expect. The Average breakfast fare for this level of property. Cheerios, milk, banana, and yogurt. The usual something eggs and greasy bacon that I respectfully leave for others. I like the location and I also use the Conference room for training. This property is a favorite of mine and I frequently stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>Newly remodeled property that meets the expectations of the Marriott chain. Very clean, great staff as I would expect. The Average breakfast fare for this level of property. Cheerios, milk, banana, and yogurt. The usual something eggs and greasy bacon that I respectfully leave for others. I like the location and I also use the Conference room for training. This property is a favorite of mine and I frequently stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r320127701-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>320127701</t>
+  </si>
+  <si>
+    <t>10/19/2015</t>
+  </si>
+  <si>
+    <t>Surprisingly Good</t>
+  </si>
+  <si>
+    <t>Was leery of staying in the Hobby area, but since I didn't have the wife or kids with me I gave it a try. Turned out to be a nice place. Room looked to have been remodeled recently, and had microwave &amp; fridge (was not a suite).  Was not an area you'd want to go walking around in, but had a well-lit parking lot, and I didn't worry about parking the car there (like any hotel, you should take anything that even looks valuable inside with you). Would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel M, Guest Relations Manager at Fairfield Inn &amp; Suites Houston Hobby Airport, responded to this reviewResponded October 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2015</t>
+  </si>
+  <si>
+    <t>Was leery of staying in the Hobby area, but since I didn't have the wife or kids with me I gave it a try. Turned out to be a nice place. Room looked to have been remodeled recently, and had microwave &amp; fridge (was not a suite).  Was not an area you'd want to go walking around in, but had a well-lit parking lot, and I didn't worry about parking the car there (like any hotel, you should take anything that even looks valuable inside with you). Would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r319144731-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>319144731</t>
+  </si>
+  <si>
+    <t>10/15/2015</t>
+  </si>
+  <si>
+    <t>Texas trip</t>
+  </si>
+  <si>
+    <t>Quick and efficient check in. Very friendly and answered all my questions. We were able to turn the rental car in the night before,  their shuttle picked us up and then took us to the airport in the morning.  Quiet room, A/C worked and was quiet. Missing a lounge and restaurant.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel M, Guest Relations Manager at Fairfield Inn &amp; Suites Houston Hobby Airport, responded to this reviewResponded October 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2015</t>
+  </si>
+  <si>
+    <t>Quick and efficient check in. Very friendly and answered all my questions. We were able to turn the rental car in the night before,  their shuttle picked us up and then took us to the airport in the morning.  Quiet room, A/C worked and was quiet. Missing a lounge and restaurant.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r318442576-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>318442576</t>
+  </si>
+  <si>
+    <t>10/13/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OK hotel but room smelled terrible in both rooms </t>
+  </si>
+  <si>
+    <t>We picked this hotel to stay at during our visits to MD Anderson. We had family staying in one room on the 1st floor and we stayed in a room on the 4th floor. Both rooms were VERY humid and musty or stale smelling. We had to turn the air to 60 to get it to run long enough to get the humidity out but the smell was always there. It wasn't just a hint, it would take your breath away every time we left and came back into it. The room looked clean other than the fact the air was so humid and smelly. I would not stay here again because of this reason.MoreShow less</t>
+  </si>
+  <si>
+    <t>We picked this hotel to stay at during our visits to MD Anderson. We had family staying in one room on the 1st floor and we stayed in a room on the 4th floor. Both rooms were VERY humid and musty or stale smelling. We had to turn the air to 60 to get it to run long enough to get the humidity out but the smell was always there. It wasn't just a hint, it would take your breath away every time we left and came back into it. The room looked clean other than the fact the air was so humid and smelly. I would not stay here again because of this reason.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r303522363-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>303522363</t>
+  </si>
+  <si>
+    <t>08/25/2015</t>
+  </si>
+  <si>
+    <t>1 Week Stay.</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel for a week from December 1st thru the 6th in 2015. Check in was easy. Parking was never a problem. Gym was below average, but not a deal breaker. Building was dated, but furnishings were up to date. Great value hotel. Breakfast was slightly different each day and average-to-above-average for a hotel breakfast. Not the greatest area if you want to get out and do something fun, but easy access to Hobby Airport and fine for business trips. Wouldn't spend too much time outdoors in this area of town, but this hotel is close to the highway and other hotels, so it is reasonably safe.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel for a week from December 1st thru the 6th in 2015. Check in was easy. Parking was never a problem. Gym was below average, but not a deal breaker. Building was dated, but furnishings were up to date. Great value hotel. Breakfast was slightly different each day and average-to-above-average for a hotel breakfast. Not the greatest area if you want to get out and do something fun, but easy access to Hobby Airport and fine for business trips. Wouldn't spend too much time outdoors in this area of town, but this hotel is close to the highway and other hotels, so it is reasonably safe.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r300330395-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>300330395</t>
+  </si>
+  <si>
+    <t>08/17/2015</t>
+  </si>
+  <si>
+    <t>Convenient location</t>
+  </si>
+  <si>
+    <t>I booked here due to location and the fact it is a Fairfield property. It is right on the service road, however, my room (2nd floor) was on the end away from the highway and was surprisingly quiet. There is only one entrance so traveling alone, I felt safe. The stairwells lead to outside only with no re-entry, which was a bit inconvenient, but understandable. Air conditioning worked great, room was dark enough and furnishings were in good condition. The mini-fridge was a bit disappointing as it would not freeze anything but, it did the job of cooling. Great selection of TV channels and housekeeping was good. Staff was friendly. Would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>Rachel M, Guest Relations Manager at Fairfield Inn &amp; Suites Houston Hobby Airport, responded to this reviewResponded September 17, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2015</t>
+  </si>
+  <si>
+    <t>I booked here due to location and the fact it is a Fairfield property. It is right on the service road, however, my room (2nd floor) was on the end away from the highway and was surprisingly quiet. There is only one entrance so traveling alone, I felt safe. The stairwells lead to outside only with no re-entry, which was a bit inconvenient, but understandable. Air conditioning worked great, room was dark enough and furnishings were in good condition. The mini-fridge was a bit disappointing as it would not freeze anything but, it did the job of cooling. Great selection of TV channels and housekeeping was good. Staff was friendly. Would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r296762973-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>296762973</t>
+  </si>
+  <si>
+    <t>08/07/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine place to stay </t>
+  </si>
+  <si>
+    <t>The staff is helpful and they even give you a snack bag with water when you check in. The hotel is pretty new and very clean. My only complaints is I don't like the food served at breakfast (not as much variety compared to other hotel chains) and it was loud (right by highway and you can hear people walking in the hallways). I would stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>The staff is helpful and they even give you a snack bag with water when you check in. The hotel is pretty new and very clean. My only complaints is I don't like the food served at breakfast (not as much variety compared to other hotel chains) and it was loud (right by highway and you can hear people walking in the hallways). I would stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r286155340-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>286155340</t>
+  </si>
+  <si>
+    <t>07/06/2015</t>
+  </si>
+  <si>
+    <t>Nearly the stay from hell</t>
+  </si>
+  <si>
+    <t>After arriving into Hobby at midnight and finally getting our belongings around 12:30 am, the nightmare of a night began. The hotel on this page, their google search and even their own website lists one telephone number that when you call is forwarded to a cellphone. Conveniently, no one felt like answering this number as we tried to arrange for the shuttle.It kept going to a voicemail of a different number that was full. I called no less than 10 times when I finally received the most unprofessional response back... a text message "Sorry, I'm busy. Call back later." I texted them back and said "we're guests trying to get the shuttle to the hotel and we're getting very upset." I continued to call and call and call until I finally called a sister company hotel up the street and asked if they could send a shuttle, because it's now after 1 am and the hotel we're supposed to be at is refusing to answer the phone. They sent their shuttle, but then the correct shuttle showed up after I received another text saying "shuttle is coming."  
+We got to the hotel, and guess what it's after 1 am and it's not busy! People at the counter were very nice and got us checked in quickly, but whoever said they were "busy" in that text message must have just been busy sleeping since there were no other guests in sight....After arriving into Hobby at midnight and finally getting our belongings around 12:30 am, the nightmare of a night began. The hotel on this page, their google search and even their own website lists one telephone number that when you call is forwarded to a cellphone. Conveniently, no one felt like answering this number as we tried to arrange for the shuttle.It kept going to a voicemail of a different number that was full. I called no less than 10 times when I finally received the most unprofessional response back... a text message "Sorry, I'm busy. Call back later." I texted them back and said "we're guests trying to get the shuttle to the hotel and we're getting very upset." I continued to call and call and call until I finally called a sister company hotel up the street and asked if they could send a shuttle, because it's now after 1 am and the hotel we're supposed to be at is refusing to answer the phone. They sent their shuttle, but then the correct shuttle showed up after I received another text saying "shuttle is coming."  We got to the hotel, and guess what it's after 1 am and it's not busy! People at the counter were very nice and got us checked in quickly, but whoever said they were "busy" in that text message must have just been busy sleeping since there were no other guests in sight. Our room was clean, but it didn't have enough towels as had been requested (you'd think they'd put enough for the 4 people listed on the reservation, but no); when we went to get more the guy told us we could have some in about an hour (after 2 am they'd be ready). My other complaint other than complete unprofessionalism when it comes to using a telephone is the elevators. We were late to get to our transfer to the cruise port because the hotel only has 1 elevator. Not one elevator for employees and one elevator for guests...one elevator period. The staff would waste all the space bringing up cleaning supplies basically not making it usable to guests. We had 8 pieces of luggage there was no way we were getting them down the stairs. My best advice is to request a low floor or else you'll wait 20 minutes just to get a usable elevator. Overall, I wouldn't go back, but it ended up being ok just to get 4 hours of sleep after the whole fiasco was over. I still just can't figure out why they felt texting me back was more appropriate than answering their phone..MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Rachel M, Guest Relations Manager at Fairfield Inn &amp; Suites Houston Hobby Airport, responded to this reviewResponded July 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2015</t>
+  </si>
+  <si>
+    <t>After arriving into Hobby at midnight and finally getting our belongings around 12:30 am, the nightmare of a night began. The hotel on this page, their google search and even their own website lists one telephone number that when you call is forwarded to a cellphone. Conveniently, no one felt like answering this number as we tried to arrange for the shuttle.It kept going to a voicemail of a different number that was full. I called no less than 10 times when I finally received the most unprofessional response back... a text message "Sorry, I'm busy. Call back later." I texted them back and said "we're guests trying to get the shuttle to the hotel and we're getting very upset." I continued to call and call and call until I finally called a sister company hotel up the street and asked if they could send a shuttle, because it's now after 1 am and the hotel we're supposed to be at is refusing to answer the phone. They sent their shuttle, but then the correct shuttle showed up after I received another text saying "shuttle is coming."  
+We got to the hotel, and guess what it's after 1 am and it's not busy! People at the counter were very nice and got us checked in quickly, but whoever said they were "busy" in that text message must have just been busy sleeping since there were no other guests in sight....After arriving into Hobby at midnight and finally getting our belongings around 12:30 am, the nightmare of a night began. The hotel on this page, their google search and even their own website lists one telephone number that when you call is forwarded to a cellphone. Conveniently, no one felt like answering this number as we tried to arrange for the shuttle.It kept going to a voicemail of a different number that was full. I called no less than 10 times when I finally received the most unprofessional response back... a text message "Sorry, I'm busy. Call back later." I texted them back and said "we're guests trying to get the shuttle to the hotel and we're getting very upset." I continued to call and call and call until I finally called a sister company hotel up the street and asked if they could send a shuttle, because it's now after 1 am and the hotel we're supposed to be at is refusing to answer the phone. They sent their shuttle, but then the correct shuttle showed up after I received another text saying "shuttle is coming."  We got to the hotel, and guess what it's after 1 am and it's not busy! People at the counter were very nice and got us checked in quickly, but whoever said they were "busy" in that text message must have just been busy sleeping since there were no other guests in sight. Our room was clean, but it didn't have enough towels as had been requested (you'd think they'd put enough for the 4 people listed on the reservation, but no); when we went to get more the guy told us we could have some in about an hour (after 2 am they'd be ready). My other complaint other than complete unprofessionalism when it comes to using a telephone is the elevators. We were late to get to our transfer to the cruise port because the hotel only has 1 elevator. Not one elevator for employees and one elevator for guests...one elevator period. The staff would waste all the space bringing up cleaning supplies basically not making it usable to guests. We had 8 pieces of luggage there was no way we were getting them down the stairs. My best advice is to request a low floor or else you'll wait 20 minutes just to get a usable elevator. Overall, I wouldn't go back, but it ended up being ok just to get 4 hours of sleep after the whole fiasco was over. I still just can't figure out why they felt texting me back was more appropriate than answering their phone..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r285112482-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>285112482</t>
+  </si>
+  <si>
+    <t>07/02/2015</t>
+  </si>
+  <si>
+    <t>Nice Rooms -  Bad Management</t>
+  </si>
+  <si>
+    <t>I was there for 5 days in May of 2015.  Really nice rooms, great layout, location.  But management and service is missing!  Not only that, but when I reported to the front desk that my refrigerator was warm, the maintenance guy showed up to fix it and the broken door handle to my room, he showed up all right.  And in a timely manner.  He just also availed himself to my laptop computer, snacked on my food in the refrigerator and....wait for it....left the seat up on my toilet after he relieved himself prior to exiting my room!I complained to the front desk, whereupon the earnest and likable front desk manager promised me an investigation.  The investigation resulted in the management offering no apology and also taking the side of the maintenance man stating that he did no such things because, "....he's been here for five years" and it must have been someone else who did those things in my room.  Who else had I given a key?  No one. I counter-complained that IF the hotel had cameras in the hallways like every other decent, honest hotel has these days, there would be on argument about who had been in my room.  So, lessoned learned:  Look up when you are entering a hotel and check the common areas, elevators and hallways for CCTV.  If there is none then think about checking out.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Rachel M, Guest Relations Manager at Fairfield Inn &amp; Suites Houston Hobby Airport, responded to this reviewResponded July 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2015</t>
+  </si>
+  <si>
+    <t>I was there for 5 days in May of 2015.  Really nice rooms, great layout, location.  But management and service is missing!  Not only that, but when I reported to the front desk that my refrigerator was warm, the maintenance guy showed up to fix it and the broken door handle to my room, he showed up all right.  And in a timely manner.  He just also availed himself to my laptop computer, snacked on my food in the refrigerator and....wait for it....left the seat up on my toilet after he relieved himself prior to exiting my room!I complained to the front desk, whereupon the earnest and likable front desk manager promised me an investigation.  The investigation resulted in the management offering no apology and also taking the side of the maintenance man stating that he did no such things because, "....he's been here for five years" and it must have been someone else who did those things in my room.  Who else had I given a key?  No one. I counter-complained that IF the hotel had cameras in the hallways like every other decent, honest hotel has these days, there would be on argument about who had been in my room.  So, lessoned learned:  Look up when you are entering a hotel and check the common areas, elevators and hallways for CCTV.  If there is none then think about checking out.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r284809219-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>284809219</t>
+  </si>
+  <si>
+    <t>07/01/2015</t>
+  </si>
+  <si>
+    <t>I'm Sure It's a Great Hotel, but My Stay had Several Issues.</t>
+  </si>
+  <si>
+    <t>I am a hilton diamond member who has recently started giving a lot of my business sot Marriott chains.  I was looking forward to my stay at this Fairfield Inn and Suites based on previous reviews. I did an online check in via the App.  Got there, room key was ready and headed upstairs.  But when I got in I noticed the room was not completely ready for my arrival.  I picked up the phone to call the front desk. Phone didn't work. Went out to the elevator, picked up that phone, dead.  Ugh.  Went downstairs, spoke to the very nice gentleman at the desk, who promptly moved me to another room. That room was also very nice. Clean, modern furnishings and finishes.  i liked the room a lot.  But that night I noticed the room not cooling down.  Tried to call front desk, and again phones were dead.  so I just gave up.  I told the girl when I left the hotel the next morning for my meetings to please have someone check the A/C.  She wrote it down.  When I got back about 6 hours later, the hallway was cooler than my room.  I picked up the phone, still dead.  I walked back downstairs, and she said she would send someone up immediately.  He came, fixed the problem, and room finally started to cool down.  Later I am wondering if they were going to come clean my room,...I am a hilton diamond member who has recently started giving a lot of my business sot Marriott chains.  I was looking forward to my stay at this Fairfield Inn and Suites based on previous reviews. I did an online check in via the App.  Got there, room key was ready and headed upstairs.  But when I got in I noticed the room was not completely ready for my arrival.  I picked up the phone to call the front desk. Phone didn't work. Went out to the elevator, picked up that phone, dead.  Ugh.  Went downstairs, spoke to the very nice gentleman at the desk, who promptly moved me to another room. That room was also very nice. Clean, modern furnishings and finishes.  i liked the room a lot.  But that night I noticed the room not cooling down.  Tried to call front desk, and again phones were dead.  so I just gave up.  I told the girl when I left the hotel the next morning for my meetings to please have someone check the A/C.  She wrote it down.  When I got back about 6 hours later, the hallway was cooler than my room.  I picked up the phone, still dead.  I walked back downstairs, and she said she would send someone up immediately.  He came, fixed the problem, and room finally started to cool down.  Later I am wondering if they were going to come clean my room, make the bed, replace the towels, etc.  I waited, even asked the desk clerk who informed me they were running behind but yes, they would be there.  Finally around 8 PM when I was leaving to go to the gym I mentioned it to him again, and he basically said, "Sorry, no.  I can come empty your trash if you need me to, and I can get you a set of towels "   Not this to me is absurd.  For what guests pay to rent a room, the least we can have is maid service.  I want my bed made, my towels replaced, my room cleaned.  Apparently they had just fired almost their entire housekeeping staff or something, but I was just very disappointed.  The next morning upon check out the girl asked me how was my stay and I said " ya'll had some problems"  and I grabbed a managers card to contact him later.  A gentleman came out from the office and I explained everything mentioned above. He offered to get me an additional 10k points, and a free night at one of their properties.  Sadly, as of today,  there are no extra points in my account, and I have no idea how he plans on getting me this free night.   I hope they do try to make this right.MoreShow less</t>
+  </si>
+  <si>
+    <t>I am a hilton diamond member who has recently started giving a lot of my business sot Marriott chains.  I was looking forward to my stay at this Fairfield Inn and Suites based on previous reviews. I did an online check in via the App.  Got there, room key was ready and headed upstairs.  But when I got in I noticed the room was not completely ready for my arrival.  I picked up the phone to call the front desk. Phone didn't work. Went out to the elevator, picked up that phone, dead.  Ugh.  Went downstairs, spoke to the very nice gentleman at the desk, who promptly moved me to another room. That room was also very nice. Clean, modern furnishings and finishes.  i liked the room a lot.  But that night I noticed the room not cooling down.  Tried to call front desk, and again phones were dead.  so I just gave up.  I told the girl when I left the hotel the next morning for my meetings to please have someone check the A/C.  She wrote it down.  When I got back about 6 hours later, the hallway was cooler than my room.  I picked up the phone, still dead.  I walked back downstairs, and she said she would send someone up immediately.  He came, fixed the problem, and room finally started to cool down.  Later I am wondering if they were going to come clean my room,...I am a hilton diamond member who has recently started giving a lot of my business sot Marriott chains.  I was looking forward to my stay at this Fairfield Inn and Suites based on previous reviews. I did an online check in via the App.  Got there, room key was ready and headed upstairs.  But when I got in I noticed the room was not completely ready for my arrival.  I picked up the phone to call the front desk. Phone didn't work. Went out to the elevator, picked up that phone, dead.  Ugh.  Went downstairs, spoke to the very nice gentleman at the desk, who promptly moved me to another room. That room was also very nice. Clean, modern furnishings and finishes.  i liked the room a lot.  But that night I noticed the room not cooling down.  Tried to call front desk, and again phones were dead.  so I just gave up.  I told the girl when I left the hotel the next morning for my meetings to please have someone check the A/C.  She wrote it down.  When I got back about 6 hours later, the hallway was cooler than my room.  I picked up the phone, still dead.  I walked back downstairs, and she said she would send someone up immediately.  He came, fixed the problem, and room finally started to cool down.  Later I am wondering if they were going to come clean my room, make the bed, replace the towels, etc.  I waited, even asked the desk clerk who informed me they were running behind but yes, they would be there.  Finally around 8 PM when I was leaving to go to the gym I mentioned it to him again, and he basically said, "Sorry, no.  I can come empty your trash if you need me to, and I can get you a set of towels "   Not this to me is absurd.  For what guests pay to rent a room, the least we can have is maid service.  I want my bed made, my towels replaced, my room cleaned.  Apparently they had just fired almost their entire housekeeping staff or something, but I was just very disappointed.  The next morning upon check out the girl asked me how was my stay and I said " ya'll had some problems"  and I grabbed a managers card to contact him later.  A gentleman came out from the office and I explained everything mentioned above. He offered to get me an additional 10k points, and a free night at one of their properties.  Sadly, as of today,  there are no extra points in my account, and I have no idea how he plans on getting me this free night.   I hope they do try to make this right.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r282485564-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>282485564</t>
+  </si>
+  <si>
+    <t>06/23/2015</t>
+  </si>
+  <si>
+    <t>Home Away from home</t>
+  </si>
+  <si>
+    <t>This hotel is awesome. When booking the gentleman was very courteous and answered all my questions. At check in we were upgraded to a living room  suite so we could be close to our children's room. The hotel smelled clean, looked very clean and has beautiful decor. The beds were very comfortable, the sheets smelled clean, we got a great nights sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is awesome. When booking the gentleman was very courteous and answered all my questions. At check in we were upgraded to a living room  suite so we could be close to our children's room. The hotel smelled clean, looked very clean and has beautiful decor. The beds were very comfortable, the sheets smelled clean, we got a great nights sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r282141405-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>282141405</t>
+  </si>
+  <si>
+    <t>06/22/2015</t>
+  </si>
+  <si>
+    <t>Amazing hotel!</t>
+  </si>
+  <si>
+    <t>The fairfield inn is my favorite place to stay while traveling for business to Houston. The property is extremely clean and well managed. The staff is friendly and will accommodate your every need. The free wifi and breakfast is a nice touch. The hotel is very convenient to the airport as well. I plan to stay here every time I'm in Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>The fairfield inn is my favorite place to stay while traveling for business to Houston. The property is extremely clean and well managed. The staff is friendly and will accommodate your every need. The free wifi and breakfast is a nice touch. The hotel is very convenient to the airport as well. I plan to stay here every time I'm in Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r281946584-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>281946584</t>
+  </si>
+  <si>
+    <t>06/21/2015</t>
+  </si>
+  <si>
+    <t>Cool Place to Stay</t>
+  </si>
+  <si>
+    <t>This hotel was great; seemed like it was a fairly new hotel. Everyone on staff was very nice and the shuttle service was most convenient getting around. The location was also not bad and perfect to stay at.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel M, Guest Relations Manager at Fairfield Inn &amp; Suites Houston Hobby Airport, responded to this reviewResponded June 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2015</t>
+  </si>
+  <si>
+    <t>This hotel was great; seemed like it was a fairly new hotel. Everyone on staff was very nice and the shuttle service was most convenient getting around. The location was also not bad and perfect to stay at.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r278514964-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>278514964</t>
+  </si>
+  <si>
+    <t>06/07/2015</t>
+  </si>
+  <si>
+    <t>Convenient and hospitable</t>
+  </si>
+  <si>
+    <t>Stayed here at the last minute because I had a flight cancelation. Staff was very nice and checked us in quickly, fully realizing it was super late and we weren't interested in a lengthy process.Room was in clean condition. Staff was friendly, and we got out in the morning and to our flight in the morning in no time.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel M, Guest Relations Manager at Fairfield Inn &amp; Suites Houston Hobby Airport, responded to this reviewResponded June 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2015</t>
+  </si>
+  <si>
+    <t>Stayed here at the last minute because I had a flight cancelation. Staff was very nice and checked us in quickly, fully realizing it was super late and we weren't interested in a lengthy process.Room was in clean condition. Staff was friendly, and we got out in the morning and to our flight in the morning in no time.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r278140209-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>278140209</t>
+  </si>
+  <si>
+    <t>06/05/2015</t>
+  </si>
+  <si>
+    <t>Helpfull, friendly staff, but the facility has many minor flaws</t>
+  </si>
+  <si>
+    <t>The staff up front were competent, friendly, and went out of their way to be helpful.  But our experience at this hotel was marred by a litany of minor issues.  Our room had a strong odor of something having burned.  When we complained, we were moved to a comparable room, but it had an odor of stale food that we could not get rid of, even though we went out to a department store and purchased an air cleaner.  The only place one could find ice was on the third floor.  The housekeeping staff did not always provide more than one hand towel and wash cloth.  Other minor points that compromised our 5-day stay involved the breakfast area.  There was an absence of cereal two for the five mornings, the toaster did not work properly, the scrambled eggs were the only kind of eggs they had and they were bland and the same every day.  The carpet in the breakfast area was sticky; this is probably what attracted the three-inch long roach to that area.This facility does not match the experience one would expect from a Fairfield, but it was conveniently located to Hobby airport, and the diligence and friendliness of the various personnel we saw at the front desk was superlative.  Fairfield Corporate should invest in upgrading this facility due to its excellent location and high morale staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel M, Guest Relations Manager at Fairfield Inn &amp; Suites Houston Hobby Airport, responded to this reviewResponded June 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2015</t>
+  </si>
+  <si>
+    <t>The staff up front were competent, friendly, and went out of their way to be helpful.  But our experience at this hotel was marred by a litany of minor issues.  Our room had a strong odor of something having burned.  When we complained, we were moved to a comparable room, but it had an odor of stale food that we could not get rid of, even though we went out to a department store and purchased an air cleaner.  The only place one could find ice was on the third floor.  The housekeeping staff did not always provide more than one hand towel and wash cloth.  Other minor points that compromised our 5-day stay involved the breakfast area.  There was an absence of cereal two for the five mornings, the toaster did not work properly, the scrambled eggs were the only kind of eggs they had and they were bland and the same every day.  The carpet in the breakfast area was sticky; this is probably what attracted the three-inch long roach to that area.This facility does not match the experience one would expect from a Fairfield, but it was conveniently located to Hobby airport, and the diligence and friendliness of the various personnel we saw at the front desk was superlative.  Fairfield Corporate should invest in upgrading this facility due to its excellent location and high morale staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r275189627-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>275189627</t>
+  </si>
+  <si>
+    <t>05/27/2015</t>
+  </si>
+  <si>
+    <t>Unreliable and dishonest</t>
+  </si>
+  <si>
+    <t>Our flight out of Houston got cancelled due to a severe t-storm, so we had to find a place to stay last minute. I'd quickly looked up Expedia, and booked a double queen bedroom for the 4 of us. When we got to the hotel to check-in, it was already 11pm. We were tired and eager to get some rest. The man that checked us in didn't say much, and quickly gave us key cards for our room. However, when we got to the room, there was only one king bed. We all had to go back to the lobby. I went up to the guy that checked us in to tell him that we got the wrong room. He then informs me that they were out of double queen rooms. 
+Funny, how he didn't bother to mention this when I was checking in. So, I told him that I needed a double bed room, or he needs to give me another room. He then tells me that he can't give me another room unless I pay for another room. So I refused to settle. There was no way two adults could sleep on a pullout sofa, and it's not what I signed up for. He tells me it's Expedia's fault for not updating their website on availability and walked away. I called Expedia right away, and told the agent the situation. She had her supervisor call the hotel while...Our flight out of Houston got cancelled due to a severe t-storm, so we had to find a place to stay last minute. I'd quickly looked up Expedia, and booked a double queen bedroom for the 4 of us. When we got to the hotel to check-in, it was already 11pm. We were tired and eager to get some rest. The man that checked us in didn't say much, and quickly gave us key cards for our room. However, when we got to the room, there was only one king bed. We all had to go back to the lobby. I went up to the guy that checked us in to tell him that we got the wrong room. He then informs me that they were out of double queen rooms. Funny, how he didn't bother to mention this when I was checking in. So, I told him that I needed a double bed room, or he needs to give me another room. He then tells me that he can't give me another room unless I pay for another room. So I refused to settle. There was no way two adults could sleep on a pullout sofa, and it's not what I signed up for. He tells me it's Expedia's fault for not updating their website on availability and walked away. I called Expedia right away, and told the agent the situation. She had her supervisor call the hotel while I was put on hold. Miraculously, after about 15 minutes later, the guy comes back and tells me that he found us a double room after all. He says the maids didn't accurately update their system to reflect what was actually available. How shady is that excuse, and what hospitality. Never again. Not worth the hassle. Didn't get to sleep until 1am. They don't deserve my time or money.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel M, Guest Relations Manager at Fairfield Inn &amp; Suites Houston Hobby Airport, responded to this reviewResponded May 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2015</t>
+  </si>
+  <si>
+    <t>Our flight out of Houston got cancelled due to a severe t-storm, so we had to find a place to stay last minute. I'd quickly looked up Expedia, and booked a double queen bedroom for the 4 of us. When we got to the hotel to check-in, it was already 11pm. We were tired and eager to get some rest. The man that checked us in didn't say much, and quickly gave us key cards for our room. However, when we got to the room, there was only one king bed. We all had to go back to the lobby. I went up to the guy that checked us in to tell him that we got the wrong room. He then informs me that they were out of double queen rooms. 
+Funny, how he didn't bother to mention this when I was checking in. So, I told him that I needed a double bed room, or he needs to give me another room. He then tells me that he can't give me another room unless I pay for another room. So I refused to settle. There was no way two adults could sleep on a pullout sofa, and it's not what I signed up for. He tells me it's Expedia's fault for not updating their website on availability and walked away. I called Expedia right away, and told the agent the situation. She had her supervisor call the hotel while...Our flight out of Houston got cancelled due to a severe t-storm, so we had to find a place to stay last minute. I'd quickly looked up Expedia, and booked a double queen bedroom for the 4 of us. When we got to the hotel to check-in, it was already 11pm. We were tired and eager to get some rest. The man that checked us in didn't say much, and quickly gave us key cards for our room. However, when we got to the room, there was only one king bed. We all had to go back to the lobby. I went up to the guy that checked us in to tell him that we got the wrong room. He then informs me that they were out of double queen rooms. Funny, how he didn't bother to mention this when I was checking in. So, I told him that I needed a double bed room, or he needs to give me another room. He then tells me that he can't give me another room unless I pay for another room. So I refused to settle. There was no way two adults could sleep on a pullout sofa, and it's not what I signed up for. He tells me it's Expedia's fault for not updating their website on availability and walked away. I called Expedia right away, and told the agent the situation. She had her supervisor call the hotel while I was put on hold. Miraculously, after about 15 minutes later, the guy comes back and tells me that he found us a double room after all. He says the maids didn't accurately update their system to reflect what was actually available. How shady is that excuse, and what hospitality. Never again. Not worth the hassle. Didn't get to sleep until 1am. They don't deserve my time or money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r267552970-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>267552970</t>
+  </si>
+  <si>
+    <t>04/23/2015</t>
+  </si>
+  <si>
+    <t>Terrible Customer Serivce</t>
+  </si>
+  <si>
+    <t>1st let me state that I own my company and we, as a company, stay in Marriott properties all over the US and Canada. At check out, we were charged for 3 rooms at $159 and 1 room at $179. All 4 rooms (just alike) were supposed to be at $159. Two nights, a $20 credit per night, should be no big deal right? Wrong.  The person behind the counter stated that one room was upgraded (all of the rooms were the same) and that the $20 additional was for that upgrade. We asked that he just make the adjustment so that we could go on our way. He would not. We asked for the Manager and he told us that we were looking at him. He was the General Manager.  This was terrible Customer Service.  It was not the $20, it was his rudeness and lack of customer service to assist us in any way. We would not recommend this hotel to anyone, period.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Rachel M, Guest Relations Manager at Fairfield Inn &amp; Suites Houston Hobby Airport, responded to this reviewResponded April 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2015</t>
+  </si>
+  <si>
+    <t>1st let me state that I own my company and we, as a company, stay in Marriott properties all over the US and Canada. At check out, we were charged for 3 rooms at $159 and 1 room at $179. All 4 rooms (just alike) were supposed to be at $159. Two nights, a $20 credit per night, should be no big deal right? Wrong.  The person behind the counter stated that one room was upgraded (all of the rooms were the same) and that the $20 additional was for that upgrade. We asked that he just make the adjustment so that we could go on our way. He would not. We asked for the Manager and he told us that we were looking at him. He was the General Manager.  This was terrible Customer Service.  It was not the $20, it was his rudeness and lack of customer service to assist us in any way. We would not recommend this hotel to anyone, period.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r266468452-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>266468452</t>
+  </si>
+  <si>
+    <t>04/18/2015</t>
+  </si>
+  <si>
+    <t>Will stay again!</t>
+  </si>
+  <si>
+    <t>Must day I am a bit surprised at the negative comments regarding this facility.  I arrived to find a very clean lobby with professional,  friendly staff.  My room was huge with a king bed, nice seating area with sofa, work station, microwave and fridge, and two TV's.  TV's offered DirecTV programming with a full array of channel offerings.  WiFi was a bit slow, but to be  expected in a hotel environment.  Everything in my room was very clean and well maintained.  Breakfast was typical powdered eggs, etc. but at least the person who prepared them didn't mix them up to the size of quinoa.  These actually could pass as scrambled eggs!  I took the hotel shuttle to the airport and my excellent driver took a "secret" route which got me there in just a few minutes rather than sitting out on 45 with the rest of the masses.  I was impressed and very happy!  Made the normal hassle of flying far less stressful.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel M, Guest Relations Manager at Fairfield Inn &amp; Suites Houston Hobby Airport, responded to this reviewResponded April 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 29, 2015</t>
+  </si>
+  <si>
+    <t>Must day I am a bit surprised at the negative comments regarding this facility.  I arrived to find a very clean lobby with professional,  friendly staff.  My room was huge with a king bed, nice seating area with sofa, work station, microwave and fridge, and two TV's.  TV's offered DirecTV programming with a full array of channel offerings.  WiFi was a bit slow, but to be  expected in a hotel environment.  Everything in my room was very clean and well maintained.  Breakfast was typical powdered eggs, etc. but at least the person who prepared them didn't mix them up to the size of quinoa.  These actually could pass as scrambled eggs!  I took the hotel shuttle to the airport and my excellent driver took a "secret" route which got me there in just a few minutes rather than sitting out on 45 with the rest of the masses.  I was impressed and very happy!  Made the normal hassle of flying far less stressful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r262526432-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>262526432</t>
+  </si>
+  <si>
+    <t>03/29/2015</t>
+  </si>
+  <si>
+    <t>Fairfield Inn &amp; Suites Hobby Airport, Houston; Terrible Customer Service, lack of respect or empathy for travelers</t>
+  </si>
+  <si>
+    <t>We reserved a room through Booking.com. The telephone for the hotel was incorrect and we ended up getting a shuttle to a Fairfield Inn but at the wrong location. We were given the run around by both Booking.com and Fairfield Inn Hobby Airport. Zero customer service. I have to get my credit card company involved to dispute the charges. No one wanted to take responsibility for having an incorrect phone number listed. We felt Booking.com should have refunded our money - it was their website and confirmation page that we got the information from. And, the Fairfield Inn at Hobby Airport manager was uncaring, never apologized for our travel misfortunes, never offered any kind of refund or discount on a future stay. They DON"T CARE!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>We reserved a room through Booking.com. The telephone for the hotel was incorrect and we ended up getting a shuttle to a Fairfield Inn but at the wrong location. We were given the run around by both Booking.com and Fairfield Inn Hobby Airport. Zero customer service. I have to get my credit card company involved to dispute the charges. No one wanted to take responsibility for having an incorrect phone number listed. We felt Booking.com should have refunded our money - it was their website and confirmation page that we got the information from. And, the Fairfield Inn at Hobby Airport manager was uncaring, never apologized for our travel misfortunes, never offered any kind of refund or discount on a future stay. They DON"T CARE!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r256427604-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>256427604</t>
+  </si>
+  <si>
+    <t>02/25/2015</t>
+  </si>
+  <si>
+    <t>Great service, great beds, nicely decorated rooms</t>
+  </si>
+  <si>
+    <t>We we impressed with the rooms, beds and staff. Accommodations were nicer than I expected - very contemporary decor. Staff was great- we had lost all our luggage and were headed to a cruise. The shuttle staff took us to the local walmart so that we could purchase some basics. They really helped make a stressful situation - more bearable. Definitely went out of their way.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel M, Guest Relations Manager at Fairfield Inn &amp; Suites Houston Hobby Airport, responded to this reviewResponded February 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 28, 2015</t>
+  </si>
+  <si>
+    <t>We we impressed with the rooms, beds and staff. Accommodations were nicer than I expected - very contemporary decor. Staff was great- we had lost all our luggage and were headed to a cruise. The shuttle staff took us to the local walmart so that we could purchase some basics. They really helped make a stressful situation - more bearable. Definitely went out of their way.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r253882235-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>253882235</t>
+  </si>
+  <si>
+    <t>02/12/2015</t>
+  </si>
+  <si>
+    <t>for the price it was fine</t>
+  </si>
+  <si>
+    <t>right on the gulf freeway and close to the airport - good shuttle service. Friendly people and good value - noisy on the freeway side, but just fine on the other side. We had a very early flight and it was exactly what we needed to avoid the bad Houston traffic.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel M, Guest Relations Manager at Fairfield Inn &amp; Suites Houston Hobby Airport, responded to this reviewResponded February 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 15, 2015</t>
+  </si>
+  <si>
+    <t>right on the gulf freeway and close to the airport - good shuttle service. Friendly people and good value - noisy on the freeway side, but just fine on the other side. We had a very early flight and it was exactly what we needed to avoid the bad Houston traffic.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r253265420-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>253265420</t>
+  </si>
+  <si>
+    <t>02/08/2015</t>
+  </si>
+  <si>
+    <t>Another Houston Hobby hotel...hmmm</t>
+  </si>
+  <si>
+    <t>We are always looking for a nice place in the Hobby area to stay.  It is always hit and miss.  This place was formerly another hotel and was remodeled and renamed so we thought we would give it a try.  Well, the beds were comfy, but the rooms were small.  This is not a big issue, but the noise from I-45 was an issue.  We might as well have been on 45.  The windows need to be resealed and some sort of sound proofing.  They also only have 1 entrance, which is ok unless you come in really late and have to walk around the hotel to get in.  They do have security onsite at night though, so that is reassuring.  It is a nice place, but we probably will not be back here unless other places are booked.  Need my sleep!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>We are always looking for a nice place in the Hobby area to stay.  It is always hit and miss.  This place was formerly another hotel and was remodeled and renamed so we thought we would give it a try.  Well, the beds were comfy, but the rooms were small.  This is not a big issue, but the noise from I-45 was an issue.  We might as well have been on 45.  The windows need to be resealed and some sort of sound proofing.  They also only have 1 entrance, which is ok unless you come in really late and have to walk around the hotel to get in.  They do have security onsite at night though, so that is reassuring.  It is a nice place, but we probably will not be back here unless other places are booked.  Need my sleep!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r246741900-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>246741900</t>
+  </si>
+  <si>
+    <t>12/31/2014</t>
+  </si>
+  <si>
+    <t>Pleasantly surprised</t>
+  </si>
+  <si>
+    <t>Beds are like heaven. I have a bad back and really struggle normally on hotel beds. These beds are great. The service is excellent. We have 3 kids and they upgraded us to a larger room with a king, pull out couch and a roll away bed at no extra fee. Breakfast is also very good for the price paid.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel M, Guest Relations Manager at Fairfield Inn &amp; Suites Houston Hobby Airport, responded to this reviewResponded January 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 6, 2015</t>
+  </si>
+  <si>
+    <t>Beds are like heaven. I have a bad back and really struggle normally on hotel beds. These beds are great. The service is excellent. We have 3 kids and they upgraded us to a larger room with a king, pull out couch and a roll away bed at no extra fee. Breakfast is also very good for the price paid.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r238936104-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>238936104</t>
+  </si>
+  <si>
+    <t>11/09/2014</t>
+  </si>
+  <si>
+    <t>Actually a Fairfield Inn and Suites...</t>
+  </si>
+  <si>
+    <t>This is a fine hotel, just in a sketchy area. Staff was friendly and rooms were nice, comfortable beds, and standard breakfast, just not lcoated in the best area. This shows as a Holiday Inn Express, but was a Fairfield Inn and Suites when I styaed here a few nights ago...MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Rachel M, Guest Relations Manager at Fairfield Inn &amp; Suites Houston Hobby Airport, responded to this reviewResponded May 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 6, 2015</t>
+  </si>
+  <si>
+    <t>This is a fine hotel, just in a sketchy area. Staff was friendly and rooms were nice, comfortable beds, and standard breakfast, just not lcoated in the best area. This shows as a Holiday Inn Express, but was a Fairfield Inn and Suites when I styaed here a few nights ago...More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2004,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2036,4124 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>71</v>
+      </c>
+      <c r="X4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>90</v>
+      </c>
+      <c r="X6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" t="s">
+        <v>102</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>88</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>103</v>
+      </c>
+      <c r="X8" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>106</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>107</v>
+      </c>
+      <c r="J9" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" t="s">
+        <v>110</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>111</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10" t="s">
+        <v>116</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>111</v>
+      </c>
+      <c r="O10" t="s">
+        <v>70</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11" t="s">
+        <v>120</v>
+      </c>
+      <c r="L11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>122</v>
+      </c>
+      <c r="O11" t="s">
+        <v>70</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>123</v>
+      </c>
+      <c r="X11" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" t="s">
+        <v>128</v>
+      </c>
+      <c r="K12" t="s">
+        <v>129</v>
+      </c>
+      <c r="L12" t="s">
+        <v>130</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>122</v>
+      </c>
+      <c r="O12" t="s">
+        <v>89</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>131</v>
+      </c>
+      <c r="X12" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" t="s">
+        <v>137</v>
+      </c>
+      <c r="L13" t="s">
+        <v>138</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>139</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>140</v>
+      </c>
+      <c r="X13" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>144</v>
+      </c>
+      <c r="J14" t="s">
+        <v>145</v>
+      </c>
+      <c r="K14" t="s">
+        <v>146</v>
+      </c>
+      <c r="L14" t="s">
+        <v>147</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>139</v>
+      </c>
+      <c r="O14" t="s">
+        <v>89</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>148</v>
+      </c>
+      <c r="X14" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>152</v>
+      </c>
+      <c r="J15" t="s">
+        <v>153</v>
+      </c>
+      <c r="K15" t="s">
+        <v>154</v>
+      </c>
+      <c r="L15" t="s">
+        <v>155</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>156</v>
+      </c>
+      <c r="O15" t="s">
+        <v>70</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>148</v>
+      </c>
+      <c r="X15" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>158</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>159</v>
+      </c>
+      <c r="J16" t="s">
+        <v>160</v>
+      </c>
+      <c r="K16" t="s">
+        <v>161</v>
+      </c>
+      <c r="L16" t="s">
+        <v>162</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>163</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>165</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>166</v>
+      </c>
+      <c r="J17" t="s">
+        <v>167</v>
+      </c>
+      <c r="K17" t="s">
+        <v>168</v>
+      </c>
+      <c r="L17" t="s">
+        <v>169</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>170</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>171</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>172</v>
+      </c>
+      <c r="J18" t="s">
+        <v>173</v>
+      </c>
+      <c r="K18" t="s">
+        <v>174</v>
+      </c>
+      <c r="L18" t="s">
+        <v>175</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>170</v>
+      </c>
+      <c r="O18" t="s">
+        <v>70</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>176</v>
+      </c>
+      <c r="X18" t="s">
+        <v>177</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>179</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>180</v>
+      </c>
+      <c r="J19" t="s">
+        <v>181</v>
+      </c>
+      <c r="K19" t="s">
+        <v>182</v>
+      </c>
+      <c r="L19" t="s">
+        <v>183</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>184</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>3</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>185</v>
+      </c>
+      <c r="X19" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>188</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>189</v>
+      </c>
+      <c r="J20" t="s">
+        <v>190</v>
+      </c>
+      <c r="K20" t="s">
+        <v>191</v>
+      </c>
+      <c r="L20" t="s">
+        <v>192</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>184</v>
+      </c>
+      <c r="O20" t="s">
+        <v>70</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>193</v>
+      </c>
+      <c r="X20" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>196</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>197</v>
+      </c>
+      <c r="J21" t="s">
+        <v>198</v>
+      </c>
+      <c r="K21" t="s">
+        <v>199</v>
+      </c>
+      <c r="L21" t="s">
+        <v>200</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>201</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>202</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>203</v>
+      </c>
+      <c r="J22" t="s">
+        <v>204</v>
+      </c>
+      <c r="K22" t="s">
+        <v>205</v>
+      </c>
+      <c r="L22" t="s">
+        <v>206</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>207</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>208</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>209</v>
+      </c>
+      <c r="J23" t="s">
+        <v>210</v>
+      </c>
+      <c r="K23" t="s">
+        <v>211</v>
+      </c>
+      <c r="L23" t="s">
+        <v>212</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>201</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>213</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>214</v>
+      </c>
+      <c r="J24" t="s">
+        <v>215</v>
+      </c>
+      <c r="K24" t="s">
+        <v>216</v>
+      </c>
+      <c r="L24" t="s">
+        <v>217</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>218</v>
+      </c>
+      <c r="O24" t="s">
+        <v>219</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>220</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>221</v>
+      </c>
+      <c r="J25" t="s">
+        <v>222</v>
+      </c>
+      <c r="K25" t="s">
+        <v>223</v>
+      </c>
+      <c r="L25" t="s">
+        <v>224</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>218</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>225</v>
+      </c>
+      <c r="X25" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>228</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>229</v>
+      </c>
+      <c r="J26" t="s">
+        <v>230</v>
+      </c>
+      <c r="K26" t="s">
+        <v>231</v>
+      </c>
+      <c r="L26" t="s">
+        <v>232</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>233</v>
+      </c>
+      <c r="O26" t="s">
+        <v>89</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>234</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>235</v>
+      </c>
+      <c r="J27" t="s">
+        <v>236</v>
+      </c>
+      <c r="K27" t="s">
+        <v>237</v>
+      </c>
+      <c r="L27" t="s">
+        <v>238</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>239</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>241</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>242</v>
+      </c>
+      <c r="J28" t="s">
+        <v>243</v>
+      </c>
+      <c r="K28" t="s">
+        <v>244</v>
+      </c>
+      <c r="L28" t="s">
+        <v>245</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>239</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>246</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>247</v>
+      </c>
+      <c r="J29" t="s">
+        <v>248</v>
+      </c>
+      <c r="K29" t="s">
+        <v>249</v>
+      </c>
+      <c r="L29" t="s">
+        <v>250</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>251</v>
+      </c>
+      <c r="O29" t="s">
+        <v>219</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>252</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>253</v>
+      </c>
+      <c r="J30" t="s">
+        <v>254</v>
+      </c>
+      <c r="K30" t="s">
+        <v>255</v>
+      </c>
+      <c r="L30" t="s">
+        <v>256</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>257</v>
+      </c>
+      <c r="O30" t="s">
+        <v>70</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>258</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>259</v>
+      </c>
+      <c r="J31" t="s">
+        <v>260</v>
+      </c>
+      <c r="K31" t="s">
+        <v>261</v>
+      </c>
+      <c r="L31" t="s">
+        <v>262</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>257</v>
+      </c>
+      <c r="O31" t="s">
+        <v>70</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>263</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>264</v>
+      </c>
+      <c r="J32" t="s">
+        <v>265</v>
+      </c>
+      <c r="K32" t="s">
+        <v>266</v>
+      </c>
+      <c r="L32" t="s">
+        <v>267</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>268</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>269</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>270</v>
+      </c>
+      <c r="J33" t="s">
+        <v>271</v>
+      </c>
+      <c r="K33" t="s">
+        <v>272</v>
+      </c>
+      <c r="L33" t="s">
+        <v>273</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>268</v>
+      </c>
+      <c r="O33" t="s">
+        <v>219</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>274</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>275</v>
+      </c>
+      <c r="J34" t="s">
+        <v>276</v>
+      </c>
+      <c r="K34" t="s">
+        <v>277</v>
+      </c>
+      <c r="L34" t="s">
+        <v>278</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>268</v>
+      </c>
+      <c r="O34" t="s">
+        <v>70</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>280</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>281</v>
+      </c>
+      <c r="J35" t="s">
+        <v>282</v>
+      </c>
+      <c r="K35" t="s">
+        <v>283</v>
+      </c>
+      <c r="L35" t="s">
+        <v>284</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>285</v>
+      </c>
+      <c r="O35" t="s">
+        <v>219</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>287</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>288</v>
+      </c>
+      <c r="J36" t="s">
+        <v>289</v>
+      </c>
+      <c r="K36" t="s">
+        <v>290</v>
+      </c>
+      <c r="L36" t="s">
+        <v>291</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>285</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>293</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>294</v>
+      </c>
+      <c r="J37" t="s">
+        <v>295</v>
+      </c>
+      <c r="K37" t="s">
+        <v>296</v>
+      </c>
+      <c r="L37" t="s">
+        <v>297</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>285</v>
+      </c>
+      <c r="O37" t="s">
+        <v>219</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>298</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>299</v>
+      </c>
+      <c r="J38" t="s">
+        <v>300</v>
+      </c>
+      <c r="K38" t="s">
+        <v>301</v>
+      </c>
+      <c r="L38" t="s">
+        <v>302</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>303</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>305</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>306</v>
+      </c>
+      <c r="J39" t="s">
+        <v>307</v>
+      </c>
+      <c r="K39" t="s">
+        <v>308</v>
+      </c>
+      <c r="L39" t="s">
+        <v>309</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>310</v>
+      </c>
+      <c r="O39" t="s">
+        <v>89</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>311</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>312</v>
+      </c>
+      <c r="J40" t="s">
+        <v>313</v>
+      </c>
+      <c r="K40" t="s">
+        <v>314</v>
+      </c>
+      <c r="L40" t="s">
+        <v>315</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>316</v>
+      </c>
+      <c r="O40" t="s">
+        <v>70</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>318</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>319</v>
+      </c>
+      <c r="J41" t="s">
+        <v>320</v>
+      </c>
+      <c r="K41" t="s">
+        <v>321</v>
+      </c>
+      <c r="L41" t="s">
+        <v>322</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>323</v>
+      </c>
+      <c r="O41" t="s">
+        <v>89</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>324</v>
+      </c>
+      <c r="X41" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>327</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>328</v>
+      </c>
+      <c r="J42" t="s">
+        <v>329</v>
+      </c>
+      <c r="K42" t="s">
+        <v>330</v>
+      </c>
+      <c r="L42" t="s">
+        <v>331</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>332</v>
+      </c>
+      <c r="O42" t="s">
+        <v>89</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>2</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>324</v>
+      </c>
+      <c r="X42" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>334</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>335</v>
+      </c>
+      <c r="J43" t="s">
+        <v>336</v>
+      </c>
+      <c r="K43" t="s">
+        <v>337</v>
+      </c>
+      <c r="L43" t="s">
+        <v>338</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>323</v>
+      </c>
+      <c r="O43" t="s">
+        <v>70</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>324</v>
+      </c>
+      <c r="X43" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>340</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>341</v>
+      </c>
+      <c r="J44" t="s">
+        <v>342</v>
+      </c>
+      <c r="K44" t="s">
+        <v>343</v>
+      </c>
+      <c r="L44" t="s">
+        <v>344</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>323</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>345</v>
+      </c>
+      <c r="X44" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>348</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>349</v>
+      </c>
+      <c r="J45" t="s">
+        <v>350</v>
+      </c>
+      <c r="K45" t="s">
+        <v>351</v>
+      </c>
+      <c r="L45" t="s">
+        <v>352</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>323</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>353</v>
+      </c>
+      <c r="X45" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>356</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>357</v>
+      </c>
+      <c r="J46" t="s">
+        <v>358</v>
+      </c>
+      <c r="K46" t="s">
+        <v>359</v>
+      </c>
+      <c r="L46" t="s">
+        <v>360</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>323</v>
+      </c>
+      <c r="O46" t="s">
+        <v>53</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>353</v>
+      </c>
+      <c r="X46" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>362</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>363</v>
+      </c>
+      <c r="J47" t="s">
+        <v>364</v>
+      </c>
+      <c r="K47" t="s">
+        <v>365</v>
+      </c>
+      <c r="L47" t="s">
+        <v>366</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>367</v>
+      </c>
+      <c r="O47" t="s">
+        <v>70</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>353</v>
+      </c>
+      <c r="X47" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>369</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>370</v>
+      </c>
+      <c r="J48" t="s">
+        <v>371</v>
+      </c>
+      <c r="K48" t="s">
+        <v>372</v>
+      </c>
+      <c r="L48" t="s">
+        <v>373</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>374</v>
+      </c>
+      <c r="O48" t="s">
+        <v>375</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>4</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>376</v>
+      </c>
+      <c r="X48" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>379</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>380</v>
+      </c>
+      <c r="J49" t="s">
+        <v>381</v>
+      </c>
+      <c r="K49" t="s">
+        <v>382</v>
+      </c>
+      <c r="L49" t="s">
+        <v>383</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>374</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>376</v>
+      </c>
+      <c r="X49" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>385</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>386</v>
+      </c>
+      <c r="J50" t="s">
+        <v>387</v>
+      </c>
+      <c r="K50" t="s">
+        <v>388</v>
+      </c>
+      <c r="L50" t="s">
+        <v>389</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" t="s">
+        <v>390</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>391</v>
+      </c>
+      <c r="X50" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>394</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>395</v>
+      </c>
+      <c r="J51" t="s">
+        <v>396</v>
+      </c>
+      <c r="K51" t="s">
+        <v>397</v>
+      </c>
+      <c r="L51" t="s">
+        <v>398</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>399</v>
+      </c>
+      <c r="O51" t="s">
+        <v>70</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>4</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>2</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>400</v>
+      </c>
+      <c r="X51" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>403</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>404</v>
+      </c>
+      <c r="J52" t="s">
+        <v>405</v>
+      </c>
+      <c r="K52" t="s">
+        <v>406</v>
+      </c>
+      <c r="L52" t="s">
+        <v>407</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>390</v>
+      </c>
+      <c r="O52" t="s">
+        <v>70</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>2</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>400</v>
+      </c>
+      <c r="X52" t="s">
+        <v>401</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>409</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>410</v>
+      </c>
+      <c r="J53" t="s">
+        <v>411</v>
+      </c>
+      <c r="K53" t="s">
+        <v>412</v>
+      </c>
+      <c r="L53" t="s">
+        <v>413</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>390</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>391</v>
+      </c>
+      <c r="X53" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>415</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>416</v>
+      </c>
+      <c r="J54" t="s">
+        <v>417</v>
+      </c>
+      <c r="K54" t="s">
+        <v>418</v>
+      </c>
+      <c r="L54" t="s">
+        <v>419</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>399</v>
+      </c>
+      <c r="O54" t="s">
+        <v>70</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>391</v>
+      </c>
+      <c r="X54" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>421</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>422</v>
+      </c>
+      <c r="J55" t="s">
+        <v>423</v>
+      </c>
+      <c r="K55" t="s">
+        <v>424</v>
+      </c>
+      <c r="L55" t="s">
+        <v>425</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>390</v>
+      </c>
+      <c r="O55" t="s">
+        <v>219</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>426</v>
+      </c>
+      <c r="X55" t="s">
+        <v>427</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>429</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>430</v>
+      </c>
+      <c r="J56" t="s">
+        <v>431</v>
+      </c>
+      <c r="K56" t="s">
+        <v>432</v>
+      </c>
+      <c r="L56" t="s">
+        <v>433</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>390</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>434</v>
+      </c>
+      <c r="X56" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>437</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>438</v>
+      </c>
+      <c r="J57" t="s">
+        <v>439</v>
+      </c>
+      <c r="K57" t="s">
+        <v>440</v>
+      </c>
+      <c r="L57" t="s">
+        <v>441</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>399</v>
+      </c>
+      <c r="O57" t="s">
+        <v>53</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="n">
+        <v>3</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>442</v>
+      </c>
+      <c r="X57" t="s">
+        <v>443</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>445</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>446</v>
+      </c>
+      <c r="J58" t="s">
+        <v>447</v>
+      </c>
+      <c r="K58" t="s">
+        <v>448</v>
+      </c>
+      <c r="L58" t="s">
+        <v>449</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="s">
+        <v>399</v>
+      </c>
+      <c r="O58" t="s">
+        <v>53</v>
+      </c>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>450</v>
+      </c>
+      <c r="X58" t="s">
+        <v>451</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>453</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>454</v>
+      </c>
+      <c r="J59" t="s">
+        <v>455</v>
+      </c>
+      <c r="K59" t="s">
+        <v>456</v>
+      </c>
+      <c r="L59" t="s">
+        <v>457</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>458</v>
+      </c>
+      <c r="O59" t="s">
+        <v>70</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>459</v>
+      </c>
+      <c r="X59" t="s">
+        <v>460</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>462</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>463</v>
+      </c>
+      <c r="J60" t="s">
+        <v>464</v>
+      </c>
+      <c r="K60" t="s">
+        <v>465</v>
+      </c>
+      <c r="L60" t="s">
+        <v>466</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>458</v>
+      </c>
+      <c r="O60" t="s">
+        <v>70</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>467</v>
+      </c>
+      <c r="X60" t="s">
+        <v>468</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>470</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>471</v>
+      </c>
+      <c r="J61" t="s">
+        <v>472</v>
+      </c>
+      <c r="K61" t="s">
+        <v>473</v>
+      </c>
+      <c r="L61" t="s">
+        <v>474</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>475</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="n">
+        <v>1</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>459</v>
+      </c>
+      <c r="X61" t="s">
+        <v>460</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>477</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>478</v>
+      </c>
+      <c r="J62" t="s">
+        <v>479</v>
+      </c>
+      <c r="K62" t="s">
+        <v>480</v>
+      </c>
+      <c r="L62" t="s">
+        <v>481</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s"/>
+      <c r="O62" t="s"/>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>482</v>
+      </c>
+      <c r="X62" t="s">
+        <v>483</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>485</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>486</v>
+      </c>
+      <c r="J63" t="s">
+        <v>487</v>
+      </c>
+      <c r="K63" t="s">
+        <v>488</v>
+      </c>
+      <c r="L63" t="s">
+        <v>489</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>475</v>
+      </c>
+      <c r="O63" t="s">
+        <v>70</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>490</v>
+      </c>
+      <c r="X63" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>493</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>494</v>
+      </c>
+      <c r="J64" t="s">
+        <v>495</v>
+      </c>
+      <c r="K64" t="s">
+        <v>496</v>
+      </c>
+      <c r="L64" t="s">
+        <v>497</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>498</v>
+      </c>
+      <c r="O64" t="s">
+        <v>70</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>482</v>
+      </c>
+      <c r="X64" t="s">
+        <v>483</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>500</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>501</v>
+      </c>
+      <c r="J65" t="s">
+        <v>502</v>
+      </c>
+      <c r="K65" t="s">
+        <v>503</v>
+      </c>
+      <c r="L65" t="s">
+        <v>504</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>367</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>505</v>
+      </c>
+      <c r="X65" t="s">
+        <v>506</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>508</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>509</v>
+      </c>
+      <c r="J66" t="s">
+        <v>510</v>
+      </c>
+      <c r="K66" t="s">
+        <v>511</v>
+      </c>
+      <c r="L66" t="s">
+        <v>512</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>513</v>
+      </c>
+      <c r="O66" t="s">
+        <v>70</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="s"/>
+      <c r="S66" t="s"/>
+      <c r="T66" t="s"/>
+      <c r="U66" t="s"/>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>514</v>
+      </c>
+      <c r="X66" t="s">
+        <v>515</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>516</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_237.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_237.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="801">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,96 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/09/2018</t>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r609720456-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>292556</t>
+  </si>
+  <si>
+    <t>609720456</t>
+  </si>
+  <si>
+    <t>08/23/2018</t>
+  </si>
+  <si>
+    <t>Erick is Amazing!!</t>
+  </si>
+  <si>
+    <t>I never in my life write reviews since I am a Platinum Elite Member, however this time I had to make an exception due to the best customer service rep that I ever experienced. He is a perfect fit for his management role. Please let him know Mrs. Wright said thank you for everything!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Rachel M, Manager at Fairfield Inn &amp; Suites Houston Hobby Airport, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>I never in my life write reviews since I am a Platinum Elite Member, however this time I had to make an exception due to the best customer service rep that I ever experienced. He is a perfect fit for his management role. Please let him know Mrs. Wright said thank you for everything!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r592692411-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>592692411</t>
+  </si>
+  <si>
+    <t>07/03/2018</t>
+  </si>
+  <si>
+    <t>You won't regret</t>
+  </si>
+  <si>
+    <t>Great rooms and indoor pool.The breakfast is that of a champs. The bacon and eggs just set it off. I recommend it to family and friends. I will stay here again if I ever stop by Houston or use the airport</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r586289218-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>586289218</t>
+  </si>
+  <si>
+    <t>06/09/2018</t>
+  </si>
+  <si>
+    <t>So-So hotel, but GREAT hostess for breakfast!</t>
+  </si>
+  <si>
+    <t>I stayed for the week with a business partner.  His room was on the same side as the highway.  Noise was so loud, he HAD to be moved to the other side of the building.  Same as my side.  I heard the noise in his room and fully agreed.  Attention to detail wasn't the highest, but it wasn't the worst - hence the average ratingBUT...Patricia is the hostess each morning for breakfast.  Wow what an attentive woman she is!  She always had the room stocked by 6am start, kept each food station stocked, cleaned tables and took our trash from the tables, and was extremely pleasant to talk with each morning.  If I was managing a hotel, and I had an employee like Patricia, I'd make damn sure she was happy and paid well so I wouldn't lose her!  Great asset to all patrons every morning.Bravo Zulu Patricia!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Rachel M, General Manager at Fairfield Inn &amp; Suites Houston Hobby Airport, responded to this reviewResponded June 11, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2018</t>
+  </si>
+  <si>
+    <t>I stayed for the week with a business partner.  His room was on the same side as the highway.  Noise was so loud, he HAD to be moved to the other side of the building.  Same as my side.  I heard the noise in his room and fully agreed.  Attention to detail wasn't the highest, but it wasn't the worst - hence the average ratingBUT...Patricia is the hostess each morning for breakfast.  Wow what an attentive woman she is!  She always had the room stocked by 6am start, kept each food station stocked, cleaned tables and took our trash from the tables, and was extremely pleasant to talk with each morning.  If I was managing a hotel, and I had an employee like Patricia, I'd make damn sure she was happy and paid well so I wouldn't lose her!  Great asset to all patrons every morning.Bravo Zulu Patricia!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r583652971-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>292556</t>
-  </si>
-  <si>
     <t>583652971</t>
   </si>
   <si>
@@ -177,9 +255,6 @@
     <t>May 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>Rachel M, General Manager at Fairfield Inn &amp; Suites Houston Hobby Airport, responded to this reviewResponded May 30, 2018</t>
   </si>
   <si>
@@ -228,9 +303,6 @@
     <t>Stayed 05/06/2018: The positives:• Close to airport• Competitive pricing• The front reception staff was friendlyThe rest of the story:• Hair braid/weave was left in the sheets on the bed (how were the sheets even changed prior to my stay?!)• The window AC unit has fixed vents so that they cannot be directed elsewhere. One must build a fort out of the pillows so the AC doesn't blow on your face all night while you sleep! Or... you could sweat to death...• The limited breakfast items didn't get refilled. Eggs run out? Sorry, no more eggs. Waffle batter all used up? Sorry, no more waffles.While the price and proximity to the airport fit the bill for arriving late in the evening, I would 100% stay elsewhere as there are plenty of similarly-priced options. Arriving around midnight, I knew that it wasn't likely that another hotel could have accommodated my stay and if the lack of cleaning or changing sheets was any indication of the processes internally at this hotel, I would get an equal if not worse room!MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>Rachel M, General Manager at Fairfield Inn &amp; Suites Houston Hobby Airport, responded to this reviewResponded May 11, 2018</t>
   </si>
   <si>
@@ -240,30 +312,69 @@
     <t>Stayed 05/06/2018: The positives:• Close to airport• Competitive pricing• The front reception staff was friendlyThe rest of the story:• Hair braid/weave was left in the sheets on the bed (how were the sheets even changed prior to my stay?!)• The window AC unit has fixed vents so that they cannot be directed elsewhere. One must build a fort out of the pillows so the AC doesn't blow on your face all night while you sleep! Or... you could sweat to death...• The limited breakfast items didn't get refilled. Eggs run out? Sorry, no more eggs. Waffle batter all used up? Sorry, no more waffles.While the price and proximity to the airport fit the bill for arriving late in the evening, I would 100% stay elsewhere as there are plenty of similarly-priced options. Arriving around midnight, I knew that it wasn't likely that another hotel could have accommodated my stay and if the lack of cleaning or changing sheets was any indication of the processes internally at this hotel, I would get an equal if not worse room!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r571911689-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>571911689</t>
+  </si>
+  <si>
+    <t>04/08/2018</t>
+  </si>
+  <si>
+    <t>Great staff!</t>
+  </si>
+  <si>
+    <t>Stayed here 4/7 before our cruise. Hotel is clean, bed are comfortable and breakfast good.  Shuttle picked us up at hobby airport with no delay. Front desk staff friendly and helpful. Area a little on the shady side. Sheraton next door serves food and cocktails.  Papas bbq 5 min. Walk. We would stay here again.  The hotel does have a musty odor but all in all ok.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>Rachel M, General Manager at Fairfield Inn &amp; Suites Houston Hobby Airport, responded to this reviewResponded April 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 9, 2018</t>
+  </si>
+  <si>
+    <t>Stayed here 4/7 before our cruise. Hotel is clean, bed are comfortable and breakfast good.  Shuttle picked us up at hobby airport with no delay. Front desk staff friendly and helpful. Area a little on the shady side. Sheraton next door serves food and cocktails.  Papas bbq 5 min. Walk. We would stay here again.  The hotel does have a musty odor but all in all ok.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r571023738-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>571023738</t>
+  </si>
+  <si>
+    <t>04/04/2018</t>
+  </si>
+  <si>
+    <t>Awesome Staff</t>
+  </si>
+  <si>
+    <t>I wish I would have paid attention to the first name of the gentleman that checked me in (i believe it was Eric) but I have never had a more pleasant first impression.  He was extremely courteous and prompt to help me get settled in.  I was quickly checked in and hand a print out of restaurants that would deliver in the area.  Above and beyond if you ask me.  As for my room, it was perfect.  The room was clean, the bathroom was immaculate and the AC worked to my liking.  I had a quite stay as well.  It it located near a busy street but I didn't hear a thing!  If in the area, I'll be back at this property again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel M, General Manager at Fairfield Inn &amp; Suites Houston Hobby Airport, responded to this reviewResponded April 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 5, 2018</t>
+  </si>
+  <si>
+    <t>I wish I would have paid attention to the first name of the gentleman that checked me in (i believe it was Eric) but I have never had a more pleasant first impression.  He was extremely courteous and prompt to help me get settled in.  I was quickly checked in and hand a print out of restaurants that would deliver in the area.  Above and beyond if you ask me.  As for my room, it was perfect.  The room was clean, the bathroom was immaculate and the AC worked to my liking.  I had a quite stay as well.  It it located near a busy street but I didn't hear a thing!  If in the area, I'll be back at this property again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r571004194-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
   </si>
   <si>
     <t>571004194</t>
   </si>
   <si>
-    <t>04/04/2018</t>
-  </si>
-  <si>
     <t>Roaches &amp; Apathetic Service</t>
   </si>
   <si>
     <t>Killed at least 5 roaches before departing room 313 at 7 am on 4/4/18. I told the front desk guy and he replied, "I will make a note of it." I said, "that's it?" to which he replied "the GM will be here in 15 minutes. I'm just the front desk guy."Wow. I left that room so quickly in the morning. I figure the staff is a reflection of management so what could I possibly expect from their higher up?MoreShow less</t>
   </si>
   <si>
-    <t>April 2018</t>
-  </si>
-  <si>
-    <t>Rachel M, General Manager at Fairfield Inn &amp; Suites Houston Hobby Airport, responded to this reviewResponded April 5, 2018</t>
-  </si>
-  <si>
-    <t>Responded April 5, 2018</t>
-  </si>
-  <si>
     <t>Killed at least 5 roaches before departing room 313 at 7 am on 4/4/18. I told the front desk guy and he replied, "I will make a note of it." I said, "that's it?" to which he replied "the GM will be here in 15 minutes. I'm just the front desk guy."Wow. I left that room so quickly in the morning. I figure the staff is a reflection of management so what could I possibly expect from their higher up?More</t>
   </si>
   <si>
@@ -285,9 +396,6 @@
     <t>March 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>Rachel M, Director of Sales at Fairfield Inn &amp; Suites Houston Hobby Airport, responded to this reviewResponded April 13, 2018</t>
   </si>
   <si>
@@ -310,6 +418,36 @@
   </si>
   <si>
     <t>We had four suites reserved for the night before our cruise out of Galveston. Rooms were all together as requested and very clean. Free shuttle from airport was wonderful. Check is was super fast and very friendly. Rooms were a nice size and beds were comfortable. Hot breakfast in the morning was very nice. Silent night with no issues of any kind. Great experience for all of us!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r567945243-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>567945243</t>
+  </si>
+  <si>
+    <t>Seems Like Just Renovated</t>
+  </si>
+  <si>
+    <t>This hotel is not in the best area, but its purpose is to be close to the airport.  It is close and a very easy 3 minute drive to airport.  I did not feel unsafe even with the so so neighborhood.The property was very nice,  I thought is was a new hotel.  However, I was told it used to be a Holiday Inn Express.  Another employee told me it was renovated about 3 years ago.The service was very nice and the property was clean.  The gentleman at the front desk was very nice and dressed very well.  Beds were comfortable and the room and breakfast area was comfortable in temperature and humidity. Bath looked brand new.  Only found a few things that indicated to me it was a reno rather a new hotel.   However these things were very minor and most people would not even see them.I would absolutely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is not in the best area, but its purpose is to be close to the airport.  It is close and a very easy 3 minute drive to airport.  I did not feel unsafe even with the so so neighborhood.The property was very nice,  I thought is was a new hotel.  However, I was told it used to be a Holiday Inn Express.  Another employee told me it was renovated about 3 years ago.The service was very nice and the property was clean.  The gentleman at the front desk was very nice and dressed very well.  Beds were comfortable and the room and breakfast area was comfortable in temperature and humidity. Bath looked brand new.  Only found a few things that indicated to me it was a reno rather a new hotel.   However these things were very minor and most people would not even see them.I would absolutely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r567777789-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>567777789</t>
+  </si>
+  <si>
+    <t>03/20/2018</t>
+  </si>
+  <si>
+    <t>Erik J &amp; Mary S, at the front desk, always greet us with friendly smiles and happy to see us!</t>
+  </si>
+  <si>
+    <t>The front desk crew, Erik J and MARY S ALWAYS welcome us and make us feel as though we are at home. The cleaning staff does a superb job cleaning the rooms. We have stayed here many many times and our experience gets better every time we stay.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r564022160-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
@@ -375,6 +513,51 @@
     <t>My Co-worker and I recently stayed at this location, and got fantastic customer service.  Erick was incredibly welcoming after a long day of work and driving, gave us restaurant suggestions, and was incredibly personable.  I noticed that some guests staying longer as they walked in he knew their names and welcomed them back by name.  Although my interaction was much more brief with the woman working the breakfast bar, she was friendly, nice and took pride in her work.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r561265107-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>561265107</t>
+  </si>
+  <si>
+    <t>02/18/2018</t>
+  </si>
+  <si>
+    <t>Airport Hotel</t>
+  </si>
+  <si>
+    <t>I really didn't like the location because of surrounding area.  That said, It tuned out okay and was glad we stayed here.  Eugene and Matthew, front desk, are the best.  They are responsible for making our stay pleasant.  They both were very eager to help us with all requests.  Their recommendation for eating establishments were spot on.  The rooms showed a little age but were very comfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel M, General Manager at Fairfield Inn &amp; Suites Houston Hobby Airport, responded to this reviewResponded February 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2018</t>
+  </si>
+  <si>
+    <t>I really didn't like the location because of surrounding area.  That said, It tuned out okay and was glad we stayed here.  Eugene and Matthew, front desk, are the best.  They are responsible for making our stay pleasant.  They both were very eager to help us with all requests.  Their recommendation for eating establishments were spot on.  The rooms showed a little age but were very comfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r557391431-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>557391431</t>
+  </si>
+  <si>
+    <t>01/30/2018</t>
+  </si>
+  <si>
+    <t>Good Basic Hotel. No problems, no frills</t>
+  </si>
+  <si>
+    <t>We stayed there one night. CHeck in was with Eric who was terrific. Very welcoming and very knowledgeable about the area. He was very likeable. The rooms were nice but the bathroom door opened up so you had to go around it from the hallway. Awkward. But the room was nice and the bed was comfortable. Good breakfast with the attendant there also very nice. Lots of restaurants to choose from in the neighborhood.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>We stayed there one night. CHeck in was with Eric who was terrific. Very welcoming and very knowledgeable about the area. He was very likeable. The rooms were nice but the bathroom door opened up so you had to go around it from the hallway. Awkward. But the room was nice and the bed was comfortable. Good breakfast with the attendant there also very nice. Lots of restaurants to choose from in the neighborhood.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r556571895-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -390,15 +573,6 @@
     <t>Last night my business partner + I stayed before our Retreat in La Porte, Texas. There were plenty of selections for breakfast + the beds were extremely comfortable, we slept all night. I have traveled all over the United States + I have never met a more wonderful hotel staff. From check-in to check-out everyone was pleasant. After check-out front desk attendant Ashley made my day/week/year! She called + explained that I left something in the room, after verifying that it belonged to me she said she found my laptop/lifeline! Not only did she find it, she returned it to me after she got off since I loved close to her home. I cannot thank her enough for her honesty + the entire hotel staff for their kindness while I was staying.MoreShow less</t>
   </si>
   <si>
-    <t>January 2018</t>
-  </si>
-  <si>
-    <t>Rachel M, General Manager at Fairfield Inn &amp; Suites Houston Hobby Airport, responded to this reviewResponded February 20, 2018</t>
-  </si>
-  <si>
-    <t>Responded February 20, 2018</t>
-  </si>
-  <si>
     <t>Last night my business partner + I stayed before our Retreat in La Porte, Texas. There were plenty of selections for breakfast + the beds were extremely comfortable, we slept all night. I have traveled all over the United States + I have never met a more wonderful hotel staff. From check-in to check-out everyone was pleasant. After check-out front desk attendant Ashley made my day/week/year! She called + explained that I left something in the room, after verifying that it belonged to me she said she found my laptop/lifeline! Not only did she find it, she returned it to me after she got off since I loved close to her home. I cannot thank her enough for her honesty + the entire hotel staff for their kindness while I was staying.More</t>
   </si>
   <si>
@@ -451,6 +625,57 @@
   </si>
   <si>
     <t>The room and hotel in general were fine. Location was so so, but most in the hobby airport area are not in the greatest neighborhoods. Eric at the front desk was very accommodating and pleasant. The Reason for only 3 star rating. First we called for the shuttle and were told where to wait. Waited for 20-25 minutes and no shuttle. Call back and were told they were having problems. If shuttle didn’t come in 10 minutes to take a taxi and hotel would reimburse. We ended up in the taxi(my 5 yr and 2 yr olds were now restless after the more than 30 minute wait.  Front desk did pay for taxi as agreed. Other issue was morning breakfast. Hotel was full(heard desk employee telling callers no vacancy). Yet in the morning only 1 woman working the breakfast area. Everything kept running out. Eggs, bread for toast, muffins, juice etc etc. lines were waiting 10-15 minutes just to get food. She was working hard and fast, just not fair for her or the guests to only have 1 person on. It was very disappointing. Would I stay here again? Yes. Would I place it above the Best Western Plus, or Holiday Inn in the same area that we’ve stayed at? No. Don’t get me wrong it wasn’t a terrible stay, but also nothing great. Shop and take the best price. They are about the same.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r553037025-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>553037025</t>
+  </si>
+  <si>
+    <t>01/10/2018</t>
+  </si>
+  <si>
+    <t>Awful, Dirty, Smelly Room</t>
+  </si>
+  <si>
+    <t>Please avoid this place... smells awful... an has cockroaches inside the room... i leave th hotel 30 minutes after arriving...They only offer other room... but hotel in general was smelly... i do not recommend itMoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel M, General Manager at Fairfield Inn &amp; Suites Houston Hobby Airport, responded to this reviewResponded January 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 12, 2018</t>
+  </si>
+  <si>
+    <t>Please avoid this place... smells awful... an has cockroaches inside the room... i leave th hotel 30 minutes after arriving...They only offer other room... but hotel in general was smelly... i do not recommend itMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r551978041-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>551978041</t>
+  </si>
+  <si>
+    <t>01/06/2018</t>
+  </si>
+  <si>
+    <t>Great spot for a Hobby Airport exit</t>
+  </si>
+  <si>
+    <t>It was an ideal spot to spend a night just before traveling out of Hobby Airport in Houston.   It would have been a 65 minute drive during morning rush hour coming from the north.   Why not stay here the night before and get extra sleep.   The hotel meets all the fine Marriott standards.  From all the waffles you can eat to the clean, comfortable bed.  I will use this one, when traveling in and out of Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>Rachel M, Guest Relations Manager at Fairfield Inn &amp; Suites Houston Hobby Airport, responded to this reviewResponded January 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 8, 2018</t>
+  </si>
+  <si>
+    <t>It was an ideal spot to spend a night just before traveling out of Hobby Airport in Houston.   It would have been a 65 minute drive during morning rush hour coming from the north.   Why not stay here the night before and get extra sleep.   The hotel meets all the fine Marriott standards.  From all the waffles you can eat to the clean, comfortable bed.  I will use this one, when traveling in and out of Houston.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r536469376-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
@@ -541,6 +766,39 @@
 The only reason I didn't give them 5 stars is because...   Atmosphere:    This location is all around well maintained. We chose the King suite because we got a better price a week before leaving then we did booking months in advance. The King Suite was very spacious for 2 adults, a teenage boy and a 10 yr old girl.   Staff:     Most of the staff was extremely friendly. The person who checked us in was basically doing his job, but a gentleman who ran the desk in the evening was unbelievably out going.     At one point he recognized that there was a party going on in the pool which was difficult for other guests. He immediately told us to go to the hotel pool next door where there was an outdoor pool to use. I guess the hotels are owned by the same company. It was awesome and so much better than the cool pool inside. We also had to call him  to bring up a comforter for the sofa bed.    Pool:   The inside pool was kinda cool and no hot tub. It kinda sucked until the front desk said we could use the outdoor pool at neighbor hotel.    Location:     Close to Airport. The street is a one way but within a reasonable distance to many stores and restaurants.    Breakfast:    The breakfast had a very nice selection that everyone in our family was satisfied with. Eggs, cereal, yogurt, waffles etc etc.The only reason I didn't give them 5 stars is because they were a little understaffed at times and we had to go to the front desk for assistance instead of making a call from the room.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r515698264-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>515698264</t>
+  </si>
+  <si>
+    <t>08/20/2017</t>
+  </si>
+  <si>
+    <t>Good location, fantastic staff...good stay</t>
+  </si>
+  <si>
+    <t>We stayed one night at the Fairfield inn &amp; suites prior to an early next day flight from hobby , firstly I have to mention Eric on the front desk…. A massive warm welcome , friendly &amp; efficient, helpful, if every hotel had someone like Eric the world would be a happier place….. well when checking in to hotels at least !.....the location is excellent for Hobby…. Great authentic BBQ joint 5 minutes walk on same side off road as hotel…free parking… the hotel was clean &amp; well maintained, our room was also clean &amp; well maintained, large comfortable beds , wifi worked fine as did the A/C ….breakfast was good…. Eggs &amp; sausage were the hot food options &amp; all the usual toast, fruit ,cereal ,yogurt etc..the lady looking after breakfast was very friendly &amp; did a great job keeping it stocked up &amp; clean….all positive no negative points….good clean hotel that rises above mainly due to great staff…. Would definitely stay again &amp; recommend to anyone.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed one night at the Fairfield inn &amp; suites prior to an early next day flight from hobby , firstly I have to mention Eric on the front desk…. A massive warm welcome , friendly &amp; efficient, helpful, if every hotel had someone like Eric the world would be a happier place….. well when checking in to hotels at least !.....the location is excellent for Hobby…. Great authentic BBQ joint 5 minutes walk on same side off road as hotel…free parking… the hotel was clean &amp; well maintained, our room was also clean &amp; well maintained, large comfortable beds , wifi worked fine as did the A/C ….breakfast was good…. Eggs &amp; sausage were the hot food options &amp; all the usual toast, fruit ,cereal ,yogurt etc..the lady looking after breakfast was very friendly &amp; did a great job keeping it stocked up &amp; clean….all positive no negative points….good clean hotel that rises above mainly due to great staff…. Would definitely stay again &amp; recommend to anyone.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r510640781-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>510640781</t>
+  </si>
+  <si>
+    <t>08/09/2017</t>
+  </si>
+  <si>
+    <t>Great place to stay.</t>
+  </si>
+  <si>
+    <t>A very clean and nice hotel with a great hot breakfast. We checked in late and the clerk was very friendly and helpful. Our room was very, very clean &amp; nice.when we needed to adjustour reservation the clerk was very accommodating and found the perfect room away from any elevator or stairway noise. The lady who] manned the bot breakfast room could use some help when it is very crowded But she managed it very well.I stay here again &amp;again</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r504618381-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -608,6 +866,48 @@
   </si>
   <si>
     <t>We stayed in this hotel after a Carnival cruise. We chose this hotel because of the free airport shuttle to/from Hobby and because it was affiliated with the Marriott brand. The hotel was able to accomodate us checking in early which was nice. However, it is located right next to a busy highway with no dinner options in the hotel and nothing in walkable distance other than the 4 Points Sheridan next door (couldn't even eat there the night we were there because their kitchen/dinner staff didn't show up). The front desk did supply us with phone numbers for take out places &amp; we ended up ordering domino's &amp; eating on the floor of our room because we weren't going to take a chance of getting pizza sauce on the white bed comforters. They were also willing to supply us with paper plates, napkins &amp; forks since Domino's would not. I was pleasantly surprised that despite the very loud highway outside, we did not hear it over the ac unit in the room. Beds were comfortable. Room/bathroom itself looked worn. Chips in the bathroom counter - marks on the mirrors, etc. Breakfast was ok. Hotel shuttle van to Hobby (~10 minutes) was quite old and not very clean. Driver was friendly and helpful. We will be trying a different hotel the next time we need a place to stay after a cruise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r496851011-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>496851011</t>
+  </si>
+  <si>
+    <t>06/28/2017</t>
+  </si>
+  <si>
+    <t>Rise early to catch breakfast or else</t>
+  </si>
+  <si>
+    <t>Weary traveler, do you ache with hunger? If your response is in the affirmative, then fortune smiles upon you. If you can muster the fortitude to survive your fast until morn, your reward will greet you in the form of a plentiful feast of breakfast treats. But be warned! This copious spread will only make itself available for your delights until 8:59 AM. Once the clock strikes 9 AM, every last crumb will be quickly whisked away, leaving but faint scents and the grumbling of empty tummy. And dare you not question how this cruelty can be so, for you will be mocked by the wise and elder breakfast buffet attendant, who will delight in spinning you tales of your fellow guests who were early to rise and partook fully in the feast. So much so that they had to practically beg this wench to take it away, she'll tell you. And you will look out upon the gleeful faces, smiling and laughing in their respective chairs about the dining area, full bellies shaking with mirthful enjoyment, and you will know this to be as true as the sharp pangs of hunger that stab within your belly. The harrowing darkness of this reality matches the color of the heart of the elderly attendant as she chastises you for finding your way to this scene just a little too late, regardless of what you may have been told by the innkeeper...Weary traveler, do you ache with hunger? If your response is in the affirmative, then fortune smiles upon you. If you can muster the fortitude to survive your fast until morn, your reward will greet you in the form of a plentiful feast of breakfast treats. But be warned! This copious spread will only make itself available for your delights until 8:59 AM. Once the clock strikes 9 AM, every last crumb will be quickly whisked away, leaving but faint scents and the grumbling of empty tummy. And dare you not question how this cruelty can be so, for you will be mocked by the wise and elder breakfast buffet attendant, who will delight in spinning you tales of your fellow guests who were early to rise and partook fully in the feast. So much so that they had to practically beg this wench to take it away, she'll tell you. And you will look out upon the gleeful faces, smiling and laughing in their respective chairs about the dining area, full bellies shaking with mirthful enjoyment, and you will know this to be as true as the sharp pangs of hunger that stab within your belly. The harrowing darkness of this reality matches the color of the heart of the elderly attendant as she chastises you for finding your way to this scene just a little too late, regardless of what you may have been told by the innkeeper upon check in just the night before. As you march back up to your room, greeted by the musty aromas that are evidence of the humid, subtropical climate of the Gulf Coast burg, you will curse your misfortune. If only this fate could have been avoided! If only someone had warned you to set your alarm a few minutes earlier, to avoid the temptations of the snooze buttons siren song. Perhaps this review can be your warning, fellow traveler. The smells of the hallways, the damp air and subsequent odor that hangs in your room, those are troubles to which you can become accustomed to in short time. But be not haunted by the ghost of a breakfast feast that was spirited away just seconds before your feet touched the lobby floor. If you choose to stay at this adequate lodging, be sure to rise early, or else make plans to seek out your breakfast!MoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel M, Guest Relations Manager at Fairfield Inn &amp; Suites Houston Hobby Airport, responded to this reviewResponded July 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2017</t>
+  </si>
+  <si>
+    <t>Weary traveler, do you ache with hunger? If your response is in the affirmative, then fortune smiles upon you. If you can muster the fortitude to survive your fast until morn, your reward will greet you in the form of a plentiful feast of breakfast treats. But be warned! This copious spread will only make itself available for your delights until 8:59 AM. Once the clock strikes 9 AM, every last crumb will be quickly whisked away, leaving but faint scents and the grumbling of empty tummy. And dare you not question how this cruelty can be so, for you will be mocked by the wise and elder breakfast buffet attendant, who will delight in spinning you tales of your fellow guests who were early to rise and partook fully in the feast. So much so that they had to practically beg this wench to take it away, she'll tell you. And you will look out upon the gleeful faces, smiling and laughing in their respective chairs about the dining area, full bellies shaking with mirthful enjoyment, and you will know this to be as true as the sharp pangs of hunger that stab within your belly. The harrowing darkness of this reality matches the color of the heart of the elderly attendant as she chastises you for finding your way to this scene just a little too late, regardless of what you may have been told by the innkeeper...Weary traveler, do you ache with hunger? If your response is in the affirmative, then fortune smiles upon you. If you can muster the fortitude to survive your fast until morn, your reward will greet you in the form of a plentiful feast of breakfast treats. But be warned! This copious spread will only make itself available for your delights until 8:59 AM. Once the clock strikes 9 AM, every last crumb will be quickly whisked away, leaving but faint scents and the grumbling of empty tummy. And dare you not question how this cruelty can be so, for you will be mocked by the wise and elder breakfast buffet attendant, who will delight in spinning you tales of your fellow guests who were early to rise and partook fully in the feast. So much so that they had to practically beg this wench to take it away, she'll tell you. And you will look out upon the gleeful faces, smiling and laughing in their respective chairs about the dining area, full bellies shaking with mirthful enjoyment, and you will know this to be as true as the sharp pangs of hunger that stab within your belly. The harrowing darkness of this reality matches the color of the heart of the elderly attendant as she chastises you for finding your way to this scene just a little too late, regardless of what you may have been told by the innkeeper upon check in just the night before. As you march back up to your room, greeted by the musty aromas that are evidence of the humid, subtropical climate of the Gulf Coast burg, you will curse your misfortune. If only this fate could have been avoided! If only someone had warned you to set your alarm a few minutes earlier, to avoid the temptations of the snooze buttons siren song. Perhaps this review can be your warning, fellow traveler. The smells of the hallways, the damp air and subsequent odor that hangs in your room, those are troubles to which you can become accustomed to in short time. But be not haunted by the ghost of a breakfast feast that was spirited away just seconds before your feet touched the lobby floor. If you choose to stay at this adequate lodging, be sure to rise early, or else make plans to seek out your breakfast!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r491860257-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>491860257</t>
+  </si>
+  <si>
+    <t>06/09/2017</t>
+  </si>
+  <si>
+    <t>One Night Stay, Great Breakfast!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My boyfriend and I stayed for one night before heading out to a long drive to San Antonio. Check in staff was really nice, and the hot breakfast was delicious! The only negative comment I'd have to say was that the smoke detector went off after I took a hot shower and it took the staff 20 minutes to turn it off. </t>
+  </si>
+  <si>
+    <t>May 2017</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r490340849-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
@@ -669,7 +969,34 @@
     <t xml:space="preserve">Excellent location to stay prior to cruising out of Galveston. It was about a 30-40 min drive to the Port of Galveston. Traffic was not bad the morning of our cruise. Hotel was much cheaper then staying in Galveston. Eric assisted with booking a large group for us, 20 people (6 rooms). We used the breakfast area that night to eat pizza and visit. very clean comfortable hotel with great indoor pool.  The breakfast area in the am was well stocked and clean. I would recommend this hotel for pre or post cruise stay. </t>
   </si>
   <si>
-    <t>May 2017</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r483669668-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>483669668</t>
+  </si>
+  <si>
+    <t>05/12/2017</t>
+  </si>
+  <si>
+    <t>Solid airport hotel</t>
+  </si>
+  <si>
+    <t>I stayed here after a late arrival at HOU.  Quick and efficient check in.  The room was well appointed and clean.  AC unit worked well and was not too noisy.  Breakfast was the usual buffet that is served at Fairfield.  Perfectly acceptable.  Overall great value for money.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r483042385-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>483042385</t>
+  </si>
+  <si>
+    <t>05/09/2017</t>
+  </si>
+  <si>
+    <t>Nice place to stay prior to cruise in Galveston</t>
+  </si>
+  <si>
+    <t>We stayed at Fairfield Inn &amp; Suites the night before our cruise.  The lady at the front desk, I believe her name was Alyssa, was very friendly and even upgraded us to a suite.  The hotel was very clean and nice for the price.  There aren't many restaurants or things to do near there, but it was good for what we needed it to be.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r478059066-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
@@ -732,6 +1059,51 @@
     <t>Seems like an older hotel that has tried to pretend it's updated.  The staff was not as friendly, welcoming or accommodating as other Marriott properties, but they weren't exactly rude either....just kind of "un-commentable".  It was ok for an overnighter, but I would not be staying here again.  Price was good and that's why we chose it.  Rooms were relatively clean.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r455970735-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>455970735</t>
+  </si>
+  <si>
+    <t>01/30/2017</t>
+  </si>
+  <si>
+    <t>HORRIBLE Management - DO NOT STAY HERE</t>
+  </si>
+  <si>
+    <t>On night two, my lock broke.  Could NOT enter my room where ALL my stuff was.  Manager (who actually worked at the hotel next door - a different brand) just walked away.  He was rude.  He and the front desk (this young man was AMAZING though) both couldn't get a key to work.  Maintenance had to be called in.  Customer service said - sorry can't help you, they said they were sorry.  NO that was horrible.  Social media at Marriott called later in the evening and gave me 10K points - which NEVER came.  Then the manager of Fairfield said IF I come back call him.  Yeah - for what?  NO WAY - if you have a horrible experience, something should be offered in reality, not a nice comment to shut someone up.  I would NEVER stay here.  OH and don't mention how horrible the area was.  It was dirty, didn't feel safe at night driving or finding something to eat.  Marriott and Fairfield INN don't respect customers.  I'm a business traveler and I'll ensure my coworkers and travel agency know to NOT recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Rachel M, Guest Relations Manager at Fairfield Inn &amp; Suites Houston Hobby Airport, responded to this reviewResponded February 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 2, 2017</t>
+  </si>
+  <si>
+    <t>On night two, my lock broke.  Could NOT enter my room where ALL my stuff was.  Manager (who actually worked at the hotel next door - a different brand) just walked away.  He was rude.  He and the front desk (this young man was AMAZING though) both couldn't get a key to work.  Maintenance had to be called in.  Customer service said - sorry can't help you, they said they were sorry.  NO that was horrible.  Social media at Marriott called later in the evening and gave me 10K points - which NEVER came.  Then the manager of Fairfield said IF I come back call him.  Yeah - for what?  NO WAY - if you have a horrible experience, something should be offered in reality, not a nice comment to shut someone up.  I would NEVER stay here.  OH and don't mention how horrible the area was.  It was dirty, didn't feel safe at night driving or finding something to eat.  Marriott and Fairfield INN don't respect customers.  I'm a business traveler and I'll ensure my coworkers and travel agency know to NOT recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r452817196-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>452817196</t>
+  </si>
+  <si>
+    <t>01/17/2017</t>
+  </si>
+  <si>
+    <t>A Handy Yet InexpensiveHotel to Houston's Hobby Airport</t>
+  </si>
+  <si>
+    <t>Hotels are often a matter of guesswork. I've abandoned some after a single night and one near Boston after seeing it and without spending a night there. So when we needed to go to Houston and decided on Hobby rather than Intercontinental because we needed to be on the South Side this time, I looked for hotels in the airport area.Now I've only stayed in one other Fairfield Inn and that stay was satisfactory so I gambled on this one being the same way. I won! It is a nice place at a nice price. It's right on the Gulf Freeway so it is easy to find, easy to get to, easy to get to other places from..., you get the idea. It's handy.First impressions. The man at the front desk was friendly, efficient and helpful. We took the keys and went to look at the room before taking our luggage up. I hate bringing luggage back down if the room is not acceptable. No problem this time. The room was clean and fresh, the breakfast was good and more importantly, so was the coffee. We had a rental car so I didn't need to use the shuttle but it came and went often enough that it was apparent that it provided the service the riders needed.In all, I was pleased with the hotel and happy with my choice to stay there.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hotels are often a matter of guesswork. I've abandoned some after a single night and one near Boston after seeing it and without spending a night there. So when we needed to go to Houston and decided on Hobby rather than Intercontinental because we needed to be on the South Side this time, I looked for hotels in the airport area.Now I've only stayed in one other Fairfield Inn and that stay was satisfactory so I gambled on this one being the same way. I won! It is a nice place at a nice price. It's right on the Gulf Freeway so it is easy to find, easy to get to, easy to get to other places from..., you get the idea. It's handy.First impressions. The man at the front desk was friendly, efficient and helpful. We took the keys and went to look at the room before taking our luggage up. I hate bringing luggage back down if the room is not acceptable. No problem this time. The room was clean and fresh, the breakfast was good and more importantly, so was the coffee. We had a rental car so I didn't need to use the shuttle but it came and went often enough that it was apparent that it provided the service the riders needed.In all, I was pleased with the hotel and happy with my choice to stay there.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r452467064-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -747,9 +1119,6 @@
     <t>Ice storm in the midwest cancelled our connecting flight.  Found the Fairfield Inn on booking.comShuttle service was good to/from the airport.  Front desk clerk and breakfast employees were friendly and helpful.  Toilet in our room needs to have the parts in the tank replaced - annoying that it would run for 15 minutes after every use.   Rooms facing the highway will be really loud.  Breakfast was good selection of hot and cold foods.  Don't bother eating at the "restaurant" over in their sister property (Four Points Sheraton)...Really bad food and service.Bed and pillows were comfortable.  Good water pressure and temperature in the shower.  Room was clean.</t>
   </si>
   <si>
-    <t>January 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r450807815-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -786,6 +1155,42 @@
     <t>Driving through Texas and decided to stop for the night. Probably the best Fairfield I've stayed in nationwide. Eric at the front desk was very accomodating. He helped in anyway possible and very familiar with local area. He offered a concierge type of service for guests that was beyond compare!</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r438811780-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>438811780</t>
+  </si>
+  <si>
+    <t>11/20/2016</t>
+  </si>
+  <si>
+    <t>Our choice hotel when visiting family in Houston</t>
+  </si>
+  <si>
+    <t>We always stay at this hotel when in south Houston. Have never stayed here and not found it to be clean and comfortable. The staff is accommodating and friendly. Each morning you can start with a free full hot meal. Coffee is served in the lobby throughout the day.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r431542168-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>431542168</t>
+  </si>
+  <si>
+    <t>10/25/2016</t>
+  </si>
+  <si>
+    <t>Stayed a night there before our cruise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My husband and I booked this hotel at the last minute and was very pleased. Erick at guest services was very friendly and gave us recommendations of restaurants for dinner. Our king bed (which was very comfortable) room was spacious and clean. Plenty of TV Channels to chose from. We would definitely stay there again on another cruise leaving out of Galveston. </t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r428266145-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -837,6 +1242,42 @@
     <t xml:space="preserve">I have stayed here 2 times in 2 months. Both times Eric was the front desk agent who checked me in. He is great- very professional, polite, and friendly! Hotel lobby and room well maintained and extremely clean.  I will continue to stay here when I am in the area. </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r397002753-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>397002753</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t>Great place to stay before cruising</t>
+  </si>
+  <si>
+    <t>We stayed  The night before a cruise and it worked out very well. The only downside was it took a little bit for the driver to pick us up. It was a long day and we would have preferred to get there is early as possible  and get to bed. However once we got there at the front desk guy was fantastic.  The rooms were nice but the air conditioning system seemed to run a little humid in my room.  Breakfast was fine and we had an instant shuttle when we needed it right back to the airport to meet the cruise line   All in all I would highly recommend this hotel.  Price was good and the staff was great.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>We stayed  The night before a cruise and it worked out very well. The only downside was it took a little bit for the driver to pick us up. It was a long day and we would have preferred to get there is early as possible  and get to bed. However once we got there at the front desk guy was fantastic.  The rooms were nice but the air conditioning system seemed to run a little humid in my room.  Breakfast was fine and we had an instant shuttle when we needed it right back to the airport to meet the cruise line   All in all I would highly recommend this hotel.  Price was good and the staff was great.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r393733046-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>393733046</t>
+  </si>
+  <si>
+    <t>07/17/2016</t>
+  </si>
+  <si>
+    <t>Very Good Hotel Stay!</t>
+  </si>
+  <si>
+    <t>This Fairfield Inn &amp; Suites was a great location if you are flying out of Hobby which was the case for me.  The property is in a not so desirable area, but had went out of their way to protect your personal property.  The room was excellent and clean.  Eric behind the counter was extremely kind and accommodating.  I did not have time for breakfast, so I can't comment on that.  The hotel is approximately 5 minutes from Hobby Airport and was a direct route.  They also provided shuttle service to Hobby.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r389408748-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -846,9 +1287,6 @@
     <t>07/05/2016</t>
   </si>
   <si>
-    <t>Awesome Staff</t>
-  </si>
-  <si>
     <t>We had a layover and were unexpectedly staying overnight without our luggage.  The staff went out of their way and took us to Walmart for diapers and made an unpleasant experience much better.  Outstanding service from Joseph Spears and Denise Grant.  The rooms were comfortable and clean.  Overall great experience.</t>
   </si>
   <si>
@@ -888,6 +1326,45 @@
     <t>I was very pleased by the friendliness of every staff member I met here. Incredibly friendly, kind, personable and helpful. Everyone from the shuttle driver, to the front desk agent and breakfast area attendee. The room was spacious, and the bed comfortable and clean, but fairly outdated in the bathroom. The room was set up in a very awkward way and I had a difficult time getting comfortable- which for someone who lives in hotel rooms over half the month is rare. It just felt awkward and lacked coziness. Pros: great wifi connectionFriendly staffYummy free breakfast- with actual hot items to supplement the standard cereal and yogurt The free shuttle will pick you up from the airport OR rental car center- nice surpriseFree waters and snacks upon check in if marriot memberLocation to airport Cons: outdated bathroom Lack of coziness in rooms- poorly organized and too many items for the spaceCheap products as toiletries More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r385931688-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>385931688</t>
+  </si>
+  <si>
+    <t>06/25/2016</t>
+  </si>
+  <si>
+    <t>Very Comfortable</t>
+  </si>
+  <si>
+    <t>After being bumped from a flight the airline put me up at this hotel. I wasn't expecting much but was pleasantly surprised. I arrived in the middle of the night with a migraine and stumbled to my room. I came to the lobby for a soda and the night clerk was very sweet. I came down again five minutes before breakfast was ending but they were very nice and encouraged me to have anything that I wanted.I went back to my room for more meds and sleep but was awakened by the day clerk who hadn't got the message that I had a late check out. I eventually fell asleep, got up to take a quick shower and the phone rang again to say housekeeping was on their way and it was time for me to check out. It was a few minutes early but no big deal.I went downstairs and waited the hour and a half before my shuttle to the airport and the day clerk offered me a soda and made sure I was comfy. I was still in a lot of pain but she was quite nice. Then the manager arrived and took exception to her sitting down on her break while she did paperwork. They then got into a loud verbal disagreement which was painful to my head and uncomfortable to watch. Thankfully, he was not my shuttle driver.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>After being bumped from a flight the airline put me up at this hotel. I wasn't expecting much but was pleasantly surprised. I arrived in the middle of the night with a migraine and stumbled to my room. I came to the lobby for a soda and the night clerk was very sweet. I came down again five minutes before breakfast was ending but they were very nice and encouraged me to have anything that I wanted.I went back to my room for more meds and sleep but was awakened by the day clerk who hadn't got the message that I had a late check out. I eventually fell asleep, got up to take a quick shower and the phone rang again to say housekeeping was on their way and it was time for me to check out. It was a few minutes early but no big deal.I went downstairs and waited the hour and a half before my shuttle to the airport and the day clerk offered me a soda and made sure I was comfy. I was still in a lot of pain but she was quite nice. Then the manager arrived and took exception to her sitting down on her break while she did paperwork. They then got into a loud verbal disagreement which was painful to my head and uncomfortable to watch. Thankfully, he was not my shuttle driver.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r383085401-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>383085401</t>
+  </si>
+  <si>
+    <t>06/16/2016</t>
+  </si>
+  <si>
+    <t>Decent hotel</t>
+  </si>
+  <si>
+    <t>This was a good hotel with a nice room. There was no safe and the coffee was not good. Decent number of electrical sockets. the beds were very comfortable but extremely high so difficult to get into when vertically challenged and the knees are not good. There was only one lift for the whole hotel.The breakfast was good with a selection of fruit (but no bananas), juices, pastries, yogurt and cooked items including low fat soft cheese.Soft drinks were available from the vending machine in the lobby but the diet Pepsi was $2.75 whereas at the hotel next door, the Diet Coke was only $1.</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r382600045-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -901,9 +1378,6 @@
   </si>
   <si>
     <t>I had to fly out of Houston to an international location so staying at the Fairfield Inn was convenient because it was close and they had a 24hr shuttle service. I called them when I landed and someone was there in 10 minutes.  The room  wasn't outdated,  but could be upgraded. The TV didn't work, but the front desk clerk gave me.a new room, Pronto.  I had a 2am shuttle request and they were prompt.  The computer wasn't working, but I was able to go across the parking lot to the Four Seasons 6and print what I needed.  I want to thank Joseph and Trish for helping me and my friends at the crack of dawn.  When I returned I stayed in the same hotel because they made my stay so pleasant. MoreShow less</t>
-  </si>
-  <si>
-    <t>May 2016</t>
   </si>
   <si>
     <t>I had to fly out of Houston to an international location so staying at the Fairfield Inn was convenient because it was close and they had a 24hr shuttle service. I called them when I landed and someone was there in 10 minutes.  The room  wasn't outdated,  but could be upgraded. The TV didn't work, but the front desk clerk gave me.a new room, Pronto.  I had a 2am shuttle request and they were prompt.  The computer wasn't working, but I was able to go across the parking lot to the Four Seasons 6and print what I needed.  I want to thank Joseph and Trish for helping me and my friends at the crack of dawn.  When I returned I stayed in the same hotel because they made my stay so pleasant. More</t>
@@ -952,24 +1426,54 @@
     <t>We stayed here the night before our cruise. It has a cheery decor. The rooms were clean. The shower head was great. The hotel staff is friendly. A good price. I would recommend this hotel to anyone. The only downside is there is not much around, like restaurants. They do have a free shuttle from the airport and the shuttle also will take you within a five mile radius of the hotel. I think it is a very good value.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r366048732-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>366048732</t>
+  </si>
+  <si>
+    <t>04/21/2016</t>
+  </si>
+  <si>
+    <t>Very Nice Fairfield</t>
+  </si>
+  <si>
+    <t>We returned from a cruise and stayed here the night before our flight. It is very close to the airport and within walking distance to a few restaurant options. We had a large room so it was nice to spread out after being in a small cruise ship state room. Would recommend this to any traveler.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r356911004-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>356911004</t>
+  </si>
+  <si>
+    <t>03/19/2016</t>
+  </si>
+  <si>
+    <t>My new favorite chain!</t>
+  </si>
+  <si>
+    <t>I have grown to love this chain.  Nice rooms, great breakfast, nice service at a good price.  The rooms facing the freeway are not as quiet so if you are a light sleeper you might consider getting a room opposite I-45.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r356784104-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
   </si>
   <si>
     <t>356784104</t>
   </si>
   <si>
-    <t>03/19/2016</t>
-  </si>
-  <si>
     <t>Nice hotel but pretty loud</t>
   </si>
   <si>
     <t>The staff was friendly and accommodating. Everyone from the shuttle driver to the breakfast worker. The room was on the smallish size but it was clean and comfortable. My only complaint was the noise from #^£¥&gt;\ guests who think it is ok to come in at 3am hoopin and a hollerin slamming doors arguing etc. from the voices it was obviously several young men. In general the rooms are not very sound proof. You could hear anyone close doors within 30feet of your room. If the guests were considerate, it wouldn't be an option. I wish this were an isolated problem but it is just the nature of a hotel. That's why I didn't knock off too many points. I would be comfortable staying here again. MoreShow less</t>
   </si>
   <si>
-    <t>March 2016</t>
-  </si>
-  <si>
     <t>The staff was friendly and accommodating. Everyone from the shuttle driver to the breakfast worker. The room was on the smallish size but it was clean and comfortable. My only complaint was the noise from #^£¥&gt;\ guests who think it is ok to come in at 3am hoopin and a hollerin slamming doors arguing etc. from the voices it was obviously several young men. In general the rooms are not very sound proof. You could hear anyone close doors within 30feet of your room. If the guests were considerate, it wouldn't be an option. I wish this were an isolated problem but it is just the nature of a hotel. That's why I didn't knock off too many points. I would be comfortable staying here again. More</t>
   </si>
   <si>
@@ -1012,6 +1516,42 @@
     <t>First impressions mean a lot to me. When I arrived at this property I noticed a strange chemical kind of odor. I am glad it was nothing to worry about (never found out what it was).The lobby appeared clean and the front desk clerk was very nice. The checkin process was a little long. The room was very clean and large with a microwave and refrigerator. Both of the appliances were spotless.The direct tv was a nice surprise.I was told that the neighborhood surrounding the hotel was "sketchy". The hotel does not have a bar or restaurant. They do offer a complementary breakfast.Also, it is very close to Houston Hobby Airport. Once on the shuttle it's about a 10 minute ride from the airport.For me, it was good for 1 night (grab food from the airport to take with you). I would not want to stay here for any extended time. Pictures are from room #407More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r347437302-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>347437302</t>
+  </si>
+  <si>
+    <t>02/13/2016</t>
+  </si>
+  <si>
+    <t>Quiet clean and quick shuttle service</t>
+  </si>
+  <si>
+    <t>We had a very early flight out of hobby and wanted someplace to stay where traffic wouldn't be a problem. This was a great choice. We had dinner and drinks next-door in the adjoining hotel's restaurant. We left before they began serving breakfast. Our shuttle was at the door waiting for us in the morning. It's a four minute drive to Hobby. I'd stay here again.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r337336345-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>337336345</t>
+  </si>
+  <si>
+    <t>01/04/2016</t>
+  </si>
+  <si>
+    <t>Great Begining to a Cruise</t>
+  </si>
+  <si>
+    <t>My extended family stayed here the night before we were to leave for a cruise out of Houston.  Some flew into Hobby and some drove from out of state.  The shuttle service was quick from Hobby - we called after we had our bags and they were there within 10 minutes.  The hotel was great and the breakfast, which was included, the next morning was GREAT!  Not just cold cereal and doughnuts - we had waffles, scrambled eggs, biscuits and gravy, etc.  We then called a cab to take us to the Bayshore Pier to get on the cruise ship - cost was about $60 for 5 people and the luggage.  The hotel was very clean and there was a good barbeque place "PaPa's" that we all walked to that night - about a 5 minute walk, same side of the street only up about 3 blocks.  I would recommend this place to anyone coming into town to continue on for a cruise vacation - it was a great start!MoreShow less</t>
+  </si>
+  <si>
+    <t>My extended family stayed here the night before we were to leave for a cruise out of Houston.  Some flew into Hobby and some drove from out of state.  The shuttle service was quick from Hobby - we called after we had our bags and they were there within 10 minutes.  The hotel was great and the breakfast, which was included, the next morning was GREAT!  Not just cold cereal and doughnuts - we had waffles, scrambled eggs, biscuits and gravy, etc.  We then called a cab to take us to the Bayshore Pier to get on the cruise ship - cost was about $60 for 5 people and the luggage.  The hotel was very clean and there was a good barbeque place "PaPa's" that we all walked to that night - about a 5 minute walk, same side of the street only up about 3 blocks.  I would recommend this place to anyone coming into town to continue on for a cruise vacation - it was a great start!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r329842250-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -1078,6 +1618,44 @@
     <t>Newly remodeled property that meets the expectations of the Marriott chain. Very clean, great staff as I would expect. The Average breakfast fare for this level of property. Cheerios, milk, banana, and yogurt. The usual something eggs and greasy bacon that I respectfully leave for others. I like the location and I also use the Conference room for training. This property is a favorite of mine and I frequently stay here.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r321716884-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>321716884</t>
+  </si>
+  <si>
+    <t>10/25/2015</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t>I was in Houston to visit a friend, and I decided to try this Fairfield Inn.  The staff was extremely friendly, the hotel was exceptionally clean, and the breakfast was wonderful. Would I stay at this hotel again?  Absolutely no question about it!  I was pleasantly surprised.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was in Houston to visit a friend, and I decided to try this Fairfield Inn.  The staff was extremely friendly, the hotel was exceptionally clean, and the breakfast was wonderful. Would I stay at this hotel again?  Absolutely no question about it!  I was pleasantly surprised.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r321109754-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>321109754</t>
+  </si>
+  <si>
+    <t>10/23/2015</t>
+  </si>
+  <si>
+    <t>Just OK</t>
+  </si>
+  <si>
+    <t>This Fairfield is right on the southbound feeder feeder road beside I-10, pretty close to the airport--the first intersection down the road is Airport--take a right and you get to Hobby.  There's also a diagonal street, Mosley, that gets you there a bit faster.  If you head up the feeder road, toward Airport, you pass a Marriott and a Courtyard.
+The Fairfield's room was small and somewhat Spartan, but clean and comfortable.  Plumbing's fine; TV's OK.  The hotel rooms AC-heat units are equipped with obnoxiously loud "dehumidifiers." The staff was friendly and competent. The two issues I had were the parking lot and proximity to the freeway.  The lot is quite narrow--particularly alongside the street.  Only a single line of cars can park there, and parking spaces are quite narrow.  The door of my small convertible got dinged one night.  On another night a quite large SUV's alarm was merrily blaring away; I took the night desk clerk out to show him.  I doubt anyone tried to break into it; I suspect an adjacent car's door was opened and hit it.   Because the parking lot paralleling the road is so very narrow, the hotel building is quite close to the freeway.   By comparison, the nearby Courtyard is also adjacent to the same road and freeway, but it's front parking lot has plenty of room--five rows of cars deep and two driving lanes, each wide enough to permit moving cars to...This Fairfield is right on the southbound feeder feeder road beside I-10, pretty close to the airport--the first intersection down the road is Airport--take a right and you get to Hobby.  There's also a diagonal street, Mosley, that gets you there a bit faster.  If you head up the feeder road, toward Airport, you pass a Marriott and a Courtyard.The Fairfield's room was small and somewhat Spartan, but clean and comfortable.  Plumbing's fine; TV's OK.  The hotel rooms AC-heat units are equipped with obnoxiously loud "dehumidifiers." The staff was friendly and competent. The two issues I had were the parking lot and proximity to the freeway.  The lot is quite narrow--particularly alongside the street.  Only a single line of cars can park there, and parking spaces are quite narrow.  The door of my small convertible got dinged one night.  On another night a quite large SUV's alarm was merrily blaring away; I took the night desk clerk out to show him.  I doubt anyone tried to break into it; I suspect an adjacent car's door was opened and hit it.   Because the parking lot paralleling the road is so very narrow, the hotel building is quite close to the freeway.   By comparison, the nearby Courtyard is also adjacent to the same road and freeway, but it's front parking lot has plenty of room--five rows of cars deep and two driving lanes, each wide enough to permit moving cars to pass each other.  Ergo, the actual building is much further away from the road noise.  I stayed at the Fairfield four nights, and it was OK.  But when I had to extend my stay in Houston for another 7 nights, rather than continue here, I packed up and moved to the Courtyard, which I thought was a bit more expensive, but considerably better value for money.  There's also a Motel 6, on Airline, which I've rated for TA; which I'd rate as quieter and better value for money, even though the Fairfield's lobby and rooms are more attractive.  So, this hotel is OK, not great but not bad, but just OK.  I think you can easily do better in the immediate neighborhood.  Be forewarned, however, that you can also easily do worse--some of the motels around Hobby are dingy and poorly-maintained.  This Fairfield is clean, and everything in the room--shower, TV, AC, lights--works, which is more than can be said for some other low-cost hostelries hereabouts..MoreShow less</t>
+  </si>
+  <si>
+    <t>This Fairfield is right on the southbound feeder feeder road beside I-10, pretty close to the airport--the first intersection down the road is Airport--take a right and you get to Hobby.  There's also a diagonal street, Mosley, that gets you there a bit faster.  If you head up the feeder road, toward Airport, you pass a Marriott and a Courtyard.
+The Fairfield's room was small and somewhat Spartan, but clean and comfortable.  Plumbing's fine; TV's OK.  The hotel rooms AC-heat units are equipped with obnoxiously loud "dehumidifiers." The staff was friendly and competent. The two issues I had were the parking lot and proximity to the freeway.  The lot is quite narrow--particularly alongside the street.  Only a single line of cars can park there, and parking spaces are quite narrow.  The door of my small convertible got dinged one night.  On another night a quite large SUV's alarm was merrily blaring away; I took the night desk clerk out to show him.  I doubt anyone tried to break into it; I suspect an adjacent car's door was opened and hit it.   Because the parking lot paralleling the road is so very narrow, the hotel building is quite close to the freeway.   By comparison, the nearby Courtyard is also adjacent to the same road and freeway, but it's front parking lot has plenty of room--five rows of cars deep and two driving lanes, each wide enough to permit moving cars to...This Fairfield is right on the southbound feeder feeder road beside I-10, pretty close to the airport--the first intersection down the road is Airport--take a right and you get to Hobby.  There's also a diagonal street, Mosley, that gets you there a bit faster.  If you head up the feeder road, toward Airport, you pass a Marriott and a Courtyard.The Fairfield's room was small and somewhat Spartan, but clean and comfortable.  Plumbing's fine; TV's OK.  The hotel rooms AC-heat units are equipped with obnoxiously loud "dehumidifiers." The staff was friendly and competent. The two issues I had were the parking lot and proximity to the freeway.  The lot is quite narrow--particularly alongside the street.  Only a single line of cars can park there, and parking spaces are quite narrow.  The door of my small convertible got dinged one night.  On another night a quite large SUV's alarm was merrily blaring away; I took the night desk clerk out to show him.  I doubt anyone tried to break into it; I suspect an adjacent car's door was opened and hit it.   Because the parking lot paralleling the road is so very narrow, the hotel building is quite close to the freeway.   By comparison, the nearby Courtyard is also adjacent to the same road and freeway, but it's front parking lot has plenty of room--five rows of cars deep and two driving lanes, each wide enough to permit moving cars to pass each other.  Ergo, the actual building is much further away from the road noise.  I stayed at the Fairfield four nights, and it was OK.  But when I had to extend my stay in Houston for another 7 nights, rather than continue here, I packed up and moved to the Courtyard, which I thought was a bit more expensive, but considerably better value for money.  There's also a Motel 6, on Airline, which I've rated for TA; which I'd rate as quieter and better value for money, even though the Fairfield's lobby and rooms are more attractive.  So, this hotel is OK, not great but not bad, but just OK.  I think you can easily do better in the immediate neighborhood.  Be forewarned, however, that you can also easily do worse--some of the motels around Hobby are dingy and poorly-maintained.  This Fairfield is clean, and everything in the room--shower, TV, AC, lights--works, which is more than can be said for some other low-cost hostelries hereabouts..More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r320127701-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -1144,6 +1722,45 @@
     <t>We picked this hotel to stay at during our visits to MD Anderson. We had family staying in one room on the 1st floor and we stayed in a room on the 4th floor. Both rooms were VERY humid and musty or stale smelling. We had to turn the air to 60 to get it to run long enough to get the humidity out but the smell was always there. It wasn't just a hint, it would take your breath away every time we left and came back into it. The room looked clean other than the fact the air was so humid and smelly. I would not stay here again because of this reason.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r313270901-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>313270901</t>
+  </si>
+  <si>
+    <t>09/24/2015</t>
+  </si>
+  <si>
+    <t>Nice Hotel, Room Smelt Awful</t>
+  </si>
+  <si>
+    <t>Seemed to be newly renovated hotel which was nice, furnishings and decor were very nice and the staff was very welcoming.  I opened the door to my room and was overwhelmed by a musty smell, not sure if this was just the room I stayed in or if other rooms have the same problem (could be due to humidity?)  If it didn't have the smell I would have given a 5 rating and likely returned.  Restaurants are around the area if you drive a bit, it's located right off the freeway.  Freeway noise was not an issue at all, could not hear a thing.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Seemed to be newly renovated hotel which was nice, furnishings and decor were very nice and the staff was very welcoming.  I opened the door to my room and was overwhelmed by a musty smell, not sure if this was just the room I stayed in or if other rooms have the same problem (could be due to humidity?)  If it didn't have the smell I would have given a 5 rating and likely returned.  Restaurants are around the area if you drive a bit, it's located right off the freeway.  Freeway noise was not an issue at all, could not hear a thing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r313014856-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>313014856</t>
+  </si>
+  <si>
+    <t>09/23/2015</t>
+  </si>
+  <si>
+    <t>Clean close to airpot</t>
+  </si>
+  <si>
+    <t>We stayed overnight at the Fairfield Inn before going to Glavaston on a cruise.  It is very close to the airport and they have a shuttle service that will pick up at the airport.  You call the hotel and they send someone out.  It was clean, breakfast was typical hotel free breakfast. The women who sets up the breakfast on the weekend was pleasant and helpful.  Staff is friendly and efficient. Hotel is new so it is clean and modern.  I would stay her again if I needed a hotel close to the airport.  Neighborhood is not that safe. Hotel staff discouraged us from walking to Starbucks which was .4 mile away due to homeless in area. We used an Uber.  They showed up in about 2 minutes.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed overnight at the Fairfield Inn before going to Glavaston on a cruise.  It is very close to the airport and they have a shuttle service that will pick up at the airport.  You call the hotel and they send someone out.  It was clean, breakfast was typical hotel free breakfast. The women who sets up the breakfast on the weekend was pleasant and helpful.  Staff is friendly and efficient. Hotel is new so it is clean and modern.  I would stay her again if I needed a hotel close to the airport.  Neighborhood is not that safe. Hotel staff discouraged us from walking to Starbucks which was .4 mile away due to homeless in area. We used an Uber.  They showed up in about 2 minutes.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r303522363-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -1183,9 +1800,6 @@
     <t>August 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>Rachel M, Guest Relations Manager at Fairfield Inn &amp; Suites Houston Hobby Airport, responded to this reviewResponded September 17, 2015</t>
   </si>
   <si>
@@ -1213,13 +1827,58 @@
     <t>The staff is helpful and they even give you a snack bag with water when you check in. The hotel is pretty new and very clean. My only complaints is I don't like the food served at breakfast (not as much variety compared to other hotel chains) and it was loud (right by highway and you can hear people walking in the hallways). I would stay here again. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r287681092-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>287681092</t>
+  </si>
+  <si>
+    <t>07/10/2015</t>
+  </si>
+  <si>
+    <t>Basic Hotel, located right next to freeway</t>
+  </si>
+  <si>
+    <t>Location is a negative as its right next to the freeway. kind of crappy area around it. Hotel also sits under the flight line.  this is a basic hotel. rooms were clean.  no thrills. decent place if the price is cheap.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Rachel M, Guest Relations Manager at Fairfield Inn &amp; Suites Houston Hobby Airport, responded to this reviewResponded July 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2015</t>
+  </si>
+  <si>
+    <t>Location is a negative as its right next to the freeway. kind of crappy area around it. Hotel also sits under the flight line.  this is a basic hotel. rooms were clean.  no thrills. decent place if the price is cheap.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r286197398-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>286197398</t>
+  </si>
+  <si>
+    <t>07/06/2015</t>
+  </si>
+  <si>
+    <t>Satisfied</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel a couple of weeks ago prior to departing for a cruise from the Galveston port.  Overall, we were satisfied with the experience, though I don't think it would be our first choice if we were to return to the area.  We had trouble contacting the hotel when we arrived at the airport, busy signal for 10-15 minutes.  Luckily we had planned ahead so knew where to go for the shuttle and it did show up within 15 minutes even though we never were able to get through on the phone. The hotel desk staff were all very friendly and accommodating.  We had a room with two double beds and the room was quite small for our family of five, no real room to move around.  The beds were small but comfortable and we were not bothered by the traffic noise.  The wifi worked well and the cable selection was very good.  The pool area and workout rooms were small but met our needs.  The breakfast was also fine and the area was kept clean.  The local area is not too great, but we were not there to explore so it didn't really bother us.  If you are just looking for a simple place to stay close to the airport for a short trip, this hotel will probably meet your needs.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel a couple of weeks ago prior to departing for a cruise from the Galveston port.  Overall, we were satisfied with the experience, though I don't think it would be our first choice if we were to return to the area.  We had trouble contacting the hotel when we arrived at the airport, busy signal for 10-15 minutes.  Luckily we had planned ahead so knew where to go for the shuttle and it did show up within 15 minutes even though we never were able to get through on the phone. The hotel desk staff were all very friendly and accommodating.  We had a room with two double beds and the room was quite small for our family of five, no real room to move around.  The beds were small but comfortable and we were not bothered by the traffic noise.  The wifi worked well and the cable selection was very good.  The pool area and workout rooms were small but met our needs.  The breakfast was also fine and the area was kept clean.  The local area is not too great, but we were not there to explore so it didn't really bother us.  If you are just looking for a simple place to stay close to the airport for a short trip, this hotel will probably meet your needs.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r286155340-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
   </si>
   <si>
     <t>286155340</t>
-  </si>
-  <si>
-    <t>07/06/2015</t>
   </si>
   <si>
     <t>Nearly the stay from hell</t>
@@ -1229,9 +1888,6 @@
 We got to the hotel, and guess what it's after 1 am and it's not busy! People at the counter were very nice and got us checked in quickly, but whoever said they were "busy" in that text message must have just been busy sleeping since there were no other guests in sight....After arriving into Hobby at midnight and finally getting our belongings around 12:30 am, the nightmare of a night began. The hotel on this page, their google search and even their own website lists one telephone number that when you call is forwarded to a cellphone. Conveniently, no one felt like answering this number as we tried to arrange for the shuttle.It kept going to a voicemail of a different number that was full. I called no less than 10 times when I finally received the most unprofessional response back... a text message "Sorry, I'm busy. Call back later." I texted them back and said "we're guests trying to get the shuttle to the hotel and we're getting very upset." I continued to call and call and call until I finally called a sister company hotel up the street and asked if they could send a shuttle, because it's now after 1 am and the hotel we're supposed to be at is refusing to answer the phone. They sent their shuttle, but then the correct shuttle showed up after I received another text saying "shuttle is coming."  We got to the hotel, and guess what it's after 1 am and it's not busy! People at the counter were very nice and got us checked in quickly, but whoever said they were "busy" in that text message must have just been busy sleeping since there were no other guests in sight. Our room was clean, but it didn't have enough towels as had been requested (you'd think they'd put enough for the 4 people listed on the reservation, but no); when we went to get more the guy told us we could have some in about an hour (after 2 am they'd be ready). My other complaint other than complete unprofessionalism when it comes to using a telephone is the elevators. We were late to get to our transfer to the cruise port because the hotel only has 1 elevator. Not one elevator for employees and one elevator for guests...one elevator period. The staff would waste all the space bringing up cleaning supplies basically not making it usable to guests. We had 8 pieces of luggage there was no way we were getting them down the stairs. My best advice is to request a low floor or else you'll wait 20 minutes just to get a usable elevator. Overall, I wouldn't go back, but it ended up being ok just to get 4 hours of sleep after the whole fiasco was over. I still just can't figure out why they felt texting me back was more appropriate than answering their phone..MoreShow less</t>
   </si>
   <si>
-    <t>June 2015</t>
-  </si>
-  <si>
     <t>Rachel M, Guest Relations Manager at Fairfield Inn &amp; Suites Houston Hobby Airport, responded to this reviewResponded July 7, 2015</t>
   </si>
   <si>
@@ -1257,15 +1913,6 @@
     <t>I was there for 5 days in May of 2015.  Really nice rooms, great layout, location.  But management and service is missing!  Not only that, but when I reported to the front desk that my refrigerator was warm, the maintenance guy showed up to fix it and the broken door handle to my room, he showed up all right.  And in a timely manner.  He just also availed himself to my laptop computer, snacked on my food in the refrigerator and....wait for it....left the seat up on my toilet after he relieved himself prior to exiting my room!I complained to the front desk, whereupon the earnest and likable front desk manager promised me an investigation.  The investigation resulted in the management offering no apology and also taking the side of the maintenance man stating that he did no such things because, "....he's been here for five years" and it must have been someone else who did those things in my room.  Who else had I given a key?  No one. I counter-complained that IF the hotel had cameras in the hallways like every other decent, honest hotel has these days, there would be on argument about who had been in my room.  So, lessoned learned:  Look up when you are entering a hotel and check the common areas, elevators and hallways for CCTV.  If there is none then think about checking out.MoreShow less</t>
   </si>
   <si>
-    <t>May 2015</t>
-  </si>
-  <si>
-    <t>Rachel M, Guest Relations Manager at Fairfield Inn &amp; Suites Houston Hobby Airport, responded to this reviewResponded July 14, 2015</t>
-  </si>
-  <si>
-    <t>Responded July 14, 2015</t>
-  </si>
-  <si>
     <t>I was there for 5 days in May of 2015.  Really nice rooms, great layout, location.  But management and service is missing!  Not only that, but when I reported to the front desk that my refrigerator was warm, the maintenance guy showed up to fix it and the broken door handle to my room, he showed up all right.  And in a timely manner.  He just also availed himself to my laptop computer, snacked on my food in the refrigerator and....wait for it....left the seat up on my toilet after he relieved himself prior to exiting my room!I complained to the front desk, whereupon the earnest and likable front desk manager promised me an investigation.  The investigation resulted in the management offering no apology and also taking the side of the maintenance man stating that he did no such things because, "....he's been here for five years" and it must have been someone else who did those things in my room.  Who else had I given a key?  No one. I counter-complained that IF the hotel had cameras in the hallways like every other decent, honest hotel has these days, there would be on argument about who had been in my room.  So, lessoned learned:  Look up when you are entering a hotel and check the common areas, elevators and hallways for CCTV.  If there is none then think about checking out.More</t>
   </si>
   <si>
@@ -1287,6 +1934,42 @@
     <t>I am a hilton diamond member who has recently started giving a lot of my business sot Marriott chains.  I was looking forward to my stay at this Fairfield Inn and Suites based on previous reviews. I did an online check in via the App.  Got there, room key was ready and headed upstairs.  But when I got in I noticed the room was not completely ready for my arrival.  I picked up the phone to call the front desk. Phone didn't work. Went out to the elevator, picked up that phone, dead.  Ugh.  Went downstairs, spoke to the very nice gentleman at the desk, who promptly moved me to another room. That room was also very nice. Clean, modern furnishings and finishes.  i liked the room a lot.  But that night I noticed the room not cooling down.  Tried to call front desk, and again phones were dead.  so I just gave up.  I told the girl when I left the hotel the next morning for my meetings to please have someone check the A/C.  She wrote it down.  When I got back about 6 hours later, the hallway was cooler than my room.  I picked up the phone, still dead.  I walked back downstairs, and she said she would send someone up immediately.  He came, fixed the problem, and room finally started to cool down.  Later I am wondering if they were going to come clean my room,...I am a hilton diamond member who has recently started giving a lot of my business sot Marriott chains.  I was looking forward to my stay at this Fairfield Inn and Suites based on previous reviews. I did an online check in via the App.  Got there, room key was ready and headed upstairs.  But when I got in I noticed the room was not completely ready for my arrival.  I picked up the phone to call the front desk. Phone didn't work. Went out to the elevator, picked up that phone, dead.  Ugh.  Went downstairs, spoke to the very nice gentleman at the desk, who promptly moved me to another room. That room was also very nice. Clean, modern furnishings and finishes.  i liked the room a lot.  But that night I noticed the room not cooling down.  Tried to call front desk, and again phones were dead.  so I just gave up.  I told the girl when I left the hotel the next morning for my meetings to please have someone check the A/C.  She wrote it down.  When I got back about 6 hours later, the hallway was cooler than my room.  I picked up the phone, still dead.  I walked back downstairs, and she said she would send someone up immediately.  He came, fixed the problem, and room finally started to cool down.  Later I am wondering if they were going to come clean my room, make the bed, replace the towels, etc.  I waited, even asked the desk clerk who informed me they were running behind but yes, they would be there.  Finally around 8 PM when I was leaving to go to the gym I mentioned it to him again, and he basically said, "Sorry, no.  I can come empty your trash if you need me to, and I can get you a set of towels "   Not this to me is absurd.  For what guests pay to rent a room, the least we can have is maid service.  I want my bed made, my towels replaced, my room cleaned.  Apparently they had just fired almost their entire housekeeping staff or something, but I was just very disappointed.  The next morning upon check out the girl asked me how was my stay and I said " ya'll had some problems"  and I grabbed a managers card to contact him later.  A gentleman came out from the office and I explained everything mentioned above. He offered to get me an additional 10k points, and a free night at one of their properties.  Sadly, as of today,  there are no extra points in my account, and I have no idea how he plans on getting me this free night.   I hope they do try to make this right.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r283607350-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>283607350</t>
+  </si>
+  <si>
+    <t>06/28/2015</t>
+  </si>
+  <si>
+    <t>Very Accommodating!</t>
+  </si>
+  <si>
+    <t>I recently stayed here when I was in town for a business meeting, and this hotel has the same quality I've come to know and expect from Marriot properties. Everything from the breakfast and coffee in the mornings, to the accommodating staff. The manager, Marcus, was very helpful and took care of the requests during my stay at Fairfield. I will be back to this hotel for my next stay while in Houston!MoreShow less</t>
+  </si>
+  <si>
+    <t>I recently stayed here when I was in town for a business meeting, and this hotel has the same quality I've come to know and expect from Marriot properties. Everything from the breakfast and coffee in the mornings, to the accommodating staff. The manager, Marcus, was very helpful and took care of the requests during my stay at Fairfield. I will be back to this hotel for my next stay while in Houston!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r283239795-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>283239795</t>
+  </si>
+  <si>
+    <t>06/26/2015</t>
+  </si>
+  <si>
+    <t>Very nice stay</t>
+  </si>
+  <si>
+    <t>I really liked this place for my family and friends. We had a quick trip for a few days and this hotel was very close to the airport and very convenient to the rest of Houston. We had a great experience here.The rooms were very nice and clean and the staff was extremely pleasant. I would recommend this hotel to anyone of my friends and family in the future.MoreShow less</t>
+  </si>
+  <si>
+    <t>I really liked this place for my family and friends. We had a quick trip for a few days and this hotel was very close to the airport and very convenient to the rest of Houston. We had a great experience here.The rooms were very nice and clean and the staff was extremely pleasant. I would recommend this hotel to anyone of my friends and family in the future.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r282485564-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -1345,6 +2028,42 @@
   </si>
   <si>
     <t>This hotel was great; seemed like it was a fairly new hotel. Everyone on staff was very nice and the shuttle service was most convenient getting around. The location was also not bad and perfect to stay at.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r281455734-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>281455734</t>
+  </si>
+  <si>
+    <t>06/19/2015</t>
+  </si>
+  <si>
+    <t>Great hotel!</t>
+  </si>
+  <si>
+    <t>Had a business meeting in Houston. Booked a room here based on a friend's recommendation. I was very impressed. I have not stayed at a Fairfield before, but I was concerned that it would be just okay. I was wrong. From the moment I checked in I realized how wrong I was. The staff was very professional and nice. The hot breakfast and free wi-fi were a great bonus too!The rooms were clean and well maintained. Next time I am in Houston, I will stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>Had a business meeting in Houston. Booked a room here based on a friend's recommendation. I was very impressed. I have not stayed at a Fairfield before, but I was concerned that it would be just okay. I was wrong. From the moment I checked in I realized how wrong I was. The staff was very professional and nice. The hot breakfast and free wi-fi were a great bonus too!The rooms were clean and well maintained. Next time I am in Houston, I will stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r280394910-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>280394910</t>
+  </si>
+  <si>
+    <t>06/15/2015</t>
+  </si>
+  <si>
+    <t>Safe atmosphere</t>
+  </si>
+  <si>
+    <t>The hotel lobby was very nice, the room was clean and spacious, service was friendly, the area seemed to be safe overall, and it was handy to the Hobby Airport plus trip into Houston. Many places to eat nearby, even late dining.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel lobby was very nice, the room was clean and spacious, service was friendly, the area seemed to be safe overall, and it was handy to the Hobby Airport plus trip into Houston. Many places to eat nearby, even late dining.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r278514964-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
@@ -1421,6 +2140,57 @@
 Funny, how he didn't bother to mention this when I was checking in. So, I told him that I needed a double bed room, or he needs to give me another room. He then tells me that he can't give me another room unless I pay for another room. So I refused to settle. There was no way two adults could sleep on a pullout sofa, and it's not what I signed up for. He tells me it's Expedia's fault for not updating their website on availability and walked away. I called Expedia right away, and told the agent the situation. She had her supervisor call the hotel while...Our flight out of Houston got cancelled due to a severe t-storm, so we had to find a place to stay last minute. I'd quickly looked up Expedia, and booked a double queen bedroom for the 4 of us. When we got to the hotel to check-in, it was already 11pm. We were tired and eager to get some rest. The man that checked us in didn't say much, and quickly gave us key cards for our room. However, when we got to the room, there was only one king bed. We all had to go back to the lobby. I went up to the guy that checked us in to tell him that we got the wrong room. He then informs me that they were out of double queen rooms. Funny, how he didn't bother to mention this when I was checking in. So, I told him that I needed a double bed room, or he needs to give me another room. He then tells me that he can't give me another room unless I pay for another room. So I refused to settle. There was no way two adults could sleep on a pullout sofa, and it's not what I signed up for. He tells me it's Expedia's fault for not updating their website on availability and walked away. I called Expedia right away, and told the agent the situation. She had her supervisor call the hotel while I was put on hold. Miraculously, after about 15 minutes later, the guy comes back and tells me that he found us a double room after all. He says the maids didn't accurately update their system to reflect what was actually available. How shady is that excuse, and what hospitality. Never again. Not worth the hassle. Didn't get to sleep until 1am. They don't deserve my time or money.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r272709955-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>272709955</t>
+  </si>
+  <si>
+    <t>05/18/2015</t>
+  </si>
+  <si>
+    <t>This was my worst experience ever!</t>
+  </si>
+  <si>
+    <t>I booked a king room but once I got there I was given a two queen bed room. I went back down to inform them they nicely upgraded me to a suite. Don't get to happy just yet the suite is no different from any other room other than an out dated couch and some cheap trays. The breakfast was horrible. The second day I requested additional towels the guy at the front desk told us the hotel wassold out and they had just enough towels and he would see what he could do. After waiting about 2 hours my husband noticed a housekeeper outside the room attempted to hand her the towels she didn't take them she said "No, we dont have any towel" so we had to put the towels outside the door and go downstairs and tell them again but this time I wasn't nice and magical I have towels. I would never stay there again. Omg I figured out I'm a Hilton woman Marriott is not for me at allMoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel M, Guest Relations Manager at Fairfield Inn &amp; Suites Houston Hobby Airport, responded to this reviewResponded May 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2015</t>
+  </si>
+  <si>
+    <t>I booked a king room but once I got there I was given a two queen bed room. I went back down to inform them they nicely upgraded me to a suite. Don't get to happy just yet the suite is no different from any other room other than an out dated couch and some cheap trays. The breakfast was horrible. The second day I requested additional towels the guy at the front desk told us the hotel wassold out and they had just enough towels and he would see what he could do. After waiting about 2 hours my husband noticed a housekeeper outside the room attempted to hand her the towels she didn't take them she said "No, we dont have any towel" so we had to put the towels outside the door and go downstairs and tell them again but this time I wasn't nice and magical I have towels. I would never stay there again. Omg I figured out I'm a Hilton woman Marriott is not for me at allMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r268962470-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>268962470</t>
+  </si>
+  <si>
+    <t>04/29/2015</t>
+  </si>
+  <si>
+    <t>airport easy</t>
+  </si>
+  <si>
+    <t>Nice staff. Went out of the way to make my stay nice .Great location for easy access to Houston Hobby Airport. The hotel next to Fairfield has a nice restaurant and lil more the fair drinks. That's  all i have say.        MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Rachel M, Guest Relations Manager at Fairfield Inn &amp; Suites Houston Hobby Airport, responded to this reviewResponded May 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 1, 2015</t>
+  </si>
+  <si>
+    <t>Nice staff. Went out of the way to make my stay nice .Great location for easy access to Houston Hobby Airport. The hotel next to Fairfield has a nice restaurant and lil more the fair drinks. That's  all i have say.        More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r267552970-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -1436,9 +2206,6 @@
     <t>1st let me state that I own my company and we, as a company, stay in Marriott properties all over the US and Canada. At check out, we were charged for 3 rooms at $159 and 1 room at $179. All 4 rooms (just alike) were supposed to be at $159. Two nights, a $20 credit per night, should be no big deal right? Wrong.  The person behind the counter stated that one room was upgraded (all of the rooms were the same) and that the $20 additional was for that upgrade. We asked that he just make the adjustment so that we could go on our way. He would not. We asked for the Manager and he told us that we were looking at him. He was the General Manager.  This was terrible Customer Service.  It was not the $20, it was his rudeness and lack of customer service to assist us in any way. We would not recommend this hotel to anyone, period.MoreShow less</t>
   </si>
   <si>
-    <t>April 2015</t>
-  </si>
-  <si>
     <t>Rachel M, Guest Relations Manager at Fairfield Inn &amp; Suites Houston Hobby Airport, responded to this reviewResponded April 27, 2015</t>
   </si>
   <si>
@@ -1493,6 +2260,57 @@
     <t>We reserved a room through Booking.com. The telephone for the hotel was incorrect and we ended up getting a shuttle to a Fairfield Inn but at the wrong location. We were given the run around by both Booking.com and Fairfield Inn Hobby Airport. Zero customer service. I have to get my credit card company involved to dispute the charges. No one wanted to take responsibility for having an incorrect phone number listed. We felt Booking.com should have refunded our money - it was their website and confirmation page that we got the information from. And, the Fairfield Inn at Hobby Airport manager was uncaring, never apologized for our travel misfortunes, never offered any kind of refund or discount on a future stay. They DON"T CARE!!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r258681463-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>258681463</t>
+  </si>
+  <si>
+    <t>03/09/2015</t>
+  </si>
+  <si>
+    <t>Excellent Service and very close to the airport</t>
+  </si>
+  <si>
+    <t>We chose this hotel because we needed low cost, close to the airport, and a shuttle to and from the airport.  The Fairfield was all of that and much more. When we found out that our cruise departure was delayed as we were checking out, they graciously allowed us to remain in our room until we could go to the ship.  The staff was wonderful!  The shuttle drivers were very efficient and courteous.  The room was clean and well appointed.  Free breakfast was a bonus.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Rachel M, Guest Relations Manager at Fairfield Inn &amp; Suites Houston Hobby Airport, responded to this reviewResponded March 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 16, 2015</t>
+  </si>
+  <si>
+    <t>We chose this hotel because we needed low cost, close to the airport, and a shuttle to and from the airport.  The Fairfield was all of that and much more. When we found out that our cruise departure was delayed as we were checking out, they graciously allowed us to remain in our room until we could go to the ship.  The staff was wonderful!  The shuttle drivers were very efficient and courteous.  The room was clean and well appointed.  Free breakfast was a bonus.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r256579076-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>256579076</t>
+  </si>
+  <si>
+    <t>02/26/2015</t>
+  </si>
+  <si>
+    <t>Good hotel &amp; close to the airport</t>
+  </si>
+  <si>
+    <t>I would have to say that this hotel is just average, as my recent stay was on a Monday night. I know that Monday's are busy, yet I still expect the hotel to be clean as I am checking in, walking around, and of course my room. There were cookie crumbs all over the lobby floor, crumbs in the elevator, and my room was just acceptable. While modern, the guest room was not as clean as I expect from a Marriott property. The breakfast was below my expectations, breakfast appeared to run out of food items. The eggs appeared to be very watery and the bacon was not cooked all the way. Finally the coffee was not as available upon arrival or at all during 845- 915 that morning.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel M, Guest Relations Manager at Fairfield Inn &amp; Suites Houston Hobby Airport, responded to this reviewResponded February 28, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 28, 2015</t>
+  </si>
+  <si>
+    <t>I would have to say that this hotel is just average, as my recent stay was on a Monday night. I know that Monday's are busy, yet I still expect the hotel to be clean as I am checking in, walking around, and of course my room. There were cookie crumbs all over the lobby floor, crumbs in the elevator, and my room was just acceptable. While modern, the guest room was not as clean as I expect from a Marriott property. The breakfast was below my expectations, breakfast appeared to run out of food items. The eggs appeared to be very watery and the bacon was not cooked all the way. Finally the coffee was not as available upon arrival or at all during 845- 915 that morning.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r256427604-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -1508,12 +2326,6 @@
     <t>We we impressed with the rooms, beds and staff. Accommodations were nicer than I expected - very contemporary decor. Staff was great- we had lost all our luggage and were headed to a cruise. The shuttle staff took us to the local walmart so that we could purchase some basics. They really helped make a stressful situation - more bearable. Definitely went out of their way.MoreShow less</t>
   </si>
   <si>
-    <t>Rachel M, Guest Relations Manager at Fairfield Inn &amp; Suites Houston Hobby Airport, responded to this reviewResponded February 28, 2015</t>
-  </si>
-  <si>
-    <t>Responded February 28, 2015</t>
-  </si>
-  <si>
     <t>We we impressed with the rooms, beds and staff. Accommodations were nicer than I expected - very contemporary decor. Staff was great- we had lost all our luggage and were headed to a cruise. The shuttle staff took us to the local walmart so that we could purchase some basics. They really helped make a stressful situation - more bearable. Definitely went out of their way.More</t>
   </si>
   <si>
@@ -1562,6 +2374,54 @@
     <t>We are always looking for a nice place in the Hobby area to stay.  It is always hit and miss.  This place was formerly another hotel and was remodeled and renamed so we thought we would give it a try.  Well, the beds were comfy, but the rooms were small.  This is not a big issue, but the noise from I-45 was an issue.  We might as well have been on 45.  The windows need to be resealed and some sort of sound proofing.  They also only have 1 entrance, which is ok unless you come in really late and have to walk around the hotel to get in.  They do have security onsite at night though, so that is reassuring.  It is a nice place, but we probably will not be back here unless other places are booked.  Need my sleep!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r251361972-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>251361972</t>
+  </si>
+  <si>
+    <t>01/27/2015</t>
+  </si>
+  <si>
+    <t>Clean room, nice lobby and great staff</t>
+  </si>
+  <si>
+    <t>They do a nice job here making you feel like you are getting good value for what you are paying.  The place was in great shape and the staff went out of their way to be friendly.  The expercise room equipment was in good shape and working order.  Nice job Marriott!MoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel M, Guest Relations Manager at Fairfield Inn &amp; Suites Houston Hobby Airport, responded to this reviewResponded February 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 4, 2015</t>
+  </si>
+  <si>
+    <t>They do a nice job here making you feel like you are getting good value for what you are paying.  The place was in great shape and the staff went out of their way to be friendly.  The expercise room equipment was in good shape and working order.  Nice job Marriott!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r247054257-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>247054257</t>
+  </si>
+  <si>
+    <t>01/02/2015</t>
+  </si>
+  <si>
+    <t>Good Customer Service But Noisy</t>
+  </si>
+  <si>
+    <t>My family and I stayed at this hotel December 29-30, 2014.  The hotel website says it's "new" although other sites say it used to be something else.  We had reserved a room with 2 queen beds.  However, when we checked in at 2:45pm (check in is at 3pm) there were no queen rooms available.  The gentleman behind the counter upgraded our room to a king suite for no extra charge.  The room was nice and the bed was comfortable.  The pull out sofa is what my boys slept on and they didn't have any complaints about that.  The room had 2 TV's, a microwave, a mini-fridge, and plenty of room for the 4 of us.  We also requested a late check out and they were very accommodating and let us do that as well.  I have no complaints about the staff at the hotel or the accommodations...the only drawback to this hotel is that it is not well insulated from outside noises.  It's right off the highway and near the airport.  While the airplane noise wasn't too bad....the noise from traffic on the highway was a bit unbearable.  You don't really notice it during the day...but at night when everything is quiet and you're trying to sleep.....ug.  There was NEVER a lull in the traffic either!  I kept wondering where all the people were going at 2am, 3am, 4am...it was just nonstop road noise all night long.  I would just...My family and I stayed at this hotel December 29-30, 2014.  The hotel website says it's "new" although other sites say it used to be something else.  We had reserved a room with 2 queen beds.  However, when we checked in at 2:45pm (check in is at 3pm) there were no queen rooms available.  The gentleman behind the counter upgraded our room to a king suite for no extra charge.  The room was nice and the bed was comfortable.  The pull out sofa is what my boys slept on and they didn't have any complaints about that.  The room had 2 TV's, a microwave, a mini-fridge, and plenty of room for the 4 of us.  We also requested a late check out and they were very accommodating and let us do that as well.  I have no complaints about the staff at the hotel or the accommodations...the only drawback to this hotel is that it is not well insulated from outside noises.  It's right off the highway and near the airport.  While the airplane noise wasn't too bad....the noise from traffic on the highway was a bit unbearable.  You don't really notice it during the day...but at night when everything is quiet and you're trying to sleep.....ug.  There was NEVER a lull in the traffic either!  I kept wondering where all the people were going at 2am, 3am, 4am...it was just nonstop road noise all night long.  I would just suggest packing some earplugs if you stay at this hotel.  That is the only thing I would caution visitors about this hotel.  Otherwise it is a lovely place with lovely staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>Rachel M, Guest Relations Manager at Fairfield Inn &amp; Suites Houston Hobby Airport, responded to this reviewResponded January 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 6, 2015</t>
+  </si>
+  <si>
+    <t>My family and I stayed at this hotel December 29-30, 2014.  The hotel website says it's "new" although other sites say it used to be something else.  We had reserved a room with 2 queen beds.  However, when we checked in at 2:45pm (check in is at 3pm) there were no queen rooms available.  The gentleman behind the counter upgraded our room to a king suite for no extra charge.  The room was nice and the bed was comfortable.  The pull out sofa is what my boys slept on and they didn't have any complaints about that.  The room had 2 TV's, a microwave, a mini-fridge, and plenty of room for the 4 of us.  We also requested a late check out and they were very accommodating and let us do that as well.  I have no complaints about the staff at the hotel or the accommodations...the only drawback to this hotel is that it is not well insulated from outside noises.  It's right off the highway and near the airport.  While the airplane noise wasn't too bad....the noise from traffic on the highway was a bit unbearable.  You don't really notice it during the day...but at night when everything is quiet and you're trying to sleep.....ug.  There was NEVER a lull in the traffic either!  I kept wondering where all the people were going at 2am, 3am, 4am...it was just nonstop road noise all night long.  I would just...My family and I stayed at this hotel December 29-30, 2014.  The hotel website says it's "new" although other sites say it used to be something else.  We had reserved a room with 2 queen beds.  However, when we checked in at 2:45pm (check in is at 3pm) there were no queen rooms available.  The gentleman behind the counter upgraded our room to a king suite for no extra charge.  The room was nice and the bed was comfortable.  The pull out sofa is what my boys slept on and they didn't have any complaints about that.  The room had 2 TV's, a microwave, a mini-fridge, and plenty of room for the 4 of us.  We also requested a late check out and they were very accommodating and let us do that as well.  I have no complaints about the staff at the hotel or the accommodations...the only drawback to this hotel is that it is not well insulated from outside noises.  It's right off the highway and near the airport.  While the airplane noise wasn't too bad....the noise from traffic on the highway was a bit unbearable.  You don't really notice it during the day...but at night when everything is quiet and you're trying to sleep.....ug.  There was NEVER a lull in the traffic either!  I kept wondering where all the people were going at 2am, 3am, 4am...it was just nonstop road noise all night long.  I would just suggest packing some earplugs if you stay at this hotel.  That is the only thing I would caution visitors about this hotel.  Otherwise it is a lovely place with lovely staff.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d292556-r246741900-Fairfield_Inn_Suites_Houston_Hobby_Airport-Houston_Texas.html</t>
   </si>
   <si>
@@ -1575,12 +2435,6 @@
   </si>
   <si>
     <t>Beds are like heaven. I have a bad back and really struggle normally on hotel beds. These beds are great. The service is excellent. We have 3 kids and they upgraded us to a larger room with a king, pull out couch and a roll away bed at no extra fee. Breakfast is also very good for the price paid.MoreShow less</t>
-  </si>
-  <si>
-    <t>Rachel M, Guest Relations Manager at Fairfield Inn &amp; Suites Houston Hobby Airport, responded to this reviewResponded January 6, 2015</t>
-  </si>
-  <si>
-    <t>Responded January 6, 2015</t>
   </si>
   <si>
     <t>Beds are like heaven. I have a bad back and really struggle normally on hotel beds. These beds are great. The service is excellent. We have 3 kids and they upgraded us to a larger room with a king, pull out couch and a roll away bed at no extra fee. Breakfast is also very good for the price paid.More</t>
@@ -2145,7 +2999,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -2153,12 +3007,16 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="s"/>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -2212,7 +3070,7 @@
         <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2223,14 +3081,10 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>62</v>
-      </c>
-      <c r="X3" t="s">
-        <v>63</v>
-      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -2246,56 +3100,52 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
         <v>65</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>66</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>67</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
         <v>68</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" t="s">
         <v>69</v>
       </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>52</v>
-      </c>
-      <c r="O4" t="s">
-        <v>70</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
+      <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>3</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
         <v>71</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>72</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="5">
@@ -2311,34 +3161,34 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
         <v>74</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>75</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>76</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>77</v>
-      </c>
-      <c r="L5" t="s">
-        <v>78</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2350,13 +3200,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
+        <v>79</v>
+      </c>
+      <c r="X5" t="s">
         <v>80</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>81</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="6">
@@ -2372,56 +3222,52 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
         <v>83</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>84</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>85</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>86</v>
       </c>
-      <c r="L6" t="s">
-        <v>87</v>
-      </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="O6" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
-      <c r="R6" t="n">
-        <v>5</v>
-      </c>
+      <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>5</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="X6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="Y6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
@@ -2437,46 +3283,54 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" t="s">
         <v>93</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>94</v>
       </c>
-      <c r="J7" t="s">
-        <v>95</v>
-      </c>
-      <c r="K7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L7" t="s">
-        <v>97</v>
-      </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P7" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
+      <c r="W7" t="s">
+        <v>95</v>
+      </c>
+      <c r="X7" t="s">
+        <v>96</v>
+      </c>
       <c r="Y7" t="s">
         <v>97</v>
       </c>
@@ -2515,10 +3369,10 @@
         <v>102</v>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="O8" t="s">
         <v>53</v>
@@ -2533,13 +3387,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="X8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Y8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9">
@@ -2555,7 +3409,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2564,30 +3418,30 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
       <c r="R9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -2599,10 +3453,14 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s"/>
-      <c r="X9" t="s"/>
+      <c r="W9" t="s">
+        <v>112</v>
+      </c>
+      <c r="X9" t="s">
+        <v>113</v>
+      </c>
       <c r="Y9" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10">
@@ -2618,7 +3476,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2627,43 +3485,43 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="J10" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="O10" t="s">
-        <v>70</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>112</v>
+      </c>
+      <c r="X10" t="s">
+        <v>113</v>
+      </c>
       <c r="Y10" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11">
@@ -2679,7 +3537,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2688,25 +3546,25 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K11" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="L11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="O11" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2715,18 +3573,20 @@
       </c>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="X11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Y11" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12">
@@ -2742,7 +3602,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2751,25 +3611,25 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="J12" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K12" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="L12" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="O12" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2780,12 +3640,8 @@
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>131</v>
-      </c>
-      <c r="X12" t="s">
-        <v>132</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
         <v>133</v>
       </c>
@@ -2815,40 +3671,40 @@
         <v>135</v>
       </c>
       <c r="J13" t="s">
+        <v>131</v>
+      </c>
+      <c r="K13" t="s">
         <v>136</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>137</v>
       </c>
-      <c r="L13" t="s">
-        <v>138</v>
-      </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
-        <v>140</v>
-      </c>
-      <c r="X13" t="s">
-        <v>141</v>
-      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
@@ -2864,34 +3720,34 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>140</v>
+      </c>
+      <c r="J14" t="s">
+        <v>141</v>
+      </c>
+      <c r="K14" t="s">
+        <v>142</v>
+      </c>
+      <c r="L14" t="s">
         <v>143</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
-        <v>144</v>
-      </c>
-      <c r="J14" t="s">
-        <v>145</v>
-      </c>
-      <c r="K14" t="s">
-        <v>146</v>
-      </c>
-      <c r="L14" t="s">
-        <v>147</v>
-      </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="O14" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2902,14 +3758,10 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>148</v>
-      </c>
-      <c r="X14" t="s">
-        <v>149</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15">
@@ -2925,7 +3777,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2934,25 +3786,25 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="J15" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="K15" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="L15" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="O15" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2964,13 +3816,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="X15" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y15" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16">
@@ -2986,7 +3838,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2995,39 +3847,45 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="J16" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="K16" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="L16" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17">
@@ -3043,7 +3901,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -3052,39 +3910,43 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="J17" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="K17" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="L17" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
-      </c>
-      <c r="P17" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18">
@@ -3100,7 +3962,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -3109,49 +3971,43 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="J18" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="K18" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="L18" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="O18" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="P18" t="s"/>
-      <c r="Q18" t="n">
-        <v>3</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>3</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="X18" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="Y18" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19">
@@ -3167,7 +4023,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -3176,49 +4032,49 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="J19" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="K19" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L19" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="P19" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q19" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
       <c r="R19" t="s"/>
-      <c r="S19" t="n">
-        <v>3</v>
-      </c>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="X19" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="Y19" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20">
@@ -3234,7 +4090,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -3243,49 +4099,45 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="J20" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K20" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="L20" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="O20" t="s">
-        <v>70</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
       <c r="R20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>1</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="X20" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="Y20" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21">
@@ -3301,7 +4153,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -3310,22 +4162,22 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="J21" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="K21" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="L21" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="O21" t="s">
         <v>53</v>
@@ -3339,10 +4191,14 @@
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>189</v>
+      </c>
+      <c r="X21" t="s">
+        <v>190</v>
+      </c>
       <c r="Y21" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22">
@@ -3358,7 +4214,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3367,25 +4223,25 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="J22" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="K22" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="L22" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3396,10 +4252,14 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>198</v>
+      </c>
+      <c r="X22" t="s">
+        <v>199</v>
+      </c>
       <c r="Y22" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23">
@@ -3415,7 +4275,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3424,43 +4284,43 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="J23" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="K23" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="L23" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P23" t="s"/>
-      <c r="Q23" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>5</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>206</v>
+      </c>
+      <c r="X23" t="s">
+        <v>207</v>
+      </c>
       <c r="Y23" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24">
@@ -3476,50 +4336,54 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
+        <v>209</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>210</v>
+      </c>
+      <c r="J24" t="s">
+        <v>211</v>
+      </c>
+      <c r="K24" t="s">
+        <v>212</v>
+      </c>
+      <c r="L24" t="s">
         <v>213</v>
       </c>
-      <c r="G24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
         <v>214</v>
       </c>
-      <c r="J24" t="s">
-        <v>215</v>
-      </c>
-      <c r="K24" t="s">
-        <v>216</v>
-      </c>
-      <c r="L24" t="s">
-        <v>217</v>
-      </c>
-      <c r="M24" t="n">
-        <v>5</v>
-      </c>
-      <c r="N24" t="s">
-        <v>218</v>
-      </c>
       <c r="O24" t="s">
-        <v>219</v>
+        <v>69</v>
       </c>
       <c r="P24" t="s"/>
-      <c r="Q24" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
-      <c r="S24" t="s"/>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>215</v>
+      </c>
+      <c r="X24" t="s">
+        <v>216</v>
+      </c>
       <c r="Y24" t="s">
         <v>217</v>
       </c>
@@ -3537,58 +4401,52 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
+        <v>218</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>219</v>
+      </c>
+      <c r="J25" t="s">
         <v>220</v>
       </c>
-      <c r="G25" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="K25" t="s">
         <v>221</v>
       </c>
-      <c r="J25" t="s">
+      <c r="L25" t="s">
         <v>222</v>
       </c>
-      <c r="K25" t="s">
-        <v>223</v>
-      </c>
-      <c r="L25" t="s">
-        <v>224</v>
-      </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>218</v>
+        <v>197</v>
       </c>
       <c r="O25" t="s">
         <v>53</v>
       </c>
-      <c r="P25" t="n">
-        <v>3</v>
-      </c>
+      <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
-      <c r="S25" t="n">
-        <v>3</v>
-      </c>
+      <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>3</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
+        <v>223</v>
+      </c>
+      <c r="X25" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y25" t="s">
         <v>225</v>
-      </c>
-      <c r="X25" t="s">
-        <v>226</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="26">
@@ -3604,52 +4462,50 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
+        <v>226</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>227</v>
+      </c>
+      <c r="J26" t="s">
         <v>228</v>
       </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="K26" t="s">
         <v>229</v>
       </c>
-      <c r="J26" t="s">
+      <c r="L26" t="s">
         <v>230</v>
-      </c>
-      <c r="K26" t="s">
-        <v>231</v>
-      </c>
-      <c r="L26" t="s">
-        <v>232</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="O26" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
-      <c r="R26" t="n">
-        <v>3</v>
-      </c>
-      <c r="S26" t="n">
-        <v>4</v>
-      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>4</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
+      <c r="W26" t="s">
+        <v>223</v>
+      </c>
+      <c r="X26" t="s">
+        <v>224</v>
+      </c>
       <c r="Y26" t="s">
         <v>232</v>
       </c>
@@ -3667,52 +4523,48 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
+        <v>233</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
         <v>234</v>
       </c>
-      <c r="G27" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>235</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>236</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>237</v>
-      </c>
-      <c r="L27" t="s">
-        <v>238</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
-      <c r="R27" t="n">
-        <v>4</v>
-      </c>
+      <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="n">
-        <v>4</v>
-      </c>
+      <c r="U27" t="s"/>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28">
@@ -3728,34 +4580,34 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
+        <v>240</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
         <v>241</v>
       </c>
-      <c r="G28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" t="s">
-        <v>47</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>242</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>243</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>244</v>
       </c>
-      <c r="L28" t="s">
-        <v>245</v>
-      </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3809,21 +4661,17 @@
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="O29" t="s">
-        <v>219</v>
-      </c>
-      <c r="P29" t="n">
-        <v>5</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
       <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>5</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
@@ -3846,34 +4694,34 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
+        <v>251</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
         <v>252</v>
       </c>
-      <c r="G30" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" t="s">
-        <v>47</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>253</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>254</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>255</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
         <v>256</v>
       </c>
-      <c r="M30" t="n">
-        <v>3</v>
-      </c>
-      <c r="N30" t="s">
-        <v>257</v>
-      </c>
       <c r="O30" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3887,7 +4735,7 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31">
@@ -3903,48 +4751,58 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
+        <v>257</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
         <v>258</v>
       </c>
-      <c r="G31" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>259</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>260</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>261</v>
       </c>
-      <c r="L31" t="s">
-        <v>262</v>
-      </c>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P31" t="s"/>
-      <c r="Q31" t="s"/>
-      <c r="R31" t="s"/>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2</v>
+      </c>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>262</v>
+      </c>
+      <c r="X31" t="s">
+        <v>263</v>
+      </c>
       <c r="Y31" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
     </row>
     <row r="32">
@@ -3960,7 +4818,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3969,45 +4827,49 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="J32" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K32" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L32" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q32" t="s"/>
-      <c r="R32" t="n">
-        <v>5</v>
-      </c>
-      <c r="S32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
+      <c r="W32" t="s">
+        <v>271</v>
+      </c>
+      <c r="X32" t="s">
+        <v>272</v>
+      </c>
       <c r="Y32" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="33">
@@ -4023,7 +4885,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -4032,45 +4894,49 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
+        <v>275</v>
+      </c>
+      <c r="J33" t="s">
+        <v>276</v>
+      </c>
+      <c r="K33" t="s">
+        <v>277</v>
+      </c>
+      <c r="L33" t="s">
+        <v>278</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
         <v>270</v>
       </c>
-      <c r="J33" t="s">
-        <v>271</v>
-      </c>
-      <c r="K33" t="s">
-        <v>272</v>
-      </c>
-      <c r="L33" t="s">
-        <v>273</v>
-      </c>
-      <c r="M33" t="n">
+      <c r="O33" t="s">
+        <v>69</v>
+      </c>
+      <c r="P33" t="n">
         <v>4</v>
       </c>
-      <c r="N33" t="s">
-        <v>268</v>
-      </c>
-      <c r="O33" t="s">
-        <v>219</v>
-      </c>
-      <c r="P33" t="s"/>
-      <c r="Q33" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q33" t="s"/>
       <c r="R33" t="s"/>
       <c r="S33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s"/>
-      <c r="X33" t="s"/>
+      <c r="W33" t="s">
+        <v>279</v>
+      </c>
+      <c r="X33" t="s">
+        <v>280</v>
+      </c>
       <c r="Y33" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34">
@@ -4086,7 +4952,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -4095,25 +4961,25 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="J34" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="K34" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="L34" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="M34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>268</v>
+        <v>287</v>
       </c>
       <c r="O34" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4127,7 +4993,7 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
     </row>
     <row r="35">
@@ -4143,7 +5009,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -4152,39 +5018,49 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="J35" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="K35" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="L35" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="O35" t="s">
-        <v>219</v>
-      </c>
-      <c r="P35" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2</v>
+      </c>
       <c r="Q35" t="s"/>
-      <c r="R35" t="s"/>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
       <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s"/>
-      <c r="X35" t="s"/>
+      <c r="W35" t="s">
+        <v>293</v>
+      </c>
+      <c r="X35" t="s">
+        <v>294</v>
+      </c>
       <c r="Y35" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
     </row>
     <row r="36">
@@ -4200,7 +5076,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4209,45 +5085,39 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="J36" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="K36" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="L36" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
-      </c>
-      <c r="P36" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>4</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
       <c r="R36" t="s"/>
       <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>4</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37">
@@ -4263,7 +5133,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4272,25 +5142,25 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="J37" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="K37" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="L37" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="O37" t="s">
-        <v>219</v>
+        <v>62</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4304,7 +5174,7 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
     </row>
     <row r="38">
@@ -4320,7 +5190,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4329,39 +5199,45 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="J38" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="K38" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="L38" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
-      </c>
-      <c r="P38" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
       <c r="Q38" t="s"/>
       <c r="R38" t="s"/>
-      <c r="S38" t="s"/>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
       <c r="T38" t="s"/>
-      <c r="U38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
     </row>
     <row r="39">
@@ -4377,7 +5253,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4386,37 +5262,37 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="J39" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="K39" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="L39" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>287</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
         <v>4</v>
       </c>
-      <c r="N39" t="s">
-        <v>310</v>
-      </c>
-      <c r="O39" t="s">
-        <v>89</v>
-      </c>
-      <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
-      <c r="R39" t="n">
-        <v>5</v>
-      </c>
+      <c r="R39" t="s"/>
       <c r="S39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -4424,7 +5300,7 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="40">
@@ -4440,7 +5316,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4449,39 +5325,43 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="J40" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="K40" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="L40" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="M40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="O40" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="P40" t="s"/>
-      <c r="Q40" t="s"/>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
       <c r="R40" t="s"/>
       <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="41">
@@ -4497,7 +5377,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4506,47 +5386,41 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="J41" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="K41" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="L41" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="M41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="O41" t="s">
-        <v>89</v>
-      </c>
-      <c r="P41" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q41" t="s"/>
-      <c r="R41" t="n">
-        <v>3</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="s"/>
       <c r="S41" t="s"/>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s">
-        <v>324</v>
-      </c>
-      <c r="X41" t="s">
-        <v>325</v>
-      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
       <c r="Y41" t="s">
         <v>326</v>
       </c>
@@ -4564,58 +5438,58 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
+        <v>329</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>330</v>
+      </c>
+      <c r="J42" t="s">
+        <v>331</v>
+      </c>
+      <c r="K42" t="s">
+        <v>332</v>
+      </c>
+      <c r="L42" t="s">
+        <v>333</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
         <v>327</v>
       </c>
-      <c r="G42" t="s">
-        <v>46</v>
-      </c>
-      <c r="H42" t="s">
-        <v>47</v>
-      </c>
-      <c r="I42" t="s">
-        <v>328</v>
-      </c>
-      <c r="J42" t="s">
-        <v>329</v>
-      </c>
-      <c r="K42" t="s">
-        <v>330</v>
-      </c>
-      <c r="L42" t="s">
-        <v>331</v>
-      </c>
-      <c r="M42" t="n">
-        <v>4</v>
-      </c>
-      <c r="N42" t="s">
-        <v>332</v>
-      </c>
       <c r="O42" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="P42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q42" t="s"/>
-      <c r="R42" t="n">
-        <v>2</v>
-      </c>
-      <c r="S42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>3</v>
+      </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="X42" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="Y42" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="43">
@@ -4631,7 +5505,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4640,43 +5514,47 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="J43" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="K43" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="L43" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="M43" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="O43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
       <c r="R43" t="s"/>
-      <c r="S43" t="s"/>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
       <c r="T43" t="s"/>
-      <c r="U43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="X43" t="s">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="Y43" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
     </row>
     <row r="44">
@@ -4692,7 +5570,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4701,43 +5579,45 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="J44" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="K44" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="L44" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
-      </c>
-      <c r="P44" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
       <c r="Q44" t="s"/>
       <c r="R44" t="s"/>
-      <c r="S44" t="s"/>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
       <c r="T44" t="s"/>
-      <c r="U44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s">
-        <v>345</v>
-      </c>
-      <c r="X44" t="s">
-        <v>346</v>
-      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="45">
@@ -4753,7 +5633,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4762,43 +5642,45 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="J45" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="K45" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="L45" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="O45" t="s">
         <v>53</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
-      <c r="R45" t="s"/>
-      <c r="S45" t="s"/>
+      <c r="R45" t="n">
+        <v>3</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
       <c r="T45" t="s"/>
-      <c r="U45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s">
-        <v>353</v>
-      </c>
-      <c r="X45" t="s">
-        <v>354</v>
-      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="46">
@@ -4814,7 +5696,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4823,43 +5705,43 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="J46" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K46" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L46" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="s"/>
-      <c r="R46" t="s"/>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
       <c r="S46" t="s"/>
       <c r="T46" t="s"/>
-      <c r="U46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s">
-        <v>353</v>
-      </c>
-      <c r="X46" t="s">
-        <v>354</v>
-      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="47">
@@ -4875,56 +5757,46 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
+        <v>364</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>365</v>
+      </c>
+      <c r="J47" t="s">
+        <v>366</v>
+      </c>
+      <c r="K47" t="s">
+        <v>367</v>
+      </c>
+      <c r="L47" t="s">
+        <v>368</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
         <v>362</v>
       </c>
-      <c r="G47" t="s">
-        <v>46</v>
-      </c>
-      <c r="H47" t="s">
-        <v>47</v>
-      </c>
-      <c r="I47" t="s">
-        <v>363</v>
-      </c>
-      <c r="J47" t="s">
-        <v>364</v>
-      </c>
-      <c r="K47" t="s">
-        <v>365</v>
-      </c>
-      <c r="L47" t="s">
-        <v>366</v>
-      </c>
-      <c r="M47" t="n">
-        <v>5</v>
-      </c>
-      <c r="N47" t="s">
-        <v>367</v>
-      </c>
       <c r="O47" t="s">
-        <v>70</v>
-      </c>
-      <c r="P47" t="n">
-        <v>5</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
       <c r="R47" t="s"/>
-      <c r="S47" t="n">
-        <v>5</v>
-      </c>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
-      <c r="U47" t="n">
-        <v>5</v>
-      </c>
+      <c r="U47" t="s"/>
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s">
-        <v>353</v>
-      </c>
-      <c r="X47" t="s">
-        <v>354</v>
-      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
       <c r="Y47" t="s">
         <v>368</v>
       </c>
@@ -4963,35 +5835,33 @@
         <v>373</v>
       </c>
       <c r="M48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N48" t="s">
         <v>374</v>
       </c>
       <c r="O48" t="s">
-        <v>375</v>
-      </c>
-      <c r="P48" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
       <c r="Q48" t="s"/>
-      <c r="R48" t="n">
-        <v>4</v>
-      </c>
-      <c r="S48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s">
-        <v>376</v>
-      </c>
-      <c r="X48" t="s">
-        <v>377</v>
-      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="49">
@@ -5007,31 +5877,31 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
+        <v>375</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>376</v>
+      </c>
+      <c r="J49" t="s">
+        <v>377</v>
+      </c>
+      <c r="K49" t="s">
+        <v>378</v>
+      </c>
+      <c r="L49" t="s">
         <v>379</v>
       </c>
-      <c r="G49" t="s">
-        <v>46</v>
-      </c>
-      <c r="H49" t="s">
-        <v>47</v>
-      </c>
-      <c r="I49" t="s">
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
         <v>380</v>
-      </c>
-      <c r="J49" t="s">
-        <v>381</v>
-      </c>
-      <c r="K49" t="s">
-        <v>382</v>
-      </c>
-      <c r="L49" t="s">
-        <v>383</v>
-      </c>
-      <c r="M49" t="n">
-        <v>4</v>
-      </c>
-      <c r="N49" t="s">
-        <v>374</v>
       </c>
       <c r="O49" t="s">
         <v>53</v>
@@ -5045,14 +5915,10 @@
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s">
-        <v>376</v>
-      </c>
-      <c r="X49" t="s">
-        <v>377</v>
-      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
     </row>
     <row r="50">
@@ -5068,52 +5934,52 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
+        <v>381</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>382</v>
+      </c>
+      <c r="J50" t="s">
+        <v>383</v>
+      </c>
+      <c r="K50" t="s">
+        <v>384</v>
+      </c>
+      <c r="L50" t="s">
         <v>385</v>
       </c>
-      <c r="G50" t="s">
-        <v>46</v>
-      </c>
-      <c r="H50" t="s">
-        <v>47</v>
-      </c>
-      <c r="I50" t="s">
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
         <v>386</v>
       </c>
-      <c r="J50" t="s">
-        <v>387</v>
-      </c>
-      <c r="K50" t="s">
-        <v>388</v>
-      </c>
-      <c r="L50" t="s">
-        <v>389</v>
-      </c>
-      <c r="M50" t="n">
-        <v>2</v>
-      </c>
-      <c r="N50" t="s">
-        <v>390</v>
-      </c>
       <c r="O50" t="s">
-        <v>53</v>
-      </c>
-      <c r="P50" t="s"/>
+        <v>328</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
       <c r="Q50" t="s"/>
       <c r="R50" t="s"/>
       <c r="S50" t="s"/>
       <c r="T50" t="s"/>
-      <c r="U50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s">
-        <v>391</v>
-      </c>
-      <c r="X50" t="s">
-        <v>392</v>
-      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
     </row>
     <row r="51">
@@ -5129,7 +5995,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5138,49 +6004,39 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="J51" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="K51" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="L51" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="M51" t="n">
         <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="O51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
-      <c r="R51" t="n">
-        <v>4</v>
-      </c>
-      <c r="S51" t="n">
-        <v>4</v>
-      </c>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
       <c r="T51" t="s"/>
-      <c r="U51" t="n">
-        <v>2</v>
-      </c>
+      <c r="U51" t="s"/>
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s">
-        <v>400</v>
-      </c>
-      <c r="X51" t="s">
-        <v>401</v>
-      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
     </row>
     <row r="52">
@@ -5196,7 +6052,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5205,47 +6061,39 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="J52" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="K52" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="L52" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="M52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="O52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
       <c r="R52" t="s"/>
-      <c r="S52" t="n">
-        <v>3</v>
-      </c>
+      <c r="S52" t="s"/>
       <c r="T52" t="s"/>
-      <c r="U52" t="n">
-        <v>2</v>
-      </c>
+      <c r="U52" t="s"/>
       <c r="V52" t="n">
         <v>0</v>
       </c>
-      <c r="W52" t="s">
-        <v>400</v>
-      </c>
-      <c r="X52" t="s">
-        <v>401</v>
-      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>408</v>
+        <v>397</v>
       </c>
     </row>
     <row r="53">
@@ -5261,7 +6109,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5270,49 +6118,39 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="J53" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="K53" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="L53" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="M53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
-      </c>
-      <c r="P53" t="n">
-        <v>5</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
       <c r="R53" t="s"/>
-      <c r="S53" t="n">
-        <v>5</v>
-      </c>
+      <c r="S53" t="s"/>
       <c r="T53" t="s"/>
-      <c r="U53" t="n">
-        <v>5</v>
-      </c>
+      <c r="U53" t="s"/>
       <c r="V53" t="n">
         <v>0</v>
       </c>
-      <c r="W53" t="s">
-        <v>391</v>
-      </c>
-      <c r="X53" t="s">
-        <v>392</v>
-      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="54">
@@ -5328,7 +6166,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5337,31 +6175,33 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="J54" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="K54" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="L54" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="M54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="O54" t="s">
-        <v>70</v>
-      </c>
-      <c r="P54" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q54" t="s"/>
-      <c r="R54" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
       <c r="S54" t="s"/>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
@@ -5370,14 +6210,10 @@
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s">
-        <v>391</v>
-      </c>
-      <c r="X54" t="s">
-        <v>392</v>
-      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
     </row>
     <row r="55">
@@ -5393,7 +6229,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5402,30 +6238,30 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="J55" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="K55" t="s">
-        <v>424</v>
+        <v>110</v>
       </c>
       <c r="L55" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="O55" t="s">
-        <v>219</v>
-      </c>
-      <c r="P55" t="s"/>
-      <c r="Q55" t="n">
-        <v>5</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="s"/>
       <c r="R55" t="n">
         <v>5</v>
       </c>
@@ -5437,14 +6273,10 @@
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s">
-        <v>426</v>
-      </c>
-      <c r="X55" t="s">
-        <v>427</v>
-      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
     </row>
     <row r="56">
@@ -5460,7 +6292,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5469,30 +6301,30 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="J56" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="K56" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="L56" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="M56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
-      </c>
-      <c r="P56" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q56" t="s"/>
+        <v>328</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
       <c r="R56" t="s"/>
       <c r="S56" t="n">
         <v>5</v>
@@ -5504,14 +6336,10 @@
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s">
-        <v>434</v>
-      </c>
-      <c r="X56" t="s">
-        <v>435</v>
-      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
     </row>
     <row r="57">
@@ -5527,7 +6355,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5536,49 +6364,39 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="J57" t="s">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="K57" t="s">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="L57" t="s">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="M57" t="n">
         <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="O57" t="s">
-        <v>53</v>
-      </c>
-      <c r="P57" t="n">
-        <v>3</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
       <c r="R57" t="s"/>
-      <c r="S57" t="n">
-        <v>3</v>
-      </c>
+      <c r="S57" t="s"/>
       <c r="T57" t="s"/>
-      <c r="U57" t="n">
-        <v>5</v>
-      </c>
+      <c r="U57" t="s"/>
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s">
-        <v>442</v>
-      </c>
-      <c r="X57" t="s">
-        <v>443</v>
-      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
     </row>
     <row r="58">
@@ -5594,7 +6412,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5603,43 +6421,45 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>446</v>
+        <v>427</v>
       </c>
       <c r="J58" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="K58" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
       <c r="L58" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="M58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="O58" t="s">
-        <v>53</v>
-      </c>
-      <c r="P58" t="s"/>
+        <v>431</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
       <c r="Q58" t="s"/>
-      <c r="R58" t="s"/>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
       <c r="S58" t="s"/>
       <c r="T58" t="s"/>
-      <c r="U58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
       <c r="V58" t="n">
         <v>0</v>
       </c>
-      <c r="W58" t="s">
-        <v>450</v>
-      </c>
-      <c r="X58" t="s">
-        <v>451</v>
-      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>452</v>
+        <v>432</v>
       </c>
     </row>
     <row r="59">
@@ -5655,7 +6475,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5664,49 +6484,43 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>454</v>
+        <v>434</v>
       </c>
       <c r="J59" t="s">
-        <v>455</v>
+        <v>435</v>
       </c>
       <c r="K59" t="s">
-        <v>456</v>
+        <v>436</v>
       </c>
       <c r="L59" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="M59" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
       <c r="O59" t="s">
-        <v>70</v>
+        <v>328</v>
       </c>
       <c r="P59" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q59" t="s"/>
       <c r="R59" t="s"/>
       <c r="S59" t="s"/>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="s">
-        <v>459</v>
-      </c>
-      <c r="X59" t="s">
-        <v>460</v>
-      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
     </row>
     <row r="60">
@@ -5722,7 +6536,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -5731,25 +6545,25 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>463</v>
+        <v>440</v>
       </c>
       <c r="J60" t="s">
-        <v>464</v>
+        <v>441</v>
       </c>
       <c r="K60" t="s">
-        <v>465</v>
+        <v>442</v>
       </c>
       <c r="L60" t="s">
-        <v>466</v>
+        <v>443</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>458</v>
+        <v>438</v>
       </c>
       <c r="O60" t="s">
-        <v>70</v>
+        <v>328</v>
       </c>
       <c r="P60" t="s"/>
       <c r="Q60" t="s"/>
@@ -5760,14 +6574,10 @@
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s">
-        <v>467</v>
-      </c>
-      <c r="X60" t="s">
-        <v>468</v>
-      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
     </row>
     <row r="61">
@@ -5783,7 +6593,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -5792,49 +6602,45 @@
         <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>471</v>
+        <v>446</v>
       </c>
       <c r="J61" t="s">
-        <v>472</v>
+        <v>447</v>
       </c>
       <c r="K61" t="s">
-        <v>473</v>
+        <v>448</v>
       </c>
       <c r="L61" t="s">
-        <v>474</v>
+        <v>449</v>
       </c>
       <c r="M61" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>475</v>
+        <v>438</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
-      </c>
-      <c r="P61" t="s"/>
-      <c r="Q61" t="s"/>
-      <c r="R61" t="n">
-        <v>1</v>
-      </c>
-      <c r="S61" t="n">
-        <v>1</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
       <c r="T61" t="s"/>
       <c r="U61" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s">
-        <v>459</v>
-      </c>
-      <c r="X61" t="s">
-        <v>460</v>
-      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>476</v>
+        <v>450</v>
       </c>
     </row>
     <row r="62">
@@ -5850,7 +6656,7 @@
         <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>477</v>
+        <v>451</v>
       </c>
       <c r="G62" t="s">
         <v>46</v>
@@ -5859,49 +6665,39 @@
         <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>478</v>
+        <v>452</v>
       </c>
       <c r="J62" t="s">
-        <v>479</v>
+        <v>453</v>
       </c>
       <c r="K62" t="s">
-        <v>480</v>
+        <v>454</v>
       </c>
       <c r="L62" t="s">
-        <v>481</v>
+        <v>455</v>
       </c>
       <c r="M62" t="n">
-        <v>5</v>
-      </c>
-      <c r="N62" t="s"/>
-      <c r="O62" t="s"/>
-      <c r="P62" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>5</v>
-      </c>
-      <c r="R62" t="n">
         <v>4</v>
       </c>
-      <c r="S62" t="n">
-        <v>5</v>
-      </c>
+      <c r="N62" t="s">
+        <v>438</v>
+      </c>
+      <c r="O62" t="s">
+        <v>328</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
       <c r="T62" t="s"/>
-      <c r="U62" t="n">
-        <v>5</v>
-      </c>
+      <c r="U62" t="s"/>
       <c r="V62" t="n">
         <v>0</v>
       </c>
-      <c r="W62" t="s">
-        <v>482</v>
-      </c>
-      <c r="X62" t="s">
-        <v>483</v>
-      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>484</v>
+        <v>455</v>
       </c>
     </row>
     <row r="63">
@@ -5917,7 +6713,7 @@
         <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>485</v>
+        <v>456</v>
       </c>
       <c r="G63" t="s">
         <v>46</v>
@@ -5926,47 +6722,39 @@
         <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>486</v>
+        <v>457</v>
       </c>
       <c r="J63" t="s">
-        <v>487</v>
+        <v>458</v>
       </c>
       <c r="K63" t="s">
-        <v>488</v>
+        <v>459</v>
       </c>
       <c r="L63" t="s">
-        <v>489</v>
+        <v>460</v>
       </c>
       <c r="M63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="O63" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="P63" t="s"/>
-      <c r="Q63" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q63" t="s"/>
       <c r="R63" t="s"/>
       <c r="S63" t="s"/>
       <c r="T63" t="s"/>
-      <c r="U63" t="n">
-        <v>4</v>
-      </c>
+      <c r="U63" t="s"/>
       <c r="V63" t="n">
         <v>0</v>
       </c>
-      <c r="W63" t="s">
-        <v>490</v>
-      </c>
-      <c r="X63" t="s">
-        <v>491</v>
-      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>492</v>
+        <v>460</v>
       </c>
     </row>
     <row r="64">
@@ -5982,7 +6770,7 @@
         <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>493</v>
+        <v>462</v>
       </c>
       <c r="G64" t="s">
         <v>46</v>
@@ -5991,43 +6779,45 @@
         <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>494</v>
+        <v>463</v>
       </c>
       <c r="J64" t="s">
-        <v>495</v>
+        <v>464</v>
       </c>
       <c r="K64" t="s">
-        <v>496</v>
+        <v>465</v>
       </c>
       <c r="L64" t="s">
-        <v>497</v>
+        <v>466</v>
       </c>
       <c r="M64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>498</v>
+        <v>467</v>
       </c>
       <c r="O64" t="s">
-        <v>70</v>
-      </c>
-      <c r="P64" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
       <c r="Q64" t="s"/>
-      <c r="R64" t="s"/>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
       <c r="S64" t="s"/>
       <c r="T64" t="s"/>
-      <c r="U64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
       <c r="V64" t="n">
         <v>0</v>
       </c>
-      <c r="W64" t="s">
-        <v>482</v>
-      </c>
-      <c r="X64" t="s">
-        <v>483</v>
-      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>499</v>
+        <v>466</v>
       </c>
     </row>
     <row r="65">
@@ -6043,7 +6833,7 @@
         <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>500</v>
+        <v>468</v>
       </c>
       <c r="G65" t="s">
         <v>46</v>
@@ -6052,47 +6842,39 @@
         <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>501</v>
+        <v>469</v>
       </c>
       <c r="J65" t="s">
-        <v>502</v>
+        <v>464</v>
       </c>
       <c r="K65" t="s">
-        <v>503</v>
+        <v>470</v>
       </c>
       <c r="L65" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="M65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>367</v>
+        <v>467</v>
       </c>
       <c r="O65" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P65" t="s"/>
-      <c r="Q65" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q65" t="s"/>
       <c r="R65" t="s"/>
       <c r="S65" t="s"/>
       <c r="T65" t="s"/>
-      <c r="U65" t="n">
-        <v>5</v>
-      </c>
+      <c r="U65" t="s"/>
       <c r="V65" t="n">
         <v>0</v>
       </c>
-      <c r="W65" t="s">
-        <v>505</v>
-      </c>
-      <c r="X65" t="s">
-        <v>506</v>
-      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>507</v>
+        <v>472</v>
       </c>
     </row>
     <row r="66">
@@ -6108,7 +6890,7 @@
         <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>508</v>
+        <v>473</v>
       </c>
       <c r="G66" t="s">
         <v>46</v>
@@ -6117,43 +6899,2938 @@
         <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>509</v>
+        <v>474</v>
       </c>
       <c r="J66" t="s">
-        <v>510</v>
+        <v>475</v>
       </c>
       <c r="K66" t="s">
-        <v>511</v>
+        <v>476</v>
       </c>
       <c r="L66" t="s">
-        <v>512</v>
+        <v>477</v>
       </c>
       <c r="M66" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>513</v>
+        <v>478</v>
       </c>
       <c r="O66" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="s"/>
-      <c r="R66" t="s"/>
-      <c r="S66" t="s"/>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
       <c r="T66" t="s"/>
-      <c r="U66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
       <c r="V66" t="n">
         <v>0</v>
       </c>
-      <c r="W66" t="s">
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>479</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>480</v>
+      </c>
+      <c r="J67" t="s">
+        <v>481</v>
+      </c>
+      <c r="K67" t="s">
+        <v>482</v>
+      </c>
+      <c r="L67" t="s">
+        <v>483</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>484</v>
+      </c>
+      <c r="O67" t="s">
+        <v>69</v>
+      </c>
+      <c r="P67" t="s"/>
+      <c r="Q67" t="s"/>
+      <c r="R67" t="s"/>
+      <c r="S67" t="s"/>
+      <c r="T67" t="s"/>
+      <c r="U67" t="s"/>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>486</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>487</v>
+      </c>
+      <c r="J68" t="s">
+        <v>488</v>
+      </c>
+      <c r="K68" t="s">
+        <v>489</v>
+      </c>
+      <c r="L68" t="s">
+        <v>490</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>491</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="s"/>
+      <c r="Q68" t="s"/>
+      <c r="R68" t="s"/>
+      <c r="S68" t="s"/>
+      <c r="T68" t="s"/>
+      <c r="U68" t="s"/>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>492</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>493</v>
+      </c>
+      <c r="J69" t="s">
+        <v>494</v>
+      </c>
+      <c r="K69" t="s">
+        <v>495</v>
+      </c>
+      <c r="L69" t="s">
+        <v>496</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>478</v>
+      </c>
+      <c r="O69" t="s">
+        <v>62</v>
+      </c>
+      <c r="P69" t="s"/>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>498</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>499</v>
+      </c>
+      <c r="J70" t="s">
+        <v>500</v>
+      </c>
+      <c r="K70" t="s">
+        <v>501</v>
+      </c>
+      <c r="L70" t="s">
+        <v>502</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>503</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="s"/>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="s"/>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>3</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>504</v>
+      </c>
+      <c r="X70" t="s">
+        <v>505</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>507</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>508</v>
+      </c>
+      <c r="J71" t="s">
+        <v>509</v>
+      </c>
+      <c r="K71" t="s">
+        <v>510</v>
+      </c>
+      <c r="L71" t="s">
+        <v>511</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>512</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="n">
+        <v>2</v>
+      </c>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>504</v>
+      </c>
+      <c r="X71" t="s">
+        <v>505</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
         <v>514</v>
       </c>
-      <c r="X66" t="s">
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
         <v>515</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="J72" t="s">
         <v>516</v>
+      </c>
+      <c r="K72" t="s">
+        <v>517</v>
+      </c>
+      <c r="L72" t="s">
+        <v>518</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>503</v>
+      </c>
+      <c r="O72" t="s">
+        <v>69</v>
+      </c>
+      <c r="P72" t="s"/>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="s"/>
+      <c r="T72" t="s"/>
+      <c r="U72" t="s"/>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>504</v>
+      </c>
+      <c r="X72" t="s">
+        <v>505</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>520</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>521</v>
+      </c>
+      <c r="J73" t="s">
+        <v>522</v>
+      </c>
+      <c r="K73" t="s">
+        <v>523</v>
+      </c>
+      <c r="L73" t="s">
+        <v>524</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>503</v>
+      </c>
+      <c r="O73" t="s">
+        <v>431</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>504</v>
+      </c>
+      <c r="X73" t="s">
+        <v>505</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>526</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>527</v>
+      </c>
+      <c r="J74" t="s">
+        <v>528</v>
+      </c>
+      <c r="K74" t="s">
+        <v>529</v>
+      </c>
+      <c r="L74" t="s">
+        <v>530</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>503</v>
+      </c>
+      <c r="O74" t="s">
+        <v>69</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="s"/>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>3</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>504</v>
+      </c>
+      <c r="X74" t="s">
+        <v>505</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>532</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>533</v>
+      </c>
+      <c r="J75" t="s">
+        <v>534</v>
+      </c>
+      <c r="K75" t="s">
+        <v>535</v>
+      </c>
+      <c r="L75" t="s">
+        <v>536</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>503</v>
+      </c>
+      <c r="O75" t="s">
+        <v>62</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="s"/>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>537</v>
+      </c>
+      <c r="X75" t="s">
+        <v>538</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>540</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>541</v>
+      </c>
+      <c r="J76" t="s">
+        <v>542</v>
+      </c>
+      <c r="K76" t="s">
+        <v>543</v>
+      </c>
+      <c r="L76" t="s">
+        <v>544</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>503</v>
+      </c>
+      <c r="O76" t="s">
+        <v>62</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="s"/>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>545</v>
+      </c>
+      <c r="X76" t="s">
+        <v>546</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>548</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>549</v>
+      </c>
+      <c r="J77" t="s">
+        <v>550</v>
+      </c>
+      <c r="K77" t="s">
+        <v>551</v>
+      </c>
+      <c r="L77" t="s">
+        <v>552</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>503</v>
+      </c>
+      <c r="O77" t="s">
+        <v>62</v>
+      </c>
+      <c r="P77" t="s"/>
+      <c r="Q77" t="s"/>
+      <c r="R77" t="s"/>
+      <c r="S77" t="s"/>
+      <c r="T77" t="s"/>
+      <c r="U77" t="s"/>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>545</v>
+      </c>
+      <c r="X77" t="s">
+        <v>546</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>554</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>555</v>
+      </c>
+      <c r="J78" t="s">
+        <v>556</v>
+      </c>
+      <c r="K78" t="s">
+        <v>557</v>
+      </c>
+      <c r="L78" t="s">
+        <v>558</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>559</v>
+      </c>
+      <c r="O78" t="s">
+        <v>69</v>
+      </c>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="s"/>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>545</v>
+      </c>
+      <c r="X78" t="s">
+        <v>546</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>561</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>562</v>
+      </c>
+      <c r="J79" t="s">
+        <v>563</v>
+      </c>
+      <c r="K79" t="s">
+        <v>564</v>
+      </c>
+      <c r="L79" t="s">
+        <v>565</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>559</v>
+      </c>
+      <c r="O79" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="s"/>
+      <c r="R79" t="s"/>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>545</v>
+      </c>
+      <c r="X79" t="s">
+        <v>546</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>567</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>568</v>
+      </c>
+      <c r="J80" t="s">
+        <v>569</v>
+      </c>
+      <c r="K80" t="s">
+        <v>570</v>
+      </c>
+      <c r="L80" t="s">
+        <v>571</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>572</v>
+      </c>
+      <c r="O80" t="s">
+        <v>69</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="s"/>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>545</v>
+      </c>
+      <c r="X80" t="s">
+        <v>546</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>574</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>575</v>
+      </c>
+      <c r="J81" t="s">
+        <v>576</v>
+      </c>
+      <c r="K81" t="s">
+        <v>577</v>
+      </c>
+      <c r="L81" t="s">
+        <v>578</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>579</v>
+      </c>
+      <c r="O81" t="s">
+        <v>431</v>
+      </c>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>580</v>
+      </c>
+      <c r="X81" t="s">
+        <v>581</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>583</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>584</v>
+      </c>
+      <c r="J82" t="s">
+        <v>585</v>
+      </c>
+      <c r="K82" t="s">
+        <v>586</v>
+      </c>
+      <c r="L82" t="s">
+        <v>587</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>579</v>
+      </c>
+      <c r="O82" t="s">
+        <v>62</v>
+      </c>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
+      <c r="S82" t="s"/>
+      <c r="T82" t="s"/>
+      <c r="U82" t="s"/>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>580</v>
+      </c>
+      <c r="X82" t="s">
+        <v>581</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>589</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>590</v>
+      </c>
+      <c r="J83" t="s">
+        <v>591</v>
+      </c>
+      <c r="K83" t="s">
+        <v>592</v>
+      </c>
+      <c r="L83" t="s">
+        <v>593</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s">
+        <v>594</v>
+      </c>
+      <c r="O83" t="s">
+        <v>69</v>
+      </c>
+      <c r="P83" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="n">
+        <v>3</v>
+      </c>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>3</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>595</v>
+      </c>
+      <c r="X83" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>598</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>599</v>
+      </c>
+      <c r="J84" t="s">
+        <v>600</v>
+      </c>
+      <c r="K84" t="s">
+        <v>601</v>
+      </c>
+      <c r="L84" t="s">
+        <v>602</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="s">
+        <v>603</v>
+      </c>
+      <c r="O84" t="s">
+        <v>62</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>595</v>
+      </c>
+      <c r="X84" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>605</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>606</v>
+      </c>
+      <c r="J85" t="s">
+        <v>600</v>
+      </c>
+      <c r="K85" t="s">
+        <v>607</v>
+      </c>
+      <c r="L85" t="s">
+        <v>608</v>
+      </c>
+      <c r="M85" t="n">
+        <v>2</v>
+      </c>
+      <c r="N85" t="s">
+        <v>603</v>
+      </c>
+      <c r="O85" t="s">
+        <v>62</v>
+      </c>
+      <c r="P85" t="s"/>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="s"/>
+      <c r="T85" t="s"/>
+      <c r="U85" t="s"/>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>609</v>
+      </c>
+      <c r="X85" t="s">
+        <v>610</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>612</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>613</v>
+      </c>
+      <c r="J86" t="s">
+        <v>614</v>
+      </c>
+      <c r="K86" t="s">
+        <v>615</v>
+      </c>
+      <c r="L86" t="s">
+        <v>616</v>
+      </c>
+      <c r="M86" t="n">
+        <v>3</v>
+      </c>
+      <c r="N86" t="s">
+        <v>594</v>
+      </c>
+      <c r="O86" t="s">
+        <v>69</v>
+      </c>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>4</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>2</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>595</v>
+      </c>
+      <c r="X86" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>618</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>619</v>
+      </c>
+      <c r="J87" t="s">
+        <v>620</v>
+      </c>
+      <c r="K87" t="s">
+        <v>621</v>
+      </c>
+      <c r="L87" t="s">
+        <v>622</v>
+      </c>
+      <c r="M87" t="n">
+        <v>3</v>
+      </c>
+      <c r="N87" t="s">
+        <v>603</v>
+      </c>
+      <c r="O87" t="s">
+        <v>69</v>
+      </c>
+      <c r="P87" t="s"/>
+      <c r="Q87" t="s"/>
+      <c r="R87" t="s"/>
+      <c r="S87" t="n">
+        <v>3</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>2</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>595</v>
+      </c>
+      <c r="X87" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>624</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>625</v>
+      </c>
+      <c r="J88" t="s">
+        <v>626</v>
+      </c>
+      <c r="K88" t="s">
+        <v>627</v>
+      </c>
+      <c r="L88" t="s">
+        <v>628</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>603</v>
+      </c>
+      <c r="O88" t="s">
+        <v>69</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="s"/>
+      <c r="R88" t="s"/>
+      <c r="S88" t="s"/>
+      <c r="T88" t="s"/>
+      <c r="U88" t="s"/>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>595</v>
+      </c>
+      <c r="X88" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>630</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>631</v>
+      </c>
+      <c r="J89" t="s">
+        <v>632</v>
+      </c>
+      <c r="K89" t="s">
+        <v>633</v>
+      </c>
+      <c r="L89" t="s">
+        <v>634</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>594</v>
+      </c>
+      <c r="O89" t="s">
+        <v>328</v>
+      </c>
+      <c r="P89" t="s"/>
+      <c r="Q89" t="s"/>
+      <c r="R89" t="s"/>
+      <c r="S89" t="s"/>
+      <c r="T89" t="s"/>
+      <c r="U89" t="s"/>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>595</v>
+      </c>
+      <c r="X89" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>636</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>637</v>
+      </c>
+      <c r="J90" t="s">
+        <v>638</v>
+      </c>
+      <c r="K90" t="s">
+        <v>639</v>
+      </c>
+      <c r="L90" t="s">
+        <v>640</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>603</v>
+      </c>
+      <c r="O90" t="s">
+        <v>62</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="s"/>
+      <c r="R90" t="s"/>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>609</v>
+      </c>
+      <c r="X90" t="s">
+        <v>610</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>642</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>643</v>
+      </c>
+      <c r="J91" t="s">
+        <v>644</v>
+      </c>
+      <c r="K91" t="s">
+        <v>645</v>
+      </c>
+      <c r="L91" t="s">
+        <v>646</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>594</v>
+      </c>
+      <c r="O91" t="s">
+        <v>69</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="s"/>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>609</v>
+      </c>
+      <c r="X91" t="s">
+        <v>610</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>648</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>649</v>
+      </c>
+      <c r="J92" t="s">
+        <v>650</v>
+      </c>
+      <c r="K92" t="s">
+        <v>651</v>
+      </c>
+      <c r="L92" t="s">
+        <v>652</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>603</v>
+      </c>
+      <c r="O92" t="s">
+        <v>328</v>
+      </c>
+      <c r="P92" t="s"/>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="s"/>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>653</v>
+      </c>
+      <c r="X92" t="s">
+        <v>654</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>656</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>657</v>
+      </c>
+      <c r="J93" t="s">
+        <v>658</v>
+      </c>
+      <c r="K93" t="s">
+        <v>659</v>
+      </c>
+      <c r="L93" t="s">
+        <v>660</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>603</v>
+      </c>
+      <c r="O93" t="s">
+        <v>69</v>
+      </c>
+      <c r="P93" t="s"/>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="s"/>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>653</v>
+      </c>
+      <c r="X93" t="s">
+        <v>654</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>662</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>663</v>
+      </c>
+      <c r="J94" t="s">
+        <v>664</v>
+      </c>
+      <c r="K94" t="s">
+        <v>665</v>
+      </c>
+      <c r="L94" t="s">
+        <v>666</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>603</v>
+      </c>
+      <c r="O94" t="s">
+        <v>69</v>
+      </c>
+      <c r="P94" t="s"/>
+      <c r="Q94" t="s"/>
+      <c r="R94" t="s"/>
+      <c r="S94" t="n">
+        <v>4</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>4</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>653</v>
+      </c>
+      <c r="X94" t="s">
+        <v>654</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>668</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>669</v>
+      </c>
+      <c r="J95" t="s">
+        <v>670</v>
+      </c>
+      <c r="K95" t="s">
+        <v>671</v>
+      </c>
+      <c r="L95" t="s">
+        <v>672</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>603</v>
+      </c>
+      <c r="O95" t="s">
+        <v>62</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="s"/>
+      <c r="R95" t="s"/>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s">
+        <v>673</v>
+      </c>
+      <c r="X95" t="s">
+        <v>674</v>
+      </c>
+      <c r="Y95" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>676</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>677</v>
+      </c>
+      <c r="J96" t="s">
+        <v>678</v>
+      </c>
+      <c r="K96" t="s">
+        <v>679</v>
+      </c>
+      <c r="L96" t="s">
+        <v>680</v>
+      </c>
+      <c r="M96" t="n">
+        <v>3</v>
+      </c>
+      <c r="N96" t="s">
+        <v>594</v>
+      </c>
+      <c r="O96" t="s">
+        <v>62</v>
+      </c>
+      <c r="P96" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q96" t="s"/>
+      <c r="R96" t="s"/>
+      <c r="S96" t="n">
+        <v>3</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s">
+        <v>681</v>
+      </c>
+      <c r="X96" t="s">
+        <v>682</v>
+      </c>
+      <c r="Y96" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>684</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>685</v>
+      </c>
+      <c r="J97" t="s">
+        <v>686</v>
+      </c>
+      <c r="K97" t="s">
+        <v>687</v>
+      </c>
+      <c r="L97" t="s">
+        <v>688</v>
+      </c>
+      <c r="M97" t="n">
+        <v>2</v>
+      </c>
+      <c r="N97" t="s">
+        <v>594</v>
+      </c>
+      <c r="O97" t="s">
+        <v>62</v>
+      </c>
+      <c r="P97" t="s"/>
+      <c r="Q97" t="s"/>
+      <c r="R97" t="s"/>
+      <c r="S97" t="s"/>
+      <c r="T97" t="s"/>
+      <c r="U97" t="s"/>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s">
+        <v>689</v>
+      </c>
+      <c r="X97" t="s">
+        <v>690</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>692</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>693</v>
+      </c>
+      <c r="J98" t="s">
+        <v>694</v>
+      </c>
+      <c r="K98" t="s">
+        <v>695</v>
+      </c>
+      <c r="L98" t="s">
+        <v>696</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="s">
+        <v>594</v>
+      </c>
+      <c r="O98" t="s">
+        <v>53</v>
+      </c>
+      <c r="P98" t="s"/>
+      <c r="Q98" t="s"/>
+      <c r="R98" t="s"/>
+      <c r="S98" t="s"/>
+      <c r="T98" t="s"/>
+      <c r="U98" t="s"/>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s">
+        <v>697</v>
+      </c>
+      <c r="X98" t="s">
+        <v>698</v>
+      </c>
+      <c r="Y98" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>700</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>701</v>
+      </c>
+      <c r="J99" t="s">
+        <v>702</v>
+      </c>
+      <c r="K99" t="s">
+        <v>703</v>
+      </c>
+      <c r="L99" t="s">
+        <v>704</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>705</v>
+      </c>
+      <c r="O99" t="s">
+        <v>69</v>
+      </c>
+      <c r="P99" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s">
+        <v>706</v>
+      </c>
+      <c r="X99" t="s">
+        <v>707</v>
+      </c>
+      <c r="Y99" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>709</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>710</v>
+      </c>
+      <c r="J100" t="s">
+        <v>711</v>
+      </c>
+      <c r="K100" t="s">
+        <v>712</v>
+      </c>
+      <c r="L100" t="s">
+        <v>713</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="s">
+        <v>705</v>
+      </c>
+      <c r="O100" t="s">
+        <v>69</v>
+      </c>
+      <c r="P100" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>3</v>
+      </c>
+      <c r="R100" t="s"/>
+      <c r="S100" t="s"/>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>1</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s">
+        <v>714</v>
+      </c>
+      <c r="X100" t="s">
+        <v>715</v>
+      </c>
+      <c r="Y100" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>717</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>718</v>
+      </c>
+      <c r="J101" t="s">
+        <v>719</v>
+      </c>
+      <c r="K101" t="s">
+        <v>720</v>
+      </c>
+      <c r="L101" t="s">
+        <v>721</v>
+      </c>
+      <c r="M101" t="n">
+        <v>4</v>
+      </c>
+      <c r="N101" t="s">
+        <v>705</v>
+      </c>
+      <c r="O101" t="s">
+        <v>69</v>
+      </c>
+      <c r="P101" t="s"/>
+      <c r="Q101" t="s"/>
+      <c r="R101" t="s"/>
+      <c r="S101" t="s"/>
+      <c r="T101" t="s"/>
+      <c r="U101" t="s"/>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s">
+        <v>722</v>
+      </c>
+      <c r="X101" t="s">
+        <v>723</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>725</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>726</v>
+      </c>
+      <c r="J102" t="s">
+        <v>727</v>
+      </c>
+      <c r="K102" t="s">
+        <v>728</v>
+      </c>
+      <c r="L102" t="s">
+        <v>729</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="s">
+        <v>730</v>
+      </c>
+      <c r="O102" t="s">
+        <v>62</v>
+      </c>
+      <c r="P102" t="s"/>
+      <c r="Q102" t="s"/>
+      <c r="R102" t="n">
+        <v>1</v>
+      </c>
+      <c r="S102" t="n">
+        <v>1</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>1</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>714</v>
+      </c>
+      <c r="X102" t="s">
+        <v>715</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>732</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>733</v>
+      </c>
+      <c r="J103" t="s">
+        <v>734</v>
+      </c>
+      <c r="K103" t="s">
+        <v>735</v>
+      </c>
+      <c r="L103" t="s">
+        <v>736</v>
+      </c>
+      <c r="M103" t="n">
+        <v>4</v>
+      </c>
+      <c r="N103" t="s">
+        <v>737</v>
+      </c>
+      <c r="O103" t="s">
+        <v>62</v>
+      </c>
+      <c r="P103" t="s"/>
+      <c r="Q103" t="n">
+        <v>5</v>
+      </c>
+      <c r="R103" t="s"/>
+      <c r="S103" t="s"/>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s">
+        <v>738</v>
+      </c>
+      <c r="X103" t="s">
+        <v>739</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>741</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>742</v>
+      </c>
+      <c r="J104" t="s">
+        <v>743</v>
+      </c>
+      <c r="K104" t="s">
+        <v>744</v>
+      </c>
+      <c r="L104" t="s">
+        <v>745</v>
+      </c>
+      <c r="M104" t="n">
+        <v>3</v>
+      </c>
+      <c r="N104" t="s">
+        <v>730</v>
+      </c>
+      <c r="O104" t="s">
+        <v>69</v>
+      </c>
+      <c r="P104" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q104" t="s"/>
+      <c r="R104" t="s"/>
+      <c r="S104" t="n">
+        <v>2</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>2</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s">
+        <v>746</v>
+      </c>
+      <c r="X104" t="s">
+        <v>747</v>
+      </c>
+      <c r="Y104" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>749</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>750</v>
+      </c>
+      <c r="J105" t="s">
+        <v>751</v>
+      </c>
+      <c r="K105" t="s">
+        <v>752</v>
+      </c>
+      <c r="L105" t="s">
+        <v>753</v>
+      </c>
+      <c r="M105" t="n">
+        <v>5</v>
+      </c>
+      <c r="N105" t="s"/>
+      <c r="O105" t="s"/>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>5</v>
+      </c>
+      <c r="R105" t="n">
+        <v>4</v>
+      </c>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s">
+        <v>746</v>
+      </c>
+      <c r="X105" t="s">
+        <v>747</v>
+      </c>
+      <c r="Y105" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>755</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>756</v>
+      </c>
+      <c r="J106" t="s">
+        <v>757</v>
+      </c>
+      <c r="K106" t="s">
+        <v>758</v>
+      </c>
+      <c r="L106" t="s">
+        <v>759</v>
+      </c>
+      <c r="M106" t="n">
+        <v>4</v>
+      </c>
+      <c r="N106" t="s">
+        <v>730</v>
+      </c>
+      <c r="O106" t="s">
+        <v>69</v>
+      </c>
+      <c r="P106" t="s"/>
+      <c r="Q106" t="n">
+        <v>3</v>
+      </c>
+      <c r="R106" t="s"/>
+      <c r="S106" t="s"/>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>4</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s">
+        <v>760</v>
+      </c>
+      <c r="X106" t="s">
+        <v>761</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>763</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>764</v>
+      </c>
+      <c r="J107" t="s">
+        <v>765</v>
+      </c>
+      <c r="K107" t="s">
+        <v>766</v>
+      </c>
+      <c r="L107" t="s">
+        <v>767</v>
+      </c>
+      <c r="M107" t="n">
+        <v>3</v>
+      </c>
+      <c r="N107" t="s">
+        <v>768</v>
+      </c>
+      <c r="O107" t="s">
+        <v>69</v>
+      </c>
+      <c r="P107" t="s"/>
+      <c r="Q107" t="s"/>
+      <c r="R107" t="s"/>
+      <c r="S107" t="s"/>
+      <c r="T107" t="s"/>
+      <c r="U107" t="s"/>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s">
+        <v>746</v>
+      </c>
+      <c r="X107" t="s">
+        <v>747</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>770</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>771</v>
+      </c>
+      <c r="J108" t="s">
+        <v>772</v>
+      </c>
+      <c r="K108" t="s">
+        <v>773</v>
+      </c>
+      <c r="L108" t="s">
+        <v>774</v>
+      </c>
+      <c r="M108" t="n">
+        <v>4</v>
+      </c>
+      <c r="N108" t="s">
+        <v>768</v>
+      </c>
+      <c r="O108" t="s">
+        <v>69</v>
+      </c>
+      <c r="P108" t="s"/>
+      <c r="Q108" t="n">
+        <v>4</v>
+      </c>
+      <c r="R108" t="n">
+        <v>3</v>
+      </c>
+      <c r="S108" t="s"/>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>4</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s">
+        <v>775</v>
+      </c>
+      <c r="X108" t="s">
+        <v>776</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>778</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>779</v>
+      </c>
+      <c r="J109" t="s">
+        <v>780</v>
+      </c>
+      <c r="K109" t="s">
+        <v>781</v>
+      </c>
+      <c r="L109" t="s">
+        <v>782</v>
+      </c>
+      <c r="M109" t="n">
+        <v>3</v>
+      </c>
+      <c r="N109" t="s">
+        <v>572</v>
+      </c>
+      <c r="O109" t="s">
+        <v>62</v>
+      </c>
+      <c r="P109" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>4</v>
+      </c>
+      <c r="R109" t="s"/>
+      <c r="S109" t="s"/>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>5</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s">
+        <v>783</v>
+      </c>
+      <c r="X109" t="s">
+        <v>784</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>786</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>787</v>
+      </c>
+      <c r="J110" t="s">
+        <v>788</v>
+      </c>
+      <c r="K110" t="s">
+        <v>789</v>
+      </c>
+      <c r="L110" t="s">
+        <v>790</v>
+      </c>
+      <c r="M110" t="n">
+        <v>5</v>
+      </c>
+      <c r="N110" t="s">
+        <v>572</v>
+      </c>
+      <c r="O110" t="s">
+        <v>62</v>
+      </c>
+      <c r="P110" t="s"/>
+      <c r="Q110" t="n">
+        <v>5</v>
+      </c>
+      <c r="R110" t="s"/>
+      <c r="S110" t="s"/>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>5</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s">
+        <v>783</v>
+      </c>
+      <c r="X110" t="s">
+        <v>784</v>
+      </c>
+      <c r="Y110" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>51343</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>792</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>793</v>
+      </c>
+      <c r="J111" t="s">
+        <v>794</v>
+      </c>
+      <c r="K111" t="s">
+        <v>795</v>
+      </c>
+      <c r="L111" t="s">
+        <v>796</v>
+      </c>
+      <c r="M111" t="n">
+        <v>3</v>
+      </c>
+      <c r="N111" t="s">
+        <v>797</v>
+      </c>
+      <c r="O111" t="s">
+        <v>69</v>
+      </c>
+      <c r="P111" t="s"/>
+      <c r="Q111" t="s"/>
+      <c r="R111" t="s"/>
+      <c r="S111" t="s"/>
+      <c r="T111" t="s"/>
+      <c r="U111" t="s"/>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s">
+        <v>798</v>
+      </c>
+      <c r="X111" t="s">
+        <v>799</v>
+      </c>
+      <c r="Y111" t="s">
+        <v>800</v>
       </c>
     </row>
   </sheetData>
